--- a/Year2_GERR_Timetable.xlsx
+++ b/Year2_GERR_Timetable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TEMP\_Portal\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3057234\OneDrive - Queen's University Belfast\Documents\timetable-web-application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67E0112B-5F0D-42DD-8135-C95FA4E6526C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44381C42-D457-44A3-B2F8-536ACCA85370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24 Week Timetable" sheetId="1" r:id="rId1"/>
@@ -1533,7 +1533,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2683,30 +2683,30 @@
   </sheetPr>
   <dimension ref="A1:AW802"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L772" sqref="L772"/>
+    <sheetView tabSelected="1" topLeftCell="A795" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H796" sqref="H796"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="50.1" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="50.15" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" style="86" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="9" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" style="79" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="20.42578125" style="7" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="34.7109375" style="10" customWidth="1"/>
-    <col min="14" max="14" width="26.5703125" style="11" customWidth="1"/>
-    <col min="15" max="16384" width="8.5703125" style="7"/>
+    <col min="1" max="1" width="6.54296875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="9.26953125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="7.7265625" style="86" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="11.54296875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="17.7265625" style="79" customWidth="1"/>
+    <col min="10" max="10" width="16.54296875" style="7" customWidth="1"/>
+    <col min="11" max="11" width="20.453125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="20.54296875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="34.7265625" style="10" customWidth="1"/>
+    <col min="14" max="14" width="26.54296875" style="11" customWidth="1"/>
+    <col min="15" max="16384" width="8.54296875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="21">
+    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="21">
+    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="54" t="s">
         <v>14</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="21">
+    <row r="3" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A3" s="54" t="s">
         <v>14</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="21">
+    <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A4" s="54" t="s">
         <v>14</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="22.5">
+    <row r="5" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A5" s="54" t="s">
         <v>14</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="21">
+    <row r="6" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A6" s="54" t="s">
         <v>14</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="21">
+    <row r="7" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A7" s="54" t="s">
         <v>14</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="21">
+    <row r="8" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="54" t="s">
         <v>14</v>
       </c>
@@ -3054,7 +3054,7 @@
       </c>
       <c r="N8" s="36"/>
     </row>
-    <row r="9" spans="1:14" ht="21">
+    <row r="9" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="54" t="s">
         <v>14</v>
       </c>
@@ -3096,7 +3096,7 @@
       </c>
       <c r="N9" s="36"/>
     </row>
-    <row r="10" spans="1:14" ht="21">
+    <row r="10" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
         <v>14</v>
       </c>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="N10" s="36"/>
     </row>
-    <row r="11" spans="1:14" ht="21">
+    <row r="11" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="54" t="s">
         <v>14</v>
       </c>
@@ -3180,7 +3180,7 @@
       </c>
       <c r="N11" s="36"/>
     </row>
-    <row r="12" spans="1:14" ht="21">
+    <row r="12" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="54" t="s">
         <v>14</v>
       </c>
@@ -3222,7 +3222,7 @@
       </c>
       <c r="N12" s="36"/>
     </row>
-    <row r="13" spans="1:14" ht="21">
+    <row r="13" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
         <v>14</v>
       </c>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="N13" s="36"/>
     </row>
-    <row r="14" spans="1:14" ht="21">
+    <row r="14" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="54" t="s">
         <v>14</v>
       </c>
@@ -3306,7 +3306,7 @@
       </c>
       <c r="N14" s="36"/>
     </row>
-    <row r="15" spans="1:14" ht="21">
+    <row r="15" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A15" s="54" t="s">
         <v>14</v>
       </c>
@@ -3348,7 +3348,7 @@
       </c>
       <c r="N15" s="36"/>
     </row>
-    <row r="16" spans="1:14" ht="21">
+    <row r="16" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A16" s="54" t="s">
         <v>14</v>
       </c>
@@ -3390,7 +3390,7 @@
       </c>
       <c r="N16" s="36"/>
     </row>
-    <row r="17" spans="1:14" ht="21">
+    <row r="17" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A17" s="54" t="s">
         <v>14</v>
       </c>
@@ -3432,7 +3432,7 @@
       </c>
       <c r="N17" s="36"/>
     </row>
-    <row r="18" spans="1:14" ht="21">
+    <row r="18" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A18" s="54" t="s">
         <v>14</v>
       </c>
@@ -3474,7 +3474,7 @@
       </c>
       <c r="N18" s="36"/>
     </row>
-    <row r="19" spans="1:14" ht="21">
+    <row r="19" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A19" s="54" t="s">
         <v>14</v>
       </c>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="N19" s="36"/>
     </row>
-    <row r="20" spans="1:14" ht="22.5">
+    <row r="20" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A20" s="54" t="s">
         <v>14</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="21">
+    <row r="21" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="54" t="s">
         <v>14</v>
       </c>
@@ -3602,7 +3602,7 @@
       </c>
       <c r="N21" s="36"/>
     </row>
-    <row r="22" spans="1:14" ht="21">
+    <row r="22" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="54" t="s">
         <v>14</v>
       </c>
@@ -3644,7 +3644,7 @@
       </c>
       <c r="N22" s="36"/>
     </row>
-    <row r="23" spans="1:14" ht="21">
+    <row r="23" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="54" t="s">
         <v>14</v>
       </c>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="N23" s="36"/>
     </row>
-    <row r="24" spans="1:14" ht="21">
+    <row r="24" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="54" t="s">
         <v>14</v>
       </c>
@@ -3728,7 +3728,7 @@
       </c>
       <c r="N24" s="36"/>
     </row>
-    <row r="25" spans="1:14" ht="21">
+    <row r="25" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A25" s="54" t="s">
         <v>14</v>
       </c>
@@ -3770,7 +3770,7 @@
       </c>
       <c r="N25" s="36"/>
     </row>
-    <row r="26" spans="1:14" ht="21">
+    <row r="26" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A26" s="54" t="s">
         <v>14</v>
       </c>
@@ -3812,7 +3812,7 @@
       </c>
       <c r="N26" s="36"/>
     </row>
-    <row r="27" spans="1:14" ht="21">
+    <row r="27" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A27" s="54" t="s">
         <v>14</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="21">
+    <row r="28" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="54" t="s">
         <v>14</v>
       </c>
@@ -3898,7 +3898,7 @@
       </c>
       <c r="N28" s="36"/>
     </row>
-    <row r="29" spans="1:14" ht="21">
+    <row r="29" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="54" t="s">
         <v>14</v>
       </c>
@@ -3940,7 +3940,7 @@
       </c>
       <c r="N29" s="36"/>
     </row>
-    <row r="30" spans="1:14" ht="21">
+    <row r="30" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="54" t="s">
         <v>14</v>
       </c>
@@ -3982,7 +3982,7 @@
       </c>
       <c r="N30" s="36"/>
     </row>
-    <row r="31" spans="1:14" ht="21">
+    <row r="31" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="54" t="s">
         <v>14</v>
       </c>
@@ -4024,7 +4024,7 @@
       </c>
       <c r="N31" s="36"/>
     </row>
-    <row r="32" spans="1:14" ht="21">
+    <row r="32" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="54" t="s">
         <v>14</v>
       </c>
@@ -4066,7 +4066,7 @@
       </c>
       <c r="N32" s="36"/>
     </row>
-    <row r="33" spans="1:14" ht="21">
+    <row r="33" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="54" t="s">
         <v>14</v>
       </c>
@@ -4108,7 +4108,7 @@
       </c>
       <c r="N33" s="36"/>
     </row>
-    <row r="34" spans="1:14" ht="21">
+    <row r="34" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A34" s="54" t="s">
         <v>14</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="21">
+    <row r="35" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A35" s="54" t="s">
         <v>14</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="21">
+    <row r="36" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A36" s="54" t="s">
         <v>14</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="21">
+    <row r="37" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A37" s="54" t="s">
         <v>14</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="22.5">
+    <row r="38" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A38" s="54" t="s">
         <v>14</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="21">
+    <row r="39" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A39" s="54" t="s">
         <v>14</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="21">
+    <row r="40" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A40" s="54" t="s">
         <v>14</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="21">
+    <row r="41" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A41" s="54" t="s">
         <v>14</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="21">
+    <row r="42" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A42" s="54" t="s">
         <v>14</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="21">
+    <row r="43" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A43" s="54" t="s">
         <v>14</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="21">
+    <row r="44" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A44" s="54" t="s">
         <v>14</v>
       </c>
@@ -4592,7 +4592,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="22.5">
+    <row r="45" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A45" s="54" t="s">
         <v>14</v>
       </c>
@@ -4636,7 +4636,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="22.5">
+    <row r="46" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A46" s="54" t="s">
         <v>14</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="21">
+    <row r="47" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A47" s="54" t="s">
         <v>14</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="22.5">
+    <row r="48" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A48" s="54" t="s">
         <v>14</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="21">
+    <row r="49" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A49" s="54" t="s">
         <v>14</v>
       </c>
@@ -4810,7 +4810,7 @@
       </c>
       <c r="N49" s="36"/>
     </row>
-    <row r="50" spans="1:14" ht="21">
+    <row r="50" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="54" t="s">
         <v>14</v>
       </c>
@@ -4852,7 +4852,7 @@
       </c>
       <c r="N50" s="36"/>
     </row>
-    <row r="51" spans="1:14" ht="21">
+    <row r="51" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A51" s="54" t="s">
         <v>14</v>
       </c>
@@ -4894,7 +4894,7 @@
       </c>
       <c r="N51" s="36"/>
     </row>
-    <row r="52" spans="1:14" ht="21">
+    <row r="52" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="54" t="s">
         <v>14</v>
       </c>
@@ -4936,7 +4936,7 @@
       </c>
       <c r="N52" s="36"/>
     </row>
-    <row r="53" spans="1:14" ht="21">
+    <row r="53" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A53" s="54" t="s">
         <v>14</v>
       </c>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="N53" s="36"/>
     </row>
-    <row r="54" spans="1:14" ht="21">
+    <row r="54" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A54" s="54" t="s">
         <v>14</v>
       </c>
@@ -5020,7 +5020,7 @@
       </c>
       <c r="N54" s="36"/>
     </row>
-    <row r="55" spans="1:14" ht="22.5">
+    <row r="55" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A55" s="54" t="s">
         <v>14</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="22.5">
+    <row r="56" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A56" s="54" t="s">
         <v>14</v>
       </c>
@@ -5108,7 +5108,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="21">
+    <row r="57" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A57" s="54" t="s">
         <v>14</v>
       </c>
@@ -5150,7 +5150,7 @@
       </c>
       <c r="N57" s="36"/>
     </row>
-    <row r="58" spans="1:14" ht="21">
+    <row r="58" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A58" s="54" t="s">
         <v>14</v>
       </c>
@@ -5192,7 +5192,7 @@
       </c>
       <c r="N58" s="36"/>
     </row>
-    <row r="59" spans="1:14" ht="21">
+    <row r="59" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A59" s="54" t="s">
         <v>14</v>
       </c>
@@ -5234,7 +5234,7 @@
       </c>
       <c r="N59" s="36"/>
     </row>
-    <row r="60" spans="1:14" ht="21">
+    <row r="60" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A60" s="54" t="s">
         <v>14</v>
       </c>
@@ -5276,7 +5276,7 @@
       </c>
       <c r="N60" s="36"/>
     </row>
-    <row r="61" spans="1:14" ht="21">
+    <row r="61" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A61" s="54" t="s">
         <v>14</v>
       </c>
@@ -5318,7 +5318,7 @@
       </c>
       <c r="N61" s="36"/>
     </row>
-    <row r="62" spans="1:14" ht="21">
+    <row r="62" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A62" s="54" t="s">
         <v>14</v>
       </c>
@@ -5360,7 +5360,7 @@
       </c>
       <c r="N62" s="36"/>
     </row>
-    <row r="63" spans="1:14" ht="22.5">
+    <row r="63" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A63" s="54" t="s">
         <v>14</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="21">
+    <row r="64" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A64" s="54" t="s">
         <v>14</v>
       </c>
@@ -5446,7 +5446,7 @@
       </c>
       <c r="N64" s="36"/>
     </row>
-    <row r="65" spans="1:14" ht="21">
+    <row r="65" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A65" s="54" t="s">
         <v>14</v>
       </c>
@@ -5488,7 +5488,7 @@
       </c>
       <c r="N65" s="36"/>
     </row>
-    <row r="66" spans="1:14" ht="21">
+    <row r="66" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A66" s="54" t="s">
         <v>14</v>
       </c>
@@ -5530,7 +5530,7 @@
       </c>
       <c r="N66" s="36"/>
     </row>
-    <row r="67" spans="1:14" ht="21">
+    <row r="67" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A67" s="54" t="s">
         <v>14</v>
       </c>
@@ -5572,7 +5572,7 @@
       </c>
       <c r="N67" s="36"/>
     </row>
-    <row r="68" spans="1:14" ht="21">
+    <row r="68" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A68" s="54" t="s">
         <v>14</v>
       </c>
@@ -5614,7 +5614,7 @@
       </c>
       <c r="N68" s="36"/>
     </row>
-    <row r="69" spans="1:14" ht="21">
+    <row r="69" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A69" s="54" t="s">
         <v>14</v>
       </c>
@@ -5656,7 +5656,7 @@
       </c>
       <c r="N69" s="36"/>
     </row>
-    <row r="70" spans="1:14" ht="21" customHeight="1">
+    <row r="70" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="54" t="s">
         <v>14</v>
       </c>
@@ -5700,7 +5700,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="21">
+    <row r="71" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A71" s="54" t="s">
         <v>14</v>
       </c>
@@ -5742,7 +5742,7 @@
       </c>
       <c r="N71" s="36"/>
     </row>
-    <row r="72" spans="1:14" ht="21">
+    <row r="72" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A72" s="54" t="s">
         <v>14</v>
       </c>
@@ -5784,7 +5784,7 @@
       </c>
       <c r="N72" s="36"/>
     </row>
-    <row r="73" spans="1:14" ht="21">
+    <row r="73" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A73" s="54" t="s">
         <v>14</v>
       </c>
@@ -5826,7 +5826,7 @@
       </c>
       <c r="N73" s="36"/>
     </row>
-    <row r="74" spans="1:14" ht="21">
+    <row r="74" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A74" s="54" t="s">
         <v>14</v>
       </c>
@@ -5868,7 +5868,7 @@
       </c>
       <c r="N74" s="36"/>
     </row>
-    <row r="75" spans="1:14" ht="21">
+    <row r="75" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A75" s="54" t="s">
         <v>14</v>
       </c>
@@ -5910,7 +5910,7 @@
       </c>
       <c r="N75" s="36"/>
     </row>
-    <row r="76" spans="1:14" ht="21">
+    <row r="76" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A76" s="54" t="s">
         <v>14</v>
       </c>
@@ -5952,7 +5952,7 @@
       </c>
       <c r="N76" s="36"/>
     </row>
-    <row r="77" spans="1:14" ht="21" customHeight="1">
+    <row r="77" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="54" t="s">
         <v>14</v>
       </c>
@@ -5996,7 +5996,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="21" customHeight="1">
+    <row r="78" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="54" t="s">
         <v>14</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="21" customHeight="1">
+    <row r="79" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="54" t="s">
         <v>14</v>
       </c>
@@ -6084,7 +6084,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="21" customHeight="1">
+    <row r="80" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="54" t="s">
         <v>14</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="21" customHeight="1">
+    <row r="81" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="54" t="s">
         <v>14</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="22.5">
+    <row r="82" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A82" s="54" t="s">
         <v>14</v>
       </c>
@@ -6216,7 +6216,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="21">
+    <row r="83" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A83" s="54" t="s">
         <v>14</v>
       </c>
@@ -6260,7 +6260,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="21" customHeight="1">
+    <row r="84" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="54" t="s">
         <v>14</v>
       </c>
@@ -6304,7 +6304,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="22.5" customHeight="1">
+    <row r="85" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="54" t="s">
         <v>14</v>
       </c>
@@ -6348,7 +6348,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="21">
+    <row r="86" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A86" s="54" t="s">
         <v>14</v>
       </c>
@@ -6392,7 +6392,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="21" customHeight="1">
+    <row r="87" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="54" t="s">
         <v>14</v>
       </c>
@@ -6436,7 +6436,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="22.5" customHeight="1">
+    <row r="88" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="54" t="s">
         <v>14</v>
       </c>
@@ -6480,7 +6480,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="21">
+    <row r="89" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A89" s="54" t="s">
         <v>14</v>
       </c>
@@ -6524,7 +6524,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="21">
+    <row r="90" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A90" s="54" t="s">
         <v>14</v>
       </c>
@@ -6568,7 +6568,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="21" customHeight="1">
+    <row r="91" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="54" t="s">
         <v>14</v>
       </c>
@@ -6612,7 +6612,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="22.5" customHeight="1">
+    <row r="92" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="54" t="s">
         <v>14</v>
       </c>
@@ -6656,7 +6656,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="21">
+    <row r="93" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A93" s="54" t="s">
         <v>14</v>
       </c>
@@ -6700,7 +6700,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="21" customHeight="1">
+    <row r="94" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="54" t="s">
         <v>14</v>
       </c>
@@ -6744,7 +6744,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="95" spans="1:14" ht="22.5" customHeight="1">
+    <row r="95" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="54" t="s">
         <v>14</v>
       </c>
@@ -6788,7 +6788,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="21">
+    <row r="96" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A96" s="54" t="s">
         <v>14</v>
       </c>
@@ -6832,7 +6832,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="21">
+    <row r="97" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A97" s="54" t="s">
         <v>14</v>
       </c>
@@ -6876,7 +6876,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="21">
+    <row r="98" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A98" s="54" t="s">
         <v>14</v>
       </c>
@@ -6920,7 +6920,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="22.5">
+    <row r="99" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A99" s="54" t="s">
         <v>14</v>
       </c>
@@ -6964,7 +6964,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="22.5">
+    <row r="100" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A100" s="54" t="s">
         <v>14</v>
       </c>
@@ -7008,7 +7008,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="21">
+    <row r="101" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A101" s="54" t="s">
         <v>14</v>
       </c>
@@ -7052,7 +7052,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="21">
+    <row r="102" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A102" s="54" t="s">
         <v>14</v>
       </c>
@@ -7096,7 +7096,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="22.5">
+    <row r="103" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A103" s="54" t="s">
         <v>14</v>
       </c>
@@ -7140,7 +7140,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="21">
+    <row r="104" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A104" s="54" t="s">
         <v>14</v>
       </c>
@@ -7184,7 +7184,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="21">
+    <row r="105" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A105" s="54" t="s">
         <v>14</v>
       </c>
@@ -7226,7 +7226,7 @@
       </c>
       <c r="N105" s="36"/>
     </row>
-    <row r="106" spans="1:14" ht="21">
+    <row r="106" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A106" s="54" t="s">
         <v>14</v>
       </c>
@@ -7268,7 +7268,7 @@
       </c>
       <c r="N106" s="36"/>
     </row>
-    <row r="107" spans="1:14" ht="21">
+    <row r="107" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A107" s="54" t="s">
         <v>14</v>
       </c>
@@ -7310,7 +7310,7 @@
       </c>
       <c r="N107" s="36"/>
     </row>
-    <row r="108" spans="1:14" ht="21">
+    <row r="108" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A108" s="54" t="s">
         <v>14</v>
       </c>
@@ -7352,7 +7352,7 @@
       </c>
       <c r="N108" s="36"/>
     </row>
-    <row r="109" spans="1:14" ht="21">
+    <row r="109" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A109" s="54" t="s">
         <v>14</v>
       </c>
@@ -7394,7 +7394,7 @@
       </c>
       <c r="N109" s="36"/>
     </row>
-    <row r="110" spans="1:14" ht="21">
+    <row r="110" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A110" s="54" t="s">
         <v>14</v>
       </c>
@@ -7436,7 +7436,7 @@
       </c>
       <c r="N110" s="36"/>
     </row>
-    <row r="111" spans="1:14" ht="21">
+    <row r="111" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A111" s="54" t="s">
         <v>14</v>
       </c>
@@ -7480,7 +7480,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:14" ht="21">
+    <row r="112" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A112" s="54" t="s">
         <v>14</v>
       </c>
@@ -7524,7 +7524,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:14" ht="21">
+    <row r="113" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A113" s="54" t="s">
         <v>14</v>
       </c>
@@ -7566,7 +7566,7 @@
       </c>
       <c r="N113" s="36"/>
     </row>
-    <row r="114" spans="1:14" ht="21">
+    <row r="114" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A114" s="54" t="s">
         <v>14</v>
       </c>
@@ -7608,7 +7608,7 @@
       </c>
       <c r="N114" s="36"/>
     </row>
-    <row r="115" spans="1:14" ht="21">
+    <row r="115" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A115" s="54" t="s">
         <v>14</v>
       </c>
@@ -7650,7 +7650,7 @@
       </c>
       <c r="N115" s="36"/>
     </row>
-    <row r="116" spans="1:14" ht="21">
+    <row r="116" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A116" s="54" t="s">
         <v>14</v>
       </c>
@@ -7692,7 +7692,7 @@
       </c>
       <c r="N116" s="36"/>
     </row>
-    <row r="117" spans="1:14" ht="21">
+    <row r="117" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A117" s="54" t="s">
         <v>14</v>
       </c>
@@ -7734,7 +7734,7 @@
       </c>
       <c r="N117" s="36"/>
     </row>
-    <row r="118" spans="1:14" ht="21" customHeight="1">
+    <row r="118" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="54" t="s">
         <v>14</v>
       </c>
@@ -7776,7 +7776,7 @@
       </c>
       <c r="N118" s="36"/>
     </row>
-    <row r="119" spans="1:14" ht="21">
+    <row r="119" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A119" s="54" t="s">
         <v>14</v>
       </c>
@@ -7820,7 +7820,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="120" spans="1:14" ht="21">
+    <row r="120" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A120" s="54" t="s">
         <v>14</v>
       </c>
@@ -7862,7 +7862,7 @@
       </c>
       <c r="N120" s="36"/>
     </row>
-    <row r="121" spans="1:14" ht="21">
+    <row r="121" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A121" s="54" t="s">
         <v>14</v>
       </c>
@@ -7904,7 +7904,7 @@
       </c>
       <c r="N121" s="36"/>
     </row>
-    <row r="122" spans="1:14" ht="21">
+    <row r="122" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A122" s="54" t="s">
         <v>14</v>
       </c>
@@ -7946,7 +7946,7 @@
       </c>
       <c r="N122" s="36"/>
     </row>
-    <row r="123" spans="1:14" ht="21">
+    <row r="123" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A123" s="54" t="s">
         <v>14</v>
       </c>
@@ -7988,7 +7988,7 @@
       </c>
       <c r="N123" s="36"/>
     </row>
-    <row r="124" spans="1:14" ht="21">
+    <row r="124" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A124" s="54" t="s">
         <v>14</v>
       </c>
@@ -8030,7 +8030,7 @@
       </c>
       <c r="N124" s="36"/>
     </row>
-    <row r="125" spans="1:14" ht="21">
+    <row r="125" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A125" s="54" t="s">
         <v>14</v>
       </c>
@@ -8072,7 +8072,7 @@
       </c>
       <c r="N125" s="36"/>
     </row>
-    <row r="126" spans="1:14" ht="22.5">
+    <row r="126" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A126" s="54" t="s">
         <v>14</v>
       </c>
@@ -8116,7 +8116,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:14" ht="21">
+    <row r="127" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A127" s="54" t="s">
         <v>14</v>
       </c>
@@ -8158,7 +8158,7 @@
       </c>
       <c r="N127" s="36"/>
     </row>
-    <row r="128" spans="1:14" ht="21">
+    <row r="128" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A128" s="54" t="s">
         <v>14</v>
       </c>
@@ -8200,7 +8200,7 @@
       </c>
       <c r="N128" s="36"/>
     </row>
-    <row r="129" spans="1:14" ht="21">
+    <row r="129" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A129" s="54" t="s">
         <v>14</v>
       </c>
@@ -8242,7 +8242,7 @@
       </c>
       <c r="N129" s="36"/>
     </row>
-    <row r="130" spans="1:14" ht="21">
+    <row r="130" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A130" s="54" t="s">
         <v>14</v>
       </c>
@@ -8284,7 +8284,7 @@
       </c>
       <c r="N130" s="36"/>
     </row>
-    <row r="131" spans="1:14" ht="21">
+    <row r="131" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A131" s="54" t="s">
         <v>14</v>
       </c>
@@ -8326,7 +8326,7 @@
       </c>
       <c r="N131" s="36"/>
     </row>
-    <row r="132" spans="1:14" ht="21">
+    <row r="132" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A132" s="54" t="s">
         <v>14</v>
       </c>
@@ -8368,7 +8368,7 @@
       </c>
       <c r="N132" s="36"/>
     </row>
-    <row r="133" spans="1:14" ht="21">
+    <row r="133" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A133" s="54" t="s">
         <v>14</v>
       </c>
@@ -8412,7 +8412,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="134" spans="1:14" ht="21">
+    <row r="134" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A134" s="54" t="s">
         <v>14</v>
       </c>
@@ -8456,7 +8456,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="135" spans="1:14" ht="21">
+    <row r="135" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A135" s="54" t="s">
         <v>14</v>
       </c>
@@ -8500,7 +8500,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="136" spans="1:14" ht="21">
+    <row r="136" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A136" s="54" t="s">
         <v>14</v>
       </c>
@@ -8544,7 +8544,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="137" spans="1:14" ht="21">
+    <row r="137" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A137" s="54" t="s">
         <v>14</v>
       </c>
@@ -8588,7 +8588,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="138" spans="1:14" ht="21">
+    <row r="138" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A138" s="54" t="s">
         <v>14</v>
       </c>
@@ -8632,7 +8632,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="139" spans="1:14" ht="21">
+    <row r="139" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A139" s="54" t="s">
         <v>14</v>
       </c>
@@ -8676,7 +8676,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="140" spans="1:14" ht="21">
+    <row r="140" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A140" s="54" t="s">
         <v>14</v>
       </c>
@@ -8720,7 +8720,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="141" spans="1:14" ht="21">
+    <row r="141" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A141" s="54" t="s">
         <v>14</v>
       </c>
@@ -8764,7 +8764,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="142" spans="1:14" ht="21">
+    <row r="142" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A142" s="54" t="s">
         <v>14</v>
       </c>
@@ -8808,7 +8808,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="143" spans="1:14" ht="21">
+    <row r="143" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A143" s="54" t="s">
         <v>14</v>
       </c>
@@ -8850,7 +8850,7 @@
       </c>
       <c r="N143" s="36"/>
     </row>
-    <row r="144" spans="1:14" ht="21">
+    <row r="144" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A144" s="54" t="s">
         <v>14</v>
       </c>
@@ -8892,7 +8892,7 @@
       </c>
       <c r="N144" s="36"/>
     </row>
-    <row r="145" spans="1:14" ht="21">
+    <row r="145" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A145" s="54" t="s">
         <v>14</v>
       </c>
@@ -8934,7 +8934,7 @@
       </c>
       <c r="N145" s="36"/>
     </row>
-    <row r="146" spans="1:14" ht="21">
+    <row r="146" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A146" s="54" t="s">
         <v>14</v>
       </c>
@@ -8976,7 +8976,7 @@
       </c>
       <c r="N146" s="36"/>
     </row>
-    <row r="147" spans="1:14" ht="21">
+    <row r="147" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A147" s="54" t="s">
         <v>14</v>
       </c>
@@ -9018,7 +9018,7 @@
       </c>
       <c r="N147" s="36"/>
     </row>
-    <row r="148" spans="1:14" ht="21">
+    <row r="148" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A148" s="54" t="s">
         <v>14</v>
       </c>
@@ -9060,7 +9060,7 @@
       </c>
       <c r="N148" s="36"/>
     </row>
-    <row r="149" spans="1:14" ht="21">
+    <row r="149" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A149" s="54" t="s">
         <v>14</v>
       </c>
@@ -9102,7 +9102,7 @@
       </c>
       <c r="N149" s="36"/>
     </row>
-    <row r="150" spans="1:14" ht="21">
+    <row r="150" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A150" s="54" t="s">
         <v>14</v>
       </c>
@@ -9144,7 +9144,7 @@
       </c>
       <c r="N150" s="67"/>
     </row>
-    <row r="151" spans="1:14" ht="21">
+    <row r="151" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A151" s="54" t="s">
         <v>14</v>
       </c>
@@ -9186,7 +9186,7 @@
       </c>
       <c r="N151" s="36"/>
     </row>
-    <row r="152" spans="1:14" ht="21">
+    <row r="152" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A152" s="54" t="s">
         <v>14</v>
       </c>
@@ -9228,7 +9228,7 @@
       </c>
       <c r="N152" s="36"/>
     </row>
-    <row r="153" spans="1:14" ht="21">
+    <row r="153" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A153" s="54" t="s">
         <v>14</v>
       </c>
@@ -9270,7 +9270,7 @@
       </c>
       <c r="N153" s="36"/>
     </row>
-    <row r="154" spans="1:14" ht="21">
+    <row r="154" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A154" s="54" t="s">
         <v>14</v>
       </c>
@@ -9312,7 +9312,7 @@
       </c>
       <c r="N154" s="67"/>
     </row>
-    <row r="155" spans="1:14" ht="21">
+    <row r="155" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A155" s="54" t="s">
         <v>14</v>
       </c>
@@ -9356,7 +9356,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="156" spans="1:14" ht="21">
+    <row r="156" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A156" s="54" t="s">
         <v>14</v>
       </c>
@@ -9398,7 +9398,7 @@
       </c>
       <c r="N156" s="36"/>
     </row>
-    <row r="157" spans="1:14" ht="21">
+    <row r="157" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A157" s="54" t="s">
         <v>14</v>
       </c>
@@ -9440,7 +9440,7 @@
       </c>
       <c r="N157" s="36"/>
     </row>
-    <row r="158" spans="1:14" ht="21">
+    <row r="158" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A158" s="54" t="s">
         <v>14</v>
       </c>
@@ -9482,7 +9482,7 @@
       </c>
       <c r="N158" s="36"/>
     </row>
-    <row r="159" spans="1:14" ht="21">
+    <row r="159" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A159" s="54" t="s">
         <v>14</v>
       </c>
@@ -9524,7 +9524,7 @@
       </c>
       <c r="N159" s="36"/>
     </row>
-    <row r="160" spans="1:14" ht="21">
+    <row r="160" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A160" s="54" t="s">
         <v>14</v>
       </c>
@@ -9566,7 +9566,7 @@
       </c>
       <c r="N160" s="75"/>
     </row>
-    <row r="161" spans="1:14" ht="21">
+    <row r="161" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A161" s="54" t="s">
         <v>14</v>
       </c>
@@ -9608,7 +9608,7 @@
       </c>
       <c r="N161" s="36"/>
     </row>
-    <row r="162" spans="1:14" ht="21">
+    <row r="162" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A162" s="54" t="s">
         <v>14</v>
       </c>
@@ -9650,7 +9650,7 @@
       </c>
       <c r="N162" s="36"/>
     </row>
-    <row r="163" spans="1:14" ht="21">
+    <row r="163" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A163" s="54" t="s">
         <v>14</v>
       </c>
@@ -9692,7 +9692,7 @@
       </c>
       <c r="N163" s="36"/>
     </row>
-    <row r="164" spans="1:14" ht="21">
+    <row r="164" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A164" s="54" t="s">
         <v>14</v>
       </c>
@@ -9734,7 +9734,7 @@
       </c>
       <c r="N164" s="36"/>
     </row>
-    <row r="165" spans="1:14" ht="21">
+    <row r="165" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A165" s="54" t="s">
         <v>14</v>
       </c>
@@ -9776,7 +9776,7 @@
       </c>
       <c r="N165" s="36"/>
     </row>
-    <row r="166" spans="1:14" ht="21">
+    <row r="166" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A166" s="54" t="s">
         <v>14</v>
       </c>
@@ -9818,7 +9818,7 @@
       </c>
       <c r="N166" s="36"/>
     </row>
-    <row r="167" spans="1:14" ht="21">
+    <row r="167" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A167" s="54" t="s">
         <v>14</v>
       </c>
@@ -9860,7 +9860,7 @@
       </c>
       <c r="N167" s="36"/>
     </row>
-    <row r="168" spans="1:14" ht="21">
+    <row r="168" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A168" s="54" t="s">
         <v>14</v>
       </c>
@@ -9904,7 +9904,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="169" spans="1:14" ht="21">
+    <row r="169" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A169" s="54" t="s">
         <v>14</v>
       </c>
@@ -9948,7 +9948,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="170" spans="1:14" ht="21">
+    <row r="170" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A170" s="54" t="s">
         <v>14</v>
       </c>
@@ -9992,7 +9992,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="171" spans="1:14" ht="21">
+    <row r="171" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A171" s="54" t="s">
         <v>14</v>
       </c>
@@ -10036,7 +10036,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="172" spans="1:14" ht="21" customHeight="1">
+    <row r="172" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="54" t="s">
         <v>14</v>
       </c>
@@ -10080,7 +10080,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="173" spans="1:14" ht="21" customHeight="1">
+    <row r="173" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="54" t="s">
         <v>14</v>
       </c>
@@ -10124,7 +10124,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="174" spans="1:14" ht="21">
+    <row r="174" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A174" s="54" t="s">
         <v>14</v>
       </c>
@@ -10168,7 +10168,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="175" spans="1:14" ht="21">
+    <row r="175" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A175" s="54" t="s">
         <v>14</v>
       </c>
@@ -10212,7 +10212,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="176" spans="1:14" ht="21">
+    <row r="176" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A176" s="54" t="s">
         <v>14</v>
       </c>
@@ -10254,7 +10254,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="177" spans="1:14" ht="21">
+    <row r="177" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A177" s="54" t="s">
         <v>14</v>
       </c>
@@ -10298,7 +10298,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="178" spans="1:14" ht="21">
+    <row r="178" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A178" s="54" t="s">
         <v>14</v>
       </c>
@@ -10342,7 +10342,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="179" spans="1:14" ht="21">
+    <row r="179" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A179" s="54" t="s">
         <v>14</v>
       </c>
@@ -10386,7 +10386,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="180" spans="1:14" ht="21">
+    <row r="180" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A180" s="54" t="s">
         <v>14</v>
       </c>
@@ -10430,7 +10430,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="181" spans="1:14" ht="21">
+    <row r="181" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A181" s="54" t="s">
         <v>14</v>
       </c>
@@ -10474,7 +10474,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="182" spans="1:14" ht="21">
+    <row r="182" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A182" s="54" t="s">
         <v>14</v>
       </c>
@@ -10518,7 +10518,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="183" spans="1:14" ht="21">
+    <row r="183" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A183" s="54" t="s">
         <v>14</v>
       </c>
@@ -10562,7 +10562,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="184" spans="1:14" ht="21">
+    <row r="184" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A184" s="54" t="s">
         <v>14</v>
       </c>
@@ -10606,7 +10606,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="185" spans="1:14" ht="21">
+    <row r="185" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A185" s="54" t="s">
         <v>14</v>
       </c>
@@ -10650,7 +10650,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="186" spans="1:14" ht="22.5">
+    <row r="186" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A186" s="54" t="s">
         <v>14</v>
       </c>
@@ -10694,7 +10694,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="187" spans="1:14" ht="21">
+    <row r="187" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A187" s="54" t="s">
         <v>14</v>
       </c>
@@ -10736,7 +10736,7 @@
       </c>
       <c r="N187" s="36"/>
     </row>
-    <row r="188" spans="1:14" ht="21">
+    <row r="188" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A188" s="54" t="s">
         <v>14</v>
       </c>
@@ -10778,7 +10778,7 @@
       </c>
       <c r="N188" s="36"/>
     </row>
-    <row r="189" spans="1:14" ht="21">
+    <row r="189" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A189" s="54" t="s">
         <v>14</v>
       </c>
@@ -10820,7 +10820,7 @@
       </c>
       <c r="N189" s="36"/>
     </row>
-    <row r="190" spans="1:14" ht="21">
+    <row r="190" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A190" s="54" t="s">
         <v>14</v>
       </c>
@@ -10862,7 +10862,7 @@
       </c>
       <c r="N190" s="36"/>
     </row>
-    <row r="191" spans="1:14" ht="21">
+    <row r="191" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A191" s="54" t="s">
         <v>14</v>
       </c>
@@ -10904,7 +10904,7 @@
       </c>
       <c r="N191" s="75"/>
     </row>
-    <row r="192" spans="1:14" ht="21">
+    <row r="192" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A192" s="54" t="s">
         <v>14</v>
       </c>
@@ -10946,7 +10946,7 @@
       </c>
       <c r="N192" s="36"/>
     </row>
-    <row r="193" spans="1:14" ht="22.5">
+    <row r="193" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A193" s="54" t="s">
         <v>14</v>
       </c>
@@ -10990,7 +10990,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="194" spans="1:14" ht="21">
+    <row r="194" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A194" s="54" t="s">
         <v>14</v>
       </c>
@@ -11034,7 +11034,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="195" spans="1:14" ht="21">
+    <row r="195" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A195" s="54" t="s">
         <v>14</v>
       </c>
@@ -11078,7 +11078,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="196" spans="1:14" ht="21">
+    <row r="196" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A196" s="54" t="s">
         <v>14</v>
       </c>
@@ -11122,7 +11122,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="197" spans="1:14" ht="21">
+    <row r="197" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A197" s="54" t="s">
         <v>14</v>
       </c>
@@ -11166,7 +11166,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="198" spans="1:14" ht="21">
+    <row r="198" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A198" s="54" t="s">
         <v>14</v>
       </c>
@@ -11210,7 +11210,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="199" spans="1:14" ht="21">
+    <row r="199" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A199" s="54" t="s">
         <v>14</v>
       </c>
@@ -11254,7 +11254,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="200" spans="1:14" ht="22.5">
+    <row r="200" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A200" s="54" t="s">
         <v>14</v>
       </c>
@@ -11298,7 +11298,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="201" spans="1:14" ht="21">
+    <row r="201" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A201" s="54" t="s">
         <v>14</v>
       </c>
@@ -11340,7 +11340,7 @@
       </c>
       <c r="N201" s="36"/>
     </row>
-    <row r="202" spans="1:14" ht="21">
+    <row r="202" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A202" s="54" t="s">
         <v>14</v>
       </c>
@@ -11382,7 +11382,7 @@
       </c>
       <c r="N202" s="36"/>
     </row>
-    <row r="203" spans="1:14" ht="21">
+    <row r="203" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A203" s="54" t="s">
         <v>14</v>
       </c>
@@ -11424,7 +11424,7 @@
       </c>
       <c r="N203" s="36"/>
     </row>
-    <row r="204" spans="1:14" ht="21">
+    <row r="204" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A204" s="54" t="s">
         <v>14</v>
       </c>
@@ -11466,7 +11466,7 @@
       </c>
       <c r="N204" s="36"/>
     </row>
-    <row r="205" spans="1:14" ht="21">
+    <row r="205" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A205" s="54" t="s">
         <v>14</v>
       </c>
@@ -11508,7 +11508,7 @@
       </c>
       <c r="N205" s="36"/>
     </row>
-    <row r="206" spans="1:14" ht="21">
+    <row r="206" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A206" s="54" t="s">
         <v>14</v>
       </c>
@@ -11550,7 +11550,7 @@
       </c>
       <c r="N206" s="36"/>
     </row>
-    <row r="207" spans="1:14" ht="22.5">
+    <row r="207" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A207" s="54" t="s">
         <v>14</v>
       </c>
@@ -11594,7 +11594,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="208" spans="1:14" ht="21">
+    <row r="208" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A208" s="54" t="s">
         <v>14</v>
       </c>
@@ -11636,7 +11636,7 @@
       </c>
       <c r="N208" s="36"/>
     </row>
-    <row r="209" spans="1:14" ht="21">
+    <row r="209" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A209" s="54" t="s">
         <v>14</v>
       </c>
@@ -11678,7 +11678,7 @@
       </c>
       <c r="N209" s="36"/>
     </row>
-    <row r="210" spans="1:14" ht="21">
+    <row r="210" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A210" s="54" t="s">
         <v>14</v>
       </c>
@@ -11720,7 +11720,7 @@
       </c>
       <c r="N210" s="36"/>
     </row>
-    <row r="211" spans="1:14" ht="21">
+    <row r="211" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A211" s="54" t="s">
         <v>14</v>
       </c>
@@ -11762,7 +11762,7 @@
       </c>
       <c r="N211" s="36"/>
     </row>
-    <row r="212" spans="1:14" ht="21">
+    <row r="212" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A212" s="54" t="s">
         <v>14</v>
       </c>
@@ -11804,7 +11804,7 @@
       </c>
       <c r="N212" s="36"/>
     </row>
-    <row r="213" spans="1:14" ht="21">
+    <row r="213" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A213" s="54" t="s">
         <v>14</v>
       </c>
@@ -11846,7 +11846,7 @@
       </c>
       <c r="N213" s="36"/>
     </row>
-    <row r="214" spans="1:14" ht="21">
+    <row r="214" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A214" s="54" t="s">
         <v>14</v>
       </c>
@@ -11890,7 +11890,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="215" spans="1:14" ht="21">
+    <row r="215" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A215" s="54" t="s">
         <v>14</v>
       </c>
@@ -11932,7 +11932,7 @@
       </c>
       <c r="N215" s="36"/>
     </row>
-    <row r="216" spans="1:14" ht="21">
+    <row r="216" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A216" s="54" t="s">
         <v>14</v>
       </c>
@@ -11974,7 +11974,7 @@
       </c>
       <c r="N216" s="67"/>
     </row>
-    <row r="217" spans="1:14" ht="21">
+    <row r="217" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A217" s="54" t="s">
         <v>14</v>
       </c>
@@ -12016,7 +12016,7 @@
       </c>
       <c r="N217" s="36"/>
     </row>
-    <row r="218" spans="1:14" ht="21">
+    <row r="218" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A218" s="54" t="s">
         <v>14</v>
       </c>
@@ -12058,7 +12058,7 @@
       </c>
       <c r="N218" s="36"/>
     </row>
-    <row r="219" spans="1:14" ht="21">
+    <row r="219" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A219" s="54" t="s">
         <v>14</v>
       </c>
@@ -12100,7 +12100,7 @@
       </c>
       <c r="N219" s="36"/>
     </row>
-    <row r="220" spans="1:14" ht="21">
+    <row r="220" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A220" s="54" t="s">
         <v>14</v>
       </c>
@@ -12142,7 +12142,7 @@
       </c>
       <c r="N220" s="67"/>
     </row>
-    <row r="221" spans="1:14" ht="21">
+    <row r="221" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A221" s="54" t="s">
         <v>14</v>
       </c>
@@ -12186,7 +12186,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="222" spans="1:14" ht="21">
+    <row r="222" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A222" s="54" t="s">
         <v>14</v>
       </c>
@@ -12230,7 +12230,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="223" spans="1:14" ht="21">
+    <row r="223" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A223" s="54" t="s">
         <v>14</v>
       </c>
@@ -12274,7 +12274,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="224" spans="1:14" ht="21">
+    <row r="224" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A224" s="54" t="s">
         <v>14</v>
       </c>
@@ -12318,7 +12318,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="225" spans="1:14" ht="21">
+    <row r="225" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A225" s="54" t="s">
         <v>14</v>
       </c>
@@ -12362,7 +12362,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="226" spans="1:14" ht="21">
+    <row r="226" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A226" s="54" t="s">
         <v>14</v>
       </c>
@@ -12406,7 +12406,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="227" spans="1:14" ht="21">
+    <row r="227" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A227" s="54" t="s">
         <v>14</v>
       </c>
@@ -12450,7 +12450,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="228" spans="1:14" ht="21">
+    <row r="228" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A228" s="54" t="s">
         <v>14</v>
       </c>
@@ -12494,7 +12494,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="229" spans="1:14" ht="21">
+    <row r="229" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A229" s="54" t="s">
         <v>14</v>
       </c>
@@ -12538,7 +12538,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="230" spans="1:14" ht="21">
+    <row r="230" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A230" s="54" t="s">
         <v>14</v>
       </c>
@@ -12582,7 +12582,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="231" spans="1:14" ht="21">
+    <row r="231" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A231" s="54" t="s">
         <v>14</v>
       </c>
@@ -12626,7 +12626,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="232" spans="1:14" ht="21" customHeight="1">
+    <row r="232" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="54" t="s">
         <v>14</v>
       </c>
@@ -12670,7 +12670,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="233" spans="1:14" ht="21" customHeight="1">
+    <row r="233" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="54" t="s">
         <v>14</v>
       </c>
@@ -12714,7 +12714,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="234" spans="1:14" ht="21">
+    <row r="234" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A234" s="54" t="s">
         <v>14</v>
       </c>
@@ -12758,7 +12758,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="235" spans="1:14" ht="21" customHeight="1">
+    <row r="235" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="54" t="s">
         <v>14</v>
       </c>
@@ -12802,7 +12802,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="236" spans="1:14" ht="21" customHeight="1">
+    <row r="236" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="54" t="s">
         <v>14</v>
       </c>
@@ -12846,7 +12846,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="237" spans="1:14" ht="21">
+    <row r="237" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A237" s="54" t="s">
         <v>14</v>
       </c>
@@ -12890,7 +12890,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="238" spans="1:14" ht="21">
+    <row r="238" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A238" s="54" t="s">
         <v>14</v>
       </c>
@@ -12934,7 +12934,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="239" spans="1:14" ht="21">
+    <row r="239" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A239" s="54" t="s">
         <v>14</v>
       </c>
@@ -12978,7 +12978,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="240" spans="1:14" ht="21">
+    <row r="240" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A240" s="54" t="s">
         <v>14</v>
       </c>
@@ -13022,7 +13022,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="241" spans="1:14" ht="21">
+    <row r="241" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A241" s="54" t="s">
         <v>14</v>
       </c>
@@ -13066,7 +13066,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="242" spans="1:14" ht="21">
+    <row r="242" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A242" s="54" t="s">
         <v>14</v>
       </c>
@@ -13110,7 +13110,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="243" spans="1:14" ht="21">
+    <row r="243" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A243" s="54" t="s">
         <v>14</v>
       </c>
@@ -13154,7 +13154,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="244" spans="1:14" ht="21">
+    <row r="244" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A244" s="54" t="s">
         <v>14</v>
       </c>
@@ -13198,7 +13198,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="245" spans="1:14" ht="21">
+    <row r="245" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A245" s="54" t="s">
         <v>14</v>
       </c>
@@ -13242,7 +13242,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="246" spans="1:14" ht="21">
+    <row r="246" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A246" s="54" t="s">
         <v>14</v>
       </c>
@@ -13286,7 +13286,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="247" spans="1:14" ht="21">
+    <row r="247" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A247" s="54" t="s">
         <v>14</v>
       </c>
@@ -13330,7 +13330,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="248" spans="1:14" ht="21">
+    <row r="248" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A248" s="54" t="s">
         <v>14</v>
       </c>
@@ -13374,7 +13374,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="249" spans="1:14" ht="22.5">
+    <row r="249" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A249" s="54" t="s">
         <v>14</v>
       </c>
@@ -13418,7 +13418,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="250" spans="1:14" ht="21">
+    <row r="250" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A250" s="54" t="s">
         <v>14</v>
       </c>
@@ -13460,7 +13460,7 @@
       </c>
       <c r="N250" s="36"/>
     </row>
-    <row r="251" spans="1:14" ht="21">
+    <row r="251" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A251" s="54" t="s">
         <v>14</v>
       </c>
@@ -13502,7 +13502,7 @@
       </c>
       <c r="N251" s="67"/>
     </row>
-    <row r="252" spans="1:14" ht="21">
+    <row r="252" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A252" s="54" t="s">
         <v>14</v>
       </c>
@@ -13544,7 +13544,7 @@
       </c>
       <c r="N252" s="36"/>
     </row>
-    <row r="253" spans="1:14" ht="21">
+    <row r="253" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A253" s="54" t="s">
         <v>14</v>
       </c>
@@ -13586,7 +13586,7 @@
       </c>
       <c r="N253" s="36"/>
     </row>
-    <row r="254" spans="1:14" ht="21">
+    <row r="254" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A254" s="54" t="s">
         <v>14</v>
       </c>
@@ -13628,7 +13628,7 @@
       </c>
       <c r="N254" s="36"/>
     </row>
-    <row r="255" spans="1:14" ht="21">
+    <row r="255" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A255" s="54" t="s">
         <v>14</v>
       </c>
@@ -13670,7 +13670,7 @@
       </c>
       <c r="N255" s="67"/>
     </row>
-    <row r="256" spans="1:14" ht="22.5">
+    <row r="256" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A256" s="54" t="s">
         <v>14</v>
       </c>
@@ -13714,7 +13714,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="257" spans="1:14" ht="21">
+    <row r="257" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A257" s="54" t="s">
         <v>14</v>
       </c>
@@ -13758,7 +13758,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="258" spans="1:14" ht="21">
+    <row r="258" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A258" s="54" t="s">
         <v>14</v>
       </c>
@@ -13802,7 +13802,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="259" spans="1:14" ht="21">
+    <row r="259" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A259" s="54" t="s">
         <v>14</v>
       </c>
@@ -13846,7 +13846,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="260" spans="1:14" ht="22.5">
+    <row r="260" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A260" s="54" t="s">
         <v>14</v>
       </c>
@@ -13890,7 +13890,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="261" spans="1:14" ht="21">
+    <row r="261" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A261" s="54" t="s">
         <v>14</v>
       </c>
@@ -13934,7 +13934,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="262" spans="1:14" ht="21">
+    <row r="262" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A262" s="54" t="s">
         <v>14</v>
       </c>
@@ -13978,7 +13978,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="263" spans="1:14" ht="21">
+    <row r="263" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A263" s="54" t="s">
         <v>14</v>
       </c>
@@ -14022,7 +14022,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="264" spans="1:14" ht="21">
+    <row r="264" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A264" s="54" t="s">
         <v>14</v>
       </c>
@@ -14064,7 +14064,7 @@
       </c>
       <c r="N264" s="36"/>
     </row>
-    <row r="265" spans="1:14" ht="21">
+    <row r="265" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A265" s="54" t="s">
         <v>14</v>
       </c>
@@ -14106,7 +14106,7 @@
       </c>
       <c r="N265" s="36"/>
     </row>
-    <row r="266" spans="1:14" ht="21">
+    <row r="266" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A266" s="54" t="s">
         <v>14</v>
       </c>
@@ -14148,7 +14148,7 @@
       </c>
       <c r="N266" s="36"/>
     </row>
-    <row r="267" spans="1:14" ht="21">
+    <row r="267" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A267" s="54" t="s">
         <v>14</v>
       </c>
@@ -14190,7 +14190,7 @@
       </c>
       <c r="N267" s="36"/>
     </row>
-    <row r="268" spans="1:14" ht="21">
+    <row r="268" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A268" s="54" t="s">
         <v>14</v>
       </c>
@@ -14232,7 +14232,7 @@
       </c>
       <c r="N268" s="36"/>
     </row>
-    <row r="269" spans="1:14" ht="21">
+    <row r="269" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A269" s="54" t="s">
         <v>14</v>
       </c>
@@ -14274,7 +14274,7 @@
       </c>
       <c r="N269" s="36"/>
     </row>
-    <row r="270" spans="1:14" ht="22.5">
+    <row r="270" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A270" s="54" t="s">
         <v>14</v>
       </c>
@@ -14318,7 +14318,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="271" spans="1:14" ht="21">
+    <row r="271" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A271" s="54" t="s">
         <v>14</v>
       </c>
@@ -14360,7 +14360,7 @@
       </c>
       <c r="N271" s="36"/>
     </row>
-    <row r="272" spans="1:14" ht="21">
+    <row r="272" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A272" s="54" t="s">
         <v>14</v>
       </c>
@@ -14402,7 +14402,7 @@
       </c>
       <c r="N272" s="36"/>
     </row>
-    <row r="273" spans="1:14" ht="21">
+    <row r="273" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A273" s="54" t="s">
         <v>14</v>
       </c>
@@ -14444,7 +14444,7 @@
       </c>
       <c r="N273" s="36"/>
     </row>
-    <row r="274" spans="1:14" ht="21">
+    <row r="274" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A274" s="54" t="s">
         <v>14</v>
       </c>
@@ -14486,7 +14486,7 @@
       </c>
       <c r="N274" s="36"/>
     </row>
-    <row r="275" spans="1:14" ht="21">
+    <row r="275" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A275" s="54" t="s">
         <v>14</v>
       </c>
@@ -14528,7 +14528,7 @@
       </c>
       <c r="N275" s="36"/>
     </row>
-    <row r="276" spans="1:14" ht="21">
+    <row r="276" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A276" s="54" t="s">
         <v>14</v>
       </c>
@@ -14570,7 +14570,7 @@
       </c>
       <c r="N276" s="36"/>
     </row>
-    <row r="277" spans="1:14" ht="21">
+    <row r="277" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A277" s="54" t="s">
         <v>14</v>
       </c>
@@ -14614,7 +14614,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="278" spans="1:14" ht="21">
+    <row r="278" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A278" s="54" t="s">
         <v>14</v>
       </c>
@@ -14656,7 +14656,7 @@
       </c>
       <c r="N278" s="36"/>
     </row>
-    <row r="279" spans="1:14" ht="21">
+    <row r="279" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A279" s="54" t="s">
         <v>14</v>
       </c>
@@ -14698,7 +14698,7 @@
       </c>
       <c r="N279" s="36"/>
     </row>
-    <row r="280" spans="1:14" ht="21">
+    <row r="280" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A280" s="54" t="s">
         <v>14</v>
       </c>
@@ -14740,7 +14740,7 @@
       </c>
       <c r="N280" s="36"/>
     </row>
-    <row r="281" spans="1:14" ht="21">
+    <row r="281" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A281" s="54" t="s">
         <v>14</v>
       </c>
@@ -14782,7 +14782,7 @@
       </c>
       <c r="N281" s="36"/>
     </row>
-    <row r="282" spans="1:14" ht="21" customHeight="1">
+    <row r="282" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="54" t="s">
         <v>14</v>
       </c>
@@ -14824,7 +14824,7 @@
       </c>
       <c r="N282" s="36"/>
     </row>
-    <row r="283" spans="1:14" ht="21" customHeight="1">
+    <row r="283" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="54" t="s">
         <v>14</v>
       </c>
@@ -14866,7 +14866,7 @@
       </c>
       <c r="N283" s="36"/>
     </row>
-    <row r="284" spans="1:14" ht="21">
+    <row r="284" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A284" s="54" t="s">
         <v>14</v>
       </c>
@@ -14910,7 +14910,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="285" spans="1:14" ht="21">
+    <row r="285" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A285" s="54" t="s">
         <v>14</v>
       </c>
@@ -14954,7 +14954,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="286" spans="1:14" ht="22.5">
+    <row r="286" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A286" s="54" t="s">
         <v>14</v>
       </c>
@@ -14998,7 +14998,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="287" spans="1:14" ht="21">
+    <row r="287" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A287" s="54" t="s">
         <v>14</v>
       </c>
@@ -15040,7 +15040,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="288" spans="1:14" ht="21">
+    <row r="288" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A288" s="54" t="s">
         <v>14</v>
       </c>
@@ -15084,7 +15084,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="289" spans="1:14" ht="21" customHeight="1">
+    <row r="289" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="54" t="s">
         <v>14</v>
       </c>
@@ -15128,7 +15128,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="290" spans="1:14" ht="21" customHeight="1">
+    <row r="290" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="54" t="s">
         <v>14</v>
       </c>
@@ -15170,7 +15170,7 @@
       </c>
       <c r="N290" s="36"/>
     </row>
-    <row r="291" spans="1:14" ht="21">
+    <row r="291" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A291" s="54" t="s">
         <v>14</v>
       </c>
@@ -15212,7 +15212,7 @@
       </c>
       <c r="N291" s="36"/>
     </row>
-    <row r="292" spans="1:14" ht="21">
+    <row r="292" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A292" s="54" t="s">
         <v>14</v>
       </c>
@@ -15254,7 +15254,7 @@
       </c>
       <c r="N292" s="36"/>
     </row>
-    <row r="293" spans="1:14" ht="21">
+    <row r="293" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A293" s="54" t="s">
         <v>14</v>
       </c>
@@ -15296,7 +15296,7 @@
       </c>
       <c r="N293" s="36"/>
     </row>
-    <row r="294" spans="1:14" ht="21">
+    <row r="294" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A294" s="54" t="s">
         <v>14</v>
       </c>
@@ -15338,7 +15338,7 @@
       </c>
       <c r="N294" s="36"/>
     </row>
-    <row r="295" spans="1:14" ht="21">
+    <row r="295" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A295" s="54" t="s">
         <v>14</v>
       </c>
@@ -15380,7 +15380,7 @@
       </c>
       <c r="N295" s="36"/>
     </row>
-    <row r="296" spans="1:14" ht="21" customHeight="1">
+    <row r="296" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="54" t="s">
         <v>14</v>
       </c>
@@ -15424,7 +15424,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="297" spans="1:14" ht="21" customHeight="1">
+    <row r="297" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="54" t="s">
         <v>14</v>
       </c>
@@ -15466,7 +15466,7 @@
       </c>
       <c r="N297" s="36"/>
     </row>
-    <row r="298" spans="1:14" ht="21">
+    <row r="298" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A298" s="54" t="s">
         <v>14</v>
       </c>
@@ -15508,7 +15508,7 @@
       </c>
       <c r="N298" s="36"/>
     </row>
-    <row r="299" spans="1:14" ht="21" customHeight="1">
+    <row r="299" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="54" t="s">
         <v>14</v>
       </c>
@@ -15550,7 +15550,7 @@
       </c>
       <c r="N299" s="36"/>
     </row>
-    <row r="300" spans="1:14" ht="21" customHeight="1">
+    <row r="300" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="54" t="s">
         <v>14</v>
       </c>
@@ -15592,7 +15592,7 @@
       </c>
       <c r="N300" s="36"/>
     </row>
-    <row r="301" spans="1:14" ht="21">
+    <row r="301" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A301" s="54" t="s">
         <v>14</v>
       </c>
@@ -15634,7 +15634,7 @@
       </c>
       <c r="N301" s="36"/>
     </row>
-    <row r="302" spans="1:14" ht="21">
+    <row r="302" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A302" s="54" t="s">
         <v>14</v>
       </c>
@@ -15676,7 +15676,7 @@
       </c>
       <c r="N302" s="36"/>
     </row>
-    <row r="303" spans="1:14" ht="21">
+    <row r="303" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A303" s="54" t="s">
         <v>14</v>
       </c>
@@ -15718,7 +15718,7 @@
       </c>
       <c r="N303" s="36"/>
     </row>
-    <row r="304" spans="1:14" ht="21">
+    <row r="304" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A304" s="54" t="s">
         <v>14</v>
       </c>
@@ -15760,7 +15760,7 @@
       </c>
       <c r="N304" s="36"/>
     </row>
-    <row r="305" spans="1:14" ht="21">
+    <row r="305" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A305" s="54" t="s">
         <v>14</v>
       </c>
@@ -15802,7 +15802,7 @@
       </c>
       <c r="N305" s="36"/>
     </row>
-    <row r="306" spans="1:14" ht="21">
+    <row r="306" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A306" s="54" t="s">
         <v>14</v>
       </c>
@@ -15844,7 +15844,7 @@
       </c>
       <c r="N306" s="36"/>
     </row>
-    <row r="307" spans="1:14" ht="21">
+    <row r="307" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A307" s="54" t="s">
         <v>14</v>
       </c>
@@ -15886,7 +15886,7 @@
       </c>
       <c r="N307" s="36"/>
     </row>
-    <row r="308" spans="1:14" ht="21">
+    <row r="308" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A308" s="54" t="s">
         <v>14</v>
       </c>
@@ -15928,7 +15928,7 @@
       </c>
       <c r="N308" s="36"/>
     </row>
-    <row r="309" spans="1:14" ht="21">
+    <row r="309" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A309" s="54" t="s">
         <v>14</v>
       </c>
@@ -15970,7 +15970,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="310" spans="1:14" ht="21">
+    <row r="310" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A310" s="54" t="s">
         <v>14</v>
       </c>
@@ -16012,7 +16012,7 @@
       </c>
       <c r="N310" s="36"/>
     </row>
-    <row r="311" spans="1:14" ht="21">
+    <row r="311" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A311" s="54" t="s">
         <v>14</v>
       </c>
@@ -16054,7 +16054,7 @@
       </c>
       <c r="N311" s="36"/>
     </row>
-    <row r="312" spans="1:14" ht="21">
+    <row r="312" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A312" s="54" t="s">
         <v>14</v>
       </c>
@@ -16096,7 +16096,7 @@
       </c>
       <c r="N312" s="36"/>
     </row>
-    <row r="313" spans="1:14" ht="21">
+    <row r="313" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A313" s="54" t="s">
         <v>14</v>
       </c>
@@ -16138,7 +16138,7 @@
       </c>
       <c r="N313" s="36"/>
     </row>
-    <row r="314" spans="1:14" ht="21">
+    <row r="314" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A314" s="54" t="s">
         <v>14</v>
       </c>
@@ -16180,7 +16180,7 @@
       </c>
       <c r="N314" s="36"/>
     </row>
-    <row r="315" spans="1:14" ht="21">
+    <row r="315" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A315" s="54" t="s">
         <v>14</v>
       </c>
@@ -16222,7 +16222,7 @@
       </c>
       <c r="N315" s="36"/>
     </row>
-    <row r="316" spans="1:14" ht="21">
+    <row r="316" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A316" s="54" t="s">
         <v>14</v>
       </c>
@@ -16266,7 +16266,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="317" spans="1:14" ht="21">
+    <row r="317" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A317" s="54" t="s">
         <v>14</v>
       </c>
@@ -16310,7 +16310,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="318" spans="1:14" ht="21">
+    <row r="318" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A318" s="54" t="s">
         <v>14</v>
       </c>
@@ -16354,7 +16354,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="319" spans="1:14" ht="21">
+    <row r="319" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A319" s="54" t="s">
         <v>14</v>
       </c>
@@ -16398,7 +16398,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="320" spans="1:14" ht="21">
+    <row r="320" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A320" s="54" t="s">
         <v>14</v>
       </c>
@@ -16442,7 +16442,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="321" spans="1:14" ht="21">
+    <row r="321" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A321" s="54" t="s">
         <v>14</v>
       </c>
@@ -16486,7 +16486,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="322" spans="1:14" ht="21">
+    <row r="322" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A322" s="54" t="s">
         <v>14</v>
       </c>
@@ -16530,7 +16530,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="323" spans="1:14" ht="21">
+    <row r="323" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A323" s="54" t="s">
         <v>14</v>
       </c>
@@ -16572,7 +16572,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="324" spans="1:14" ht="21">
+    <row r="324" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A324" s="54" t="s">
         <v>14</v>
       </c>
@@ -16616,7 +16616,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="325" spans="1:14" ht="21">
+    <row r="325" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A325" s="54" t="s">
         <v>14</v>
       </c>
@@ -16660,7 +16660,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="326" spans="1:14" ht="21">
+    <row r="326" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A326" s="54" t="s">
         <v>14</v>
       </c>
@@ -16704,7 +16704,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="327" spans="1:14" ht="22.5">
+    <row r="327" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A327" s="54" t="s">
         <v>14</v>
       </c>
@@ -16748,7 +16748,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="328" spans="1:14" ht="21">
+    <row r="328" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A328" s="54" t="s">
         <v>14</v>
       </c>
@@ -16792,7 +16792,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="329" spans="1:14" ht="21">
+    <row r="329" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A329" s="54" t="s">
         <v>14</v>
       </c>
@@ -16836,7 +16836,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="330" spans="1:14" ht="21">
+    <row r="330" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A330" s="54" t="s">
         <v>14</v>
       </c>
@@ -16878,7 +16878,7 @@
       </c>
       <c r="N330" s="36"/>
     </row>
-    <row r="331" spans="1:14" ht="21">
+    <row r="331" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A331" s="54" t="s">
         <v>14</v>
       </c>
@@ -16920,7 +16920,7 @@
       </c>
       <c r="N331" s="36"/>
     </row>
-    <row r="332" spans="1:14" ht="21">
+    <row r="332" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A332" s="54" t="s">
         <v>14</v>
       </c>
@@ -16962,7 +16962,7 @@
       </c>
       <c r="N332" s="36"/>
     </row>
-    <row r="333" spans="1:14" ht="21">
+    <row r="333" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A333" s="54" t="s">
         <v>14</v>
       </c>
@@ -17004,7 +17004,7 @@
       </c>
       <c r="N333" s="36"/>
     </row>
-    <row r="334" spans="1:14" ht="21">
+    <row r="334" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A334" s="54" t="s">
         <v>14</v>
       </c>
@@ -17046,7 +17046,7 @@
       </c>
       <c r="N334" s="36"/>
     </row>
-    <row r="335" spans="1:14" ht="21">
+    <row r="335" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A335" s="54" t="s">
         <v>14</v>
       </c>
@@ -17088,7 +17088,7 @@
       </c>
       <c r="N335" s="36"/>
     </row>
-    <row r="336" spans="1:14" ht="22.5">
+    <row r="336" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A336" s="54" t="s">
         <v>14</v>
       </c>
@@ -17132,7 +17132,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="337" spans="1:14" ht="21">
+    <row r="337" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A337" s="54" t="s">
         <v>14</v>
       </c>
@@ -17176,7 +17176,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="338" spans="1:14" ht="21">
+    <row r="338" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A338" s="54" t="s">
         <v>14</v>
       </c>
@@ -17220,7 +17220,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="339" spans="1:14" ht="21">
+    <row r="339" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A339" s="54" t="s">
         <v>14</v>
       </c>
@@ -17262,7 +17262,7 @@
       </c>
       <c r="N339" s="36"/>
     </row>
-    <row r="340" spans="1:14" ht="21">
+    <row r="340" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A340" s="54" t="s">
         <v>14</v>
       </c>
@@ -17304,7 +17304,7 @@
       </c>
       <c r="N340" s="36"/>
     </row>
-    <row r="341" spans="1:14" ht="21">
+    <row r="341" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A341" s="54" t="s">
         <v>14</v>
       </c>
@@ -17346,7 +17346,7 @@
       </c>
       <c r="N341" s="36"/>
     </row>
-    <row r="342" spans="1:14" ht="21">
+    <row r="342" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A342" s="54" t="s">
         <v>14</v>
       </c>
@@ -17388,7 +17388,7 @@
       </c>
       <c r="N342" s="36"/>
     </row>
-    <row r="343" spans="1:14" ht="21">
+    <row r="343" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A343" s="54" t="s">
         <v>14</v>
       </c>
@@ -17430,7 +17430,7 @@
       </c>
       <c r="N343" s="36"/>
     </row>
-    <row r="344" spans="1:14" ht="21">
+    <row r="344" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A344" s="54" t="s">
         <v>14</v>
       </c>
@@ -17472,7 +17472,7 @@
       </c>
       <c r="N344" s="36"/>
     </row>
-    <row r="345" spans="1:14" ht="21">
+    <row r="345" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A345" s="54" t="s">
         <v>14</v>
       </c>
@@ -17514,7 +17514,7 @@
       </c>
       <c r="N345" s="36"/>
     </row>
-    <row r="346" spans="1:14" ht="21">
+    <row r="346" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A346" s="54" t="s">
         <v>14</v>
       </c>
@@ -17556,7 +17556,7 @@
       </c>
       <c r="N346" s="36"/>
     </row>
-    <row r="347" spans="1:14" ht="21">
+    <row r="347" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A347" s="54" t="s">
         <v>14</v>
       </c>
@@ -17598,7 +17598,7 @@
       </c>
       <c r="N347" s="36"/>
     </row>
-    <row r="348" spans="1:14" ht="21">
+    <row r="348" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A348" s="54" t="s">
         <v>14</v>
       </c>
@@ -17640,7 +17640,7 @@
       </c>
       <c r="N348" s="36"/>
     </row>
-    <row r="349" spans="1:14" ht="21">
+    <row r="349" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A349" s="54" t="s">
         <v>14</v>
       </c>
@@ -17682,7 +17682,7 @@
       </c>
       <c r="N349" s="36"/>
     </row>
-    <row r="350" spans="1:14" ht="21">
+    <row r="350" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A350" s="54" t="s">
         <v>14</v>
       </c>
@@ -17724,7 +17724,7 @@
       </c>
       <c r="N350" s="36"/>
     </row>
-    <row r="351" spans="1:14" ht="21">
+    <row r="351" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A351" s="54" t="s">
         <v>14</v>
       </c>
@@ -17768,7 +17768,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="352" spans="1:14" ht="21">
+    <row r="352" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A352" s="54" t="s">
         <v>14</v>
       </c>
@@ -17812,7 +17812,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="353" spans="1:14" ht="21">
+    <row r="353" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A353" s="54" t="s">
         <v>14</v>
       </c>
@@ -17854,7 +17854,7 @@
       </c>
       <c r="N353" s="36"/>
     </row>
-    <row r="354" spans="1:14" ht="21">
+    <row r="354" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A354" s="54" t="s">
         <v>14</v>
       </c>
@@ -17896,7 +17896,7 @@
       </c>
       <c r="N354" s="36"/>
     </row>
-    <row r="355" spans="1:14" ht="21">
+    <row r="355" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A355" s="54" t="s">
         <v>14</v>
       </c>
@@ -17938,7 +17938,7 @@
       </c>
       <c r="N355" s="36"/>
     </row>
-    <row r="356" spans="1:14" ht="21">
+    <row r="356" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A356" s="54" t="s">
         <v>14</v>
       </c>
@@ -17980,7 +17980,7 @@
       </c>
       <c r="N356" s="36"/>
     </row>
-    <row r="357" spans="1:14" ht="21">
+    <row r="357" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A357" s="54" t="s">
         <v>14</v>
       </c>
@@ -18022,7 +18022,7 @@
       </c>
       <c r="N357" s="36"/>
     </row>
-    <row r="358" spans="1:14" ht="21">
+    <row r="358" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A358" s="54" t="s">
         <v>14</v>
       </c>
@@ -18064,7 +18064,7 @@
       </c>
       <c r="N358" s="36"/>
     </row>
-    <row r="359" spans="1:14" ht="21">
+    <row r="359" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A359" s="54" t="s">
         <v>14</v>
       </c>
@@ -18108,7 +18108,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="360" spans="1:14" ht="21">
+    <row r="360" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A360" s="54" t="s">
         <v>14</v>
       </c>
@@ -18152,7 +18152,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="361" spans="1:14" ht="21">
+    <row r="361" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A361" s="54" t="s">
         <v>14</v>
       </c>
@@ -18196,7 +18196,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="362" spans="1:14" ht="21">
+    <row r="362" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A362" s="54" t="s">
         <v>14</v>
       </c>
@@ -18240,7 +18240,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="363" spans="1:14" ht="21">
+    <row r="363" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A363" s="54" t="s">
         <v>14</v>
       </c>
@@ -18284,7 +18284,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="364" spans="1:14" ht="21">
+    <row r="364" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A364" s="54" t="s">
         <v>14</v>
       </c>
@@ -18328,7 +18328,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="365" spans="1:14" ht="21">
+    <row r="365" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A365" s="54" t="s">
         <v>14</v>
       </c>
@@ -18370,7 +18370,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="366" spans="1:14" ht="21">
+    <row r="366" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A366" s="54" t="s">
         <v>14</v>
       </c>
@@ -18414,7 +18414,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="367" spans="1:14" ht="21" customHeight="1">
+    <row r="367" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="54" t="s">
         <v>14</v>
       </c>
@@ -18458,7 +18458,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="368" spans="1:14" ht="21" customHeight="1">
+    <row r="368" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="54" t="s">
         <v>14</v>
       </c>
@@ -18502,7 +18502,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="369" spans="1:14" ht="21" customHeight="1">
+    <row r="369" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="54" t="s">
         <v>14</v>
       </c>
@@ -18546,7 +18546,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="370" spans="1:14" ht="21">
+    <row r="370" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A370" s="54" t="s">
         <v>14</v>
       </c>
@@ -18590,7 +18590,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="371" spans="1:14" ht="21" customHeight="1">
+    <row r="371" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="54" t="s">
         <v>14</v>
       </c>
@@ -18634,7 +18634,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="372" spans="1:14" ht="21" customHeight="1">
+    <row r="372" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="54" t="s">
         <v>14</v>
       </c>
@@ -18678,7 +18678,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="373" spans="1:14" ht="21" customHeight="1">
+    <row r="373" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="54" t="s">
         <v>14</v>
       </c>
@@ -18722,7 +18722,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="374" spans="1:14" ht="21" customHeight="1">
+    <row r="374" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="54" t="s">
         <v>14</v>
       </c>
@@ -18766,7 +18766,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="375" spans="1:14" ht="21" customHeight="1">
+    <row r="375" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="54" t="s">
         <v>14</v>
       </c>
@@ -18810,7 +18810,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="376" spans="1:14" ht="21" customHeight="1">
+    <row r="376" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="54" t="s">
         <v>14</v>
       </c>
@@ -18854,7 +18854,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="377" spans="1:14" ht="21">
+    <row r="377" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A377" s="54" t="s">
         <v>14</v>
       </c>
@@ -18898,7 +18898,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="378" spans="1:14" ht="21" customHeight="1">
+    <row r="378" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="54" t="s">
         <v>14</v>
       </c>
@@ -18942,7 +18942,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="379" spans="1:14" ht="21" customHeight="1">
+    <row r="379" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="54" t="s">
         <v>14</v>
       </c>
@@ -18986,7 +18986,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="380" spans="1:14" ht="21" customHeight="1">
+    <row r="380" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="54" t="s">
         <v>14</v>
       </c>
@@ -19030,7 +19030,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="381" spans="1:14" ht="21">
+    <row r="381" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A381" s="54" t="s">
         <v>14</v>
       </c>
@@ -19074,7 +19074,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="382" spans="1:14" ht="21">
+    <row r="382" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A382" s="54" t="s">
         <v>14</v>
       </c>
@@ -19116,7 +19116,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="383" spans="1:14" ht="21">
+    <row r="383" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A383" s="54" t="s">
         <v>14</v>
       </c>
@@ -19160,7 +19160,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="384" spans="1:14" ht="21">
+    <row r="384" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A384" s="54" t="s">
         <v>14</v>
       </c>
@@ -19204,7 +19204,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="385" spans="1:14" ht="21">
+    <row r="385" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A385" s="54" t="s">
         <v>14</v>
       </c>
@@ -19248,7 +19248,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="386" spans="1:14" ht="21">
+    <row r="386" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A386" s="54" t="s">
         <v>14</v>
       </c>
@@ -19290,7 +19290,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="387" spans="1:14" ht="21">
+    <row r="387" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A387" s="54" t="s">
         <v>14</v>
       </c>
@@ -19334,7 +19334,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="388" spans="1:14" ht="21">
+    <row r="388" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A388" s="54" t="s">
         <v>14</v>
       </c>
@@ -19378,7 +19378,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="389" spans="1:14" ht="21">
+    <row r="389" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A389" s="54" t="s">
         <v>14</v>
       </c>
@@ -19422,7 +19422,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="390" spans="1:14" ht="21">
+    <row r="390" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A390" s="54" t="s">
         <v>14</v>
       </c>
@@ -19464,7 +19464,7 @@
       </c>
       <c r="N390" s="36"/>
     </row>
-    <row r="391" spans="1:14" ht="21">
+    <row r="391" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A391" s="54" t="s">
         <v>14</v>
       </c>
@@ -19506,7 +19506,7 @@
       </c>
       <c r="N391" s="36"/>
     </row>
-    <row r="392" spans="1:14" ht="21">
+    <row r="392" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A392" s="54" t="s">
         <v>14</v>
       </c>
@@ -19548,7 +19548,7 @@
       </c>
       <c r="N392" s="36"/>
     </row>
-    <row r="393" spans="1:14" ht="21">
+    <row r="393" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A393" s="54" t="s">
         <v>14</v>
       </c>
@@ -19590,7 +19590,7 @@
       </c>
       <c r="N393" s="36"/>
     </row>
-    <row r="394" spans="1:14" ht="21">
+    <row r="394" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A394" s="54" t="s">
         <v>14</v>
       </c>
@@ -19632,7 +19632,7 @@
       </c>
       <c r="N394" s="36"/>
     </row>
-    <row r="395" spans="1:14" ht="21">
+    <row r="395" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A395" s="54" t="s">
         <v>14</v>
       </c>
@@ -19674,7 +19674,7 @@
       </c>
       <c r="N395" s="36"/>
     </row>
-    <row r="396" spans="1:14" ht="22.5">
+    <row r="396" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A396" s="54" t="s">
         <v>14</v>
       </c>
@@ -19718,7 +19718,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="397" spans="1:14" ht="22.5">
+    <row r="397" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A397" s="54" t="s">
         <v>14</v>
       </c>
@@ -19762,7 +19762,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="398" spans="1:14" ht="21">
+    <row r="398" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A398" s="54" t="s">
         <v>14</v>
       </c>
@@ -19806,7 +19806,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="399" spans="1:14" ht="21">
+    <row r="399" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A399" s="54" t="s">
         <v>14</v>
       </c>
@@ -19850,7 +19850,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="400" spans="1:14" ht="21">
+    <row r="400" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A400" s="54" t="s">
         <v>14</v>
       </c>
@@ -19894,7 +19894,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="401" spans="1:14" ht="21">
+    <row r="401" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A401" s="54" t="s">
         <v>14</v>
       </c>
@@ -19938,7 +19938,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="402" spans="1:14" ht="21">
+    <row r="402" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A402" s="54" t="s">
         <v>14</v>
       </c>
@@ -19982,7 +19982,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="403" spans="1:14" ht="21">
+    <row r="403" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A403" s="54" t="s">
         <v>14</v>
       </c>
@@ -20026,7 +20026,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="404" spans="1:14" ht="22.5">
+    <row r="404" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A404" s="54" t="s">
         <v>14</v>
       </c>
@@ -20070,7 +20070,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="405" spans="1:14" ht="21">
+    <row r="405" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A405" s="54" t="s">
         <v>14</v>
       </c>
@@ -20112,7 +20112,7 @@
       </c>
       <c r="N405" s="134"/>
     </row>
-    <row r="406" spans="1:14" ht="21">
+    <row r="406" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A406" s="54" t="s">
         <v>14</v>
       </c>
@@ -20154,7 +20154,7 @@
       </c>
       <c r="N406" s="134"/>
     </row>
-    <row r="407" spans="1:14" ht="21">
+    <row r="407" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A407" s="54" t="s">
         <v>14</v>
       </c>
@@ -20196,7 +20196,7 @@
       </c>
       <c r="N407" s="36"/>
     </row>
-    <row r="408" spans="1:14" ht="21">
+    <row r="408" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A408" s="54" t="s">
         <v>14</v>
       </c>
@@ -20238,7 +20238,7 @@
       </c>
       <c r="N408" s="36"/>
     </row>
-    <row r="409" spans="1:14" ht="21">
+    <row r="409" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A409" s="54" t="s">
         <v>14</v>
       </c>
@@ -20280,7 +20280,7 @@
       </c>
       <c r="N409" s="36"/>
     </row>
-    <row r="410" spans="1:14" ht="21">
+    <row r="410" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A410" s="54" t="s">
         <v>14</v>
       </c>
@@ -20322,7 +20322,7 @@
       </c>
       <c r="N410" s="36"/>
     </row>
-    <row r="411" spans="1:14" ht="22.5">
+    <row r="411" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A411" s="54" t="s">
         <v>14</v>
       </c>
@@ -20366,7 +20366,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="412" spans="1:14" ht="21">
+    <row r="412" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A412" s="54" t="s">
         <v>14</v>
       </c>
@@ -20408,7 +20408,7 @@
       </c>
       <c r="N412" s="36"/>
     </row>
-    <row r="413" spans="1:14" ht="21">
+    <row r="413" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A413" s="54" t="s">
         <v>14</v>
       </c>
@@ -20450,7 +20450,7 @@
       </c>
       <c r="N413" s="36"/>
     </row>
-    <row r="414" spans="1:14" ht="21">
+    <row r="414" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A414" s="54" t="s">
         <v>14</v>
       </c>
@@ -20492,7 +20492,7 @@
       </c>
       <c r="N414" s="36"/>
     </row>
-    <row r="415" spans="1:14" ht="21">
+    <row r="415" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A415" s="54" t="s">
         <v>14</v>
       </c>
@@ -20534,7 +20534,7 @@
       </c>
       <c r="N415" s="36"/>
     </row>
-    <row r="416" spans="1:14" ht="21">
+    <row r="416" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A416" s="54" t="s">
         <v>14</v>
       </c>
@@ -20576,7 +20576,7 @@
       </c>
       <c r="N416" s="36"/>
     </row>
-    <row r="417" spans="1:14" ht="21">
+    <row r="417" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A417" s="54" t="s">
         <v>14</v>
       </c>
@@ -20618,7 +20618,7 @@
       </c>
       <c r="N417" s="36"/>
     </row>
-    <row r="418" spans="1:14" ht="21">
+    <row r="418" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A418" s="54" t="s">
         <v>14</v>
       </c>
@@ -20662,7 +20662,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="419" spans="1:14" ht="21">
+    <row r="419" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A419" s="54" t="s">
         <v>14</v>
       </c>
@@ -20706,7 +20706,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="420" spans="1:14" ht="21">
+    <row r="420" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A420" s="54" t="s">
         <v>14</v>
       </c>
@@ -20750,7 +20750,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="421" spans="1:14" ht="21">
+    <row r="421" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A421" s="54" t="s">
         <v>14</v>
       </c>
@@ -20794,7 +20794,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="422" spans="1:14" ht="21">
+    <row r="422" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A422" s="54" t="s">
         <v>14</v>
       </c>
@@ -20836,7 +20836,7 @@
       </c>
       <c r="N422" s="36"/>
     </row>
-    <row r="423" spans="1:14" ht="21">
+    <row r="423" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A423" s="54" t="s">
         <v>14</v>
       </c>
@@ -20878,7 +20878,7 @@
       </c>
       <c r="N423" s="36"/>
     </row>
-    <row r="424" spans="1:14" ht="21">
+    <row r="424" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A424" s="54" t="s">
         <v>14</v>
       </c>
@@ -20920,7 +20920,7 @@
       </c>
       <c r="N424" s="36"/>
     </row>
-    <row r="425" spans="1:14" ht="21">
+    <row r="425" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A425" s="54" t="s">
         <v>14</v>
       </c>
@@ -20962,7 +20962,7 @@
       </c>
       <c r="N425" s="36"/>
     </row>
-    <row r="426" spans="1:14" ht="21">
+    <row r="426" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A426" s="54" t="s">
         <v>14</v>
       </c>
@@ -21004,7 +21004,7 @@
       </c>
       <c r="N426" s="36"/>
     </row>
-    <row r="427" spans="1:14" ht="21">
+    <row r="427" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A427" s="54" t="s">
         <v>14</v>
       </c>
@@ -21046,7 +21046,7 @@
       </c>
       <c r="N427" s="36"/>
     </row>
-    <row r="428" spans="1:14" ht="21">
+    <row r="428" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A428" s="54" t="s">
         <v>14</v>
       </c>
@@ -21090,7 +21090,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="429" spans="1:14" ht="21">
+    <row r="429" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A429" s="54" t="s">
         <v>14</v>
       </c>
@@ -21134,7 +21134,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="430" spans="1:14" ht="21">
+    <row r="430" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A430" s="54" t="s">
         <v>14</v>
       </c>
@@ -21178,7 +21178,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="431" spans="1:14" ht="21">
+    <row r="431" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A431" s="54" t="s">
         <v>14</v>
       </c>
@@ -21222,7 +21222,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="432" spans="1:14" ht="21">
+    <row r="432" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A432" s="54" t="s">
         <v>14</v>
       </c>
@@ -21264,7 +21264,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="433" spans="1:14" ht="21">
+    <row r="433" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A433" s="54" t="s">
         <v>14</v>
       </c>
@@ -21306,7 +21306,7 @@
       </c>
       <c r="N433" s="36"/>
     </row>
-    <row r="434" spans="1:14" ht="21">
+    <row r="434" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A434" s="54" t="s">
         <v>14</v>
       </c>
@@ -21348,7 +21348,7 @@
       </c>
       <c r="N434" s="36"/>
     </row>
-    <row r="435" spans="1:14" ht="21">
+    <row r="435" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A435" s="54" t="s">
         <v>14</v>
       </c>
@@ -21390,7 +21390,7 @@
       </c>
       <c r="N435" s="36"/>
     </row>
-    <row r="436" spans="1:14" ht="21">
+    <row r="436" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A436" s="54" t="s">
         <v>14</v>
       </c>
@@ -21432,7 +21432,7 @@
       </c>
       <c r="N436" s="36"/>
     </row>
-    <row r="437" spans="1:14" ht="21">
+    <row r="437" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A437" s="54" t="s">
         <v>14</v>
       </c>
@@ -21474,7 +21474,7 @@
       </c>
       <c r="N437" s="36"/>
     </row>
-    <row r="438" spans="1:14" ht="21">
+    <row r="438" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A438" s="54" t="s">
         <v>14</v>
       </c>
@@ -21516,7 +21516,7 @@
       </c>
       <c r="N438" s="36"/>
     </row>
-    <row r="439" spans="1:14" ht="22.5">
+    <row r="439" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A439" s="54" t="s">
         <v>14</v>
       </c>
@@ -21560,7 +21560,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="440" spans="1:14" ht="21" customHeight="1">
+    <row r="440" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="54" t="s">
         <v>14</v>
       </c>
@@ -21602,7 +21602,7 @@
       </c>
       <c r="N440" s="36"/>
     </row>
-    <row r="441" spans="1:14" ht="21" customHeight="1">
+    <row r="441" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="54" t="s">
         <v>14</v>
       </c>
@@ -21644,7 +21644,7 @@
       </c>
       <c r="N441" s="36"/>
     </row>
-    <row r="442" spans="1:14" ht="21">
+    <row r="442" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A442" s="54" t="s">
         <v>14</v>
       </c>
@@ -21686,7 +21686,7 @@
       </c>
       <c r="N442" s="36"/>
     </row>
-    <row r="443" spans="1:14" ht="21">
+    <row r="443" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A443" s="54" t="s">
         <v>14</v>
       </c>
@@ -21728,7 +21728,7 @@
       </c>
       <c r="N443" s="36"/>
     </row>
-    <row r="444" spans="1:14" ht="21">
+    <row r="444" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A444" s="54" t="s">
         <v>14</v>
       </c>
@@ -21770,7 +21770,7 @@
       </c>
       <c r="N444" s="36"/>
     </row>
-    <row r="445" spans="1:14" ht="21">
+    <row r="445" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A445" s="54" t="s">
         <v>14</v>
       </c>
@@ -21812,7 +21812,7 @@
       </c>
       <c r="N445" s="36"/>
     </row>
-    <row r="446" spans="1:14" ht="21">
+    <row r="446" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A446" s="54" t="s">
         <v>14</v>
       </c>
@@ -21854,7 +21854,7 @@
       </c>
       <c r="N446" s="36"/>
     </row>
-    <row r="447" spans="1:14" ht="21">
+    <row r="447" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A447" s="54" t="s">
         <v>14</v>
       </c>
@@ -21896,7 +21896,7 @@
       </c>
       <c r="N447" s="36"/>
     </row>
-    <row r="448" spans="1:14" ht="21">
+    <row r="448" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A448" s="54" t="s">
         <v>14</v>
       </c>
@@ -21938,7 +21938,7 @@
       </c>
       <c r="N448" s="36"/>
     </row>
-    <row r="449" spans="1:14" ht="21">
+    <row r="449" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A449" s="54" t="s">
         <v>14</v>
       </c>
@@ -21980,7 +21980,7 @@
       </c>
       <c r="N449" s="36"/>
     </row>
-    <row r="450" spans="1:14" ht="21">
+    <row r="450" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A450" s="54" t="s">
         <v>14</v>
       </c>
@@ -22022,7 +22022,7 @@
       </c>
       <c r="N450" s="36"/>
     </row>
-    <row r="451" spans="1:14" ht="21">
+    <row r="451" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A451" s="54" t="s">
         <v>14</v>
       </c>
@@ -22064,7 +22064,7 @@
       </c>
       <c r="N451" s="36"/>
     </row>
-    <row r="452" spans="1:14" ht="21">
+    <row r="452" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A452" s="54" t="s">
         <v>14</v>
       </c>
@@ -22106,7 +22106,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="453" spans="1:14" ht="21">
+    <row r="453" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A453" s="54" t="s">
         <v>14</v>
       </c>
@@ -22148,7 +22148,7 @@
       </c>
       <c r="N453" s="36"/>
     </row>
-    <row r="454" spans="1:14" ht="21">
+    <row r="454" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A454" s="54" t="s">
         <v>14</v>
       </c>
@@ -22190,7 +22190,7 @@
       </c>
       <c r="N454" s="36"/>
     </row>
-    <row r="455" spans="1:14" ht="21">
+    <row r="455" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A455" s="54" t="s">
         <v>14</v>
       </c>
@@ -22232,7 +22232,7 @@
       </c>
       <c r="N455" s="36"/>
     </row>
-    <row r="456" spans="1:14" ht="21">
+    <row r="456" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A456" s="54" t="s">
         <v>14</v>
       </c>
@@ -22274,7 +22274,7 @@
       </c>
       <c r="N456" s="36"/>
     </row>
-    <row r="457" spans="1:14" ht="21">
+    <row r="457" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A457" s="54" t="s">
         <v>14</v>
       </c>
@@ -22316,7 +22316,7 @@
       </c>
       <c r="N457" s="36"/>
     </row>
-    <row r="458" spans="1:14" ht="21">
+    <row r="458" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A458" s="54" t="s">
         <v>14</v>
       </c>
@@ -22358,7 +22358,7 @@
       </c>
       <c r="N458" s="36"/>
     </row>
-    <row r="459" spans="1:14" ht="21">
+    <row r="459" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A459" s="54" t="s">
         <v>14</v>
       </c>
@@ -22402,7 +22402,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="460" spans="1:14" ht="21">
+    <row r="460" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A460" s="54" t="s">
         <v>14</v>
       </c>
@@ -22446,7 +22446,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="461" spans="1:14" ht="21">
+    <row r="461" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A461" s="54" t="s">
         <v>14</v>
       </c>
@@ -22490,7 +22490,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="462" spans="1:14" ht="21">
+    <row r="462" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A462" s="54" t="s">
         <v>14</v>
       </c>
@@ -22534,7 +22534,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="463" spans="1:14" ht="21">
+    <row r="463" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A463" s="54" t="s">
         <v>14</v>
       </c>
@@ -22578,7 +22578,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="464" spans="1:14" ht="21">
+    <row r="464" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A464" s="54" t="s">
         <v>14</v>
       </c>
@@ -22622,7 +22622,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="465" spans="1:14" ht="21">
+    <row r="465" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A465" s="54" t="s">
         <v>14</v>
       </c>
@@ -22666,7 +22666,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="466" spans="1:14" ht="21">
+    <row r="466" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A466" s="54" t="s">
         <v>14</v>
       </c>
@@ -22708,7 +22708,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="467" spans="1:14" ht="21">
+    <row r="467" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A467" s="54" t="s">
         <v>14</v>
       </c>
@@ -22752,7 +22752,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="468" spans="1:14" ht="22.5">
+    <row r="468" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A468" s="54" t="s">
         <v>14</v>
       </c>
@@ -22796,7 +22796,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="469" spans="1:14" ht="21">
+    <row r="469" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A469" s="54" t="s">
         <v>14</v>
       </c>
@@ -22840,7 +22840,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="470" spans="1:14" ht="21">
+    <row r="470" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A470" s="54" t="s">
         <v>14</v>
       </c>
@@ -22884,7 +22884,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="471" spans="1:14" ht="21">
+    <row r="471" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A471" s="54" t="s">
         <v>14</v>
       </c>
@@ -22926,7 +22926,7 @@
       </c>
       <c r="N471" s="36"/>
     </row>
-    <row r="472" spans="1:14" ht="21">
+    <row r="472" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A472" s="54" t="s">
         <v>14</v>
       </c>
@@ -22968,7 +22968,7 @@
       </c>
       <c r="N472" s="36"/>
     </row>
-    <row r="473" spans="1:14" ht="21">
+    <row r="473" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A473" s="54" t="s">
         <v>14</v>
       </c>
@@ -23010,7 +23010,7 @@
       </c>
       <c r="N473" s="36"/>
     </row>
-    <row r="474" spans="1:14" ht="21">
+    <row r="474" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A474" s="54" t="s">
         <v>14</v>
       </c>
@@ -23052,7 +23052,7 @@
       </c>
       <c r="N474" s="36"/>
     </row>
-    <row r="475" spans="1:14" ht="21">
+    <row r="475" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A475" s="54" t="s">
         <v>14</v>
       </c>
@@ -23094,7 +23094,7 @@
       </c>
       <c r="N475" s="36"/>
     </row>
-    <row r="476" spans="1:14" ht="21">
+    <row r="476" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A476" s="54" t="s">
         <v>14</v>
       </c>
@@ -23136,7 +23136,7 @@
       </c>
       <c r="N476" s="36"/>
     </row>
-    <row r="477" spans="1:14" ht="21">
+    <row r="477" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A477" s="54" t="s">
         <v>14</v>
       </c>
@@ -23180,7 +23180,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="478" spans="1:14" ht="21">
+    <row r="478" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A478" s="54" t="s">
         <v>14</v>
       </c>
@@ -23224,7 +23224,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="479" spans="1:14" ht="21">
+    <row r="479" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A479" s="54" t="s">
         <v>14</v>
       </c>
@@ -23268,7 +23268,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="480" spans="1:14" ht="21">
+    <row r="480" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A480" s="54" t="s">
         <v>14</v>
       </c>
@@ -23312,7 +23312,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="481" spans="1:14" ht="21">
+    <row r="481" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A481" s="54" t="s">
         <v>14</v>
       </c>
@@ -23356,7 +23356,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="482" spans="1:14" ht="21">
+    <row r="482" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A482" s="54" t="s">
         <v>14</v>
       </c>
@@ -23400,7 +23400,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="483" spans="1:14" ht="21">
+    <row r="483" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A483" s="54" t="s">
         <v>14</v>
       </c>
@@ -23442,7 +23442,7 @@
       </c>
       <c r="N483" s="36"/>
     </row>
-    <row r="484" spans="1:14" ht="21">
+    <row r="484" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A484" s="54" t="s">
         <v>14</v>
       </c>
@@ -23484,7 +23484,7 @@
       </c>
       <c r="N484" s="36"/>
     </row>
-    <row r="485" spans="1:14" ht="21">
+    <row r="485" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A485" s="54" t="s">
         <v>14</v>
       </c>
@@ -23526,7 +23526,7 @@
       </c>
       <c r="N485" s="36"/>
     </row>
-    <row r="486" spans="1:14" ht="21">
+    <row r="486" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A486" s="54" t="s">
         <v>14</v>
       </c>
@@ -23568,7 +23568,7 @@
       </c>
       <c r="N486" s="36"/>
     </row>
-    <row r="487" spans="1:14" ht="21">
+    <row r="487" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A487" s="54" t="s">
         <v>14</v>
       </c>
@@ -23610,7 +23610,7 @@
       </c>
       <c r="N487" s="36"/>
     </row>
-    <row r="488" spans="1:14" ht="21">
+    <row r="488" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A488" s="54" t="s">
         <v>14</v>
       </c>
@@ -23652,7 +23652,7 @@
       </c>
       <c r="N488" s="36"/>
     </row>
-    <row r="489" spans="1:14" ht="21">
+    <row r="489" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A489" s="54" t="s">
         <v>14</v>
       </c>
@@ -23696,7 +23696,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="490" spans="1:14" ht="21">
+    <row r="490" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A490" s="54" t="s">
         <v>14</v>
       </c>
@@ -23738,7 +23738,7 @@
       </c>
       <c r="N490" s="36"/>
     </row>
-    <row r="491" spans="1:14" ht="21">
+    <row r="491" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A491" s="54" t="s">
         <v>14</v>
       </c>
@@ -23780,7 +23780,7 @@
       </c>
       <c r="N491" s="36"/>
     </row>
-    <row r="492" spans="1:14" ht="21">
+    <row r="492" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A492" s="54" t="s">
         <v>14</v>
       </c>
@@ -23822,7 +23822,7 @@
       </c>
       <c r="N492" s="36"/>
     </row>
-    <row r="493" spans="1:14" ht="21">
+    <row r="493" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A493" s="54" t="s">
         <v>14</v>
       </c>
@@ -23864,7 +23864,7 @@
       </c>
       <c r="N493" s="36"/>
     </row>
-    <row r="494" spans="1:14" ht="21">
+    <row r="494" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A494" s="54" t="s">
         <v>14</v>
       </c>
@@ -23906,7 +23906,7 @@
       </c>
       <c r="N494" s="36"/>
     </row>
-    <row r="495" spans="1:14" ht="21">
+    <row r="495" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A495" s="54" t="s">
         <v>14</v>
       </c>
@@ -23948,7 +23948,7 @@
       </c>
       <c r="N495" s="36"/>
     </row>
-    <row r="496" spans="1:14" ht="22.5">
+    <row r="496" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A496" s="54" t="s">
         <v>14</v>
       </c>
@@ -23992,7 +23992,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="497" spans="1:14" ht="21">
+    <row r="497" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A497" s="54" t="s">
         <v>14</v>
       </c>
@@ -24034,7 +24034,7 @@
       </c>
       <c r="N497" s="36"/>
     </row>
-    <row r="498" spans="1:14" ht="21">
+    <row r="498" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A498" s="54" t="s">
         <v>14</v>
       </c>
@@ -24076,7 +24076,7 @@
       </c>
       <c r="N498" s="36"/>
     </row>
-    <row r="499" spans="1:14" ht="21">
+    <row r="499" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A499" s="54" t="s">
         <v>14</v>
       </c>
@@ -24118,7 +24118,7 @@
       </c>
       <c r="N499" s="36"/>
     </row>
-    <row r="500" spans="1:14" ht="21">
+    <row r="500" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A500" s="54" t="s">
         <v>14</v>
       </c>
@@ -24160,7 +24160,7 @@
       </c>
       <c r="N500" s="36"/>
     </row>
-    <row r="501" spans="1:14" ht="21">
+    <row r="501" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A501" s="54" t="s">
         <v>14</v>
       </c>
@@ -24202,7 +24202,7 @@
       </c>
       <c r="N501" s="36"/>
     </row>
-    <row r="502" spans="1:14" ht="21">
+    <row r="502" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A502" s="54" t="s">
         <v>14</v>
       </c>
@@ -24244,7 +24244,7 @@
       </c>
       <c r="N502" s="36"/>
     </row>
-    <row r="503" spans="1:14" ht="21">
+    <row r="503" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A503" s="54" t="s">
         <v>14</v>
       </c>
@@ -24288,7 +24288,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="504" spans="1:14" ht="21">
+    <row r="504" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A504" s="54" t="s">
         <v>14</v>
       </c>
@@ -24332,7 +24332,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="505" spans="1:14" ht="21">
+    <row r="505" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A505" s="54" t="s">
         <v>14</v>
       </c>
@@ -24376,7 +24376,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="506" spans="1:14" ht="21">
+    <row r="506" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A506" s="54" t="s">
         <v>14</v>
       </c>
@@ -24418,7 +24418,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="507" spans="1:14" ht="21">
+    <row r="507" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A507" s="54" t="s">
         <v>14</v>
       </c>
@@ -24462,7 +24462,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="508" spans="1:14" ht="21">
+    <row r="508" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A508" s="54" t="s">
         <v>14</v>
       </c>
@@ -24506,7 +24506,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="509" spans="1:14" ht="22.5">
+    <row r="509" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A509" s="54" t="s">
         <v>14</v>
       </c>
@@ -24550,7 +24550,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="510" spans="1:14" ht="21">
+    <row r="510" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A510" s="54" t="s">
         <v>14</v>
       </c>
@@ -24594,7 +24594,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="511" spans="1:14" ht="21">
+    <row r="511" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A511" s="54" t="s">
         <v>14</v>
       </c>
@@ -24636,7 +24636,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="512" spans="1:14" ht="21">
+    <row r="512" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A512" s="54" t="s">
         <v>14</v>
       </c>
@@ -24680,7 +24680,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="513" spans="1:14" ht="21">
+    <row r="513" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A513" s="54" t="s">
         <v>14</v>
       </c>
@@ -24724,7 +24724,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="514" spans="1:14" ht="21">
+    <row r="514" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A514" s="54" t="s">
         <v>14</v>
       </c>
@@ -24768,7 +24768,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="515" spans="1:14" ht="21">
+    <row r="515" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A515" s="54" t="s">
         <v>14</v>
       </c>
@@ -24812,7 +24812,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="516" spans="1:14" ht="21">
+    <row r="516" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A516" s="54" t="s">
         <v>14</v>
       </c>
@@ -24856,7 +24856,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="517" spans="1:14" ht="21">
+    <row r="517" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A517" s="54" t="s">
         <v>14</v>
       </c>
@@ -24900,7 +24900,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="518" spans="1:14" ht="21">
+    <row r="518" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A518" s="54" t="s">
         <v>14</v>
       </c>
@@ -24944,7 +24944,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="519" spans="1:14" ht="21">
+    <row r="519" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A519" s="54" t="s">
         <v>14</v>
       </c>
@@ -24986,7 +24986,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="520" spans="1:14" ht="22.5">
+    <row r="520" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A520" s="54" t="s">
         <v>14</v>
       </c>
@@ -25030,7 +25030,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="521" spans="1:14" ht="21">
+    <row r="521" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A521" s="54" t="s">
         <v>14</v>
       </c>
@@ -25074,7 +25074,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="522" spans="1:14" ht="21">
+    <row r="522" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A522" s="54" t="s">
         <v>14</v>
       </c>
@@ -25118,7 +25118,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="523" spans="1:14" ht="21">
+    <row r="523" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A523" s="54" t="s">
         <v>14</v>
       </c>
@@ -25162,7 +25162,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="524" spans="1:14" ht="21">
+    <row r="524" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A524" s="54" t="s">
         <v>14</v>
       </c>
@@ -25206,7 +25206,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="525" spans="1:14" ht="21">
+    <row r="525" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A525" s="54" t="s">
         <v>14</v>
       </c>
@@ -25250,7 +25250,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="526" spans="1:14" ht="21">
+    <row r="526" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A526" s="54" t="s">
         <v>14</v>
       </c>
@@ -25294,7 +25294,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="527" spans="1:14" ht="21">
+    <row r="527" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A527" s="54" t="s">
         <v>14</v>
       </c>
@@ -25336,7 +25336,7 @@
       </c>
       <c r="N527" s="36"/>
     </row>
-    <row r="528" spans="1:14" ht="21">
+    <row r="528" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A528" s="54" t="s">
         <v>14</v>
       </c>
@@ -25378,7 +25378,7 @@
       </c>
       <c r="N528" s="36"/>
     </row>
-    <row r="529" spans="1:49" ht="21">
+    <row r="529" spans="1:49" ht="21" x14ac:dyDescent="0.2">
       <c r="A529" s="54" t="s">
         <v>14</v>
       </c>
@@ -25420,7 +25420,7 @@
       </c>
       <c r="N529" s="36"/>
     </row>
-    <row r="530" spans="1:49" ht="21">
+    <row r="530" spans="1:49" ht="21" x14ac:dyDescent="0.2">
       <c r="A530" s="54" t="s">
         <v>14</v>
       </c>
@@ -25462,7 +25462,7 @@
       </c>
       <c r="N530" s="36"/>
     </row>
-    <row r="531" spans="1:49" ht="21">
+    <row r="531" spans="1:49" ht="21" x14ac:dyDescent="0.2">
       <c r="A531" s="54" t="s">
         <v>14</v>
       </c>
@@ -25504,7 +25504,7 @@
       </c>
       <c r="N531" s="36"/>
     </row>
-    <row r="532" spans="1:49" ht="21">
+    <row r="532" spans="1:49" ht="21" x14ac:dyDescent="0.2">
       <c r="A532" s="54" t="s">
         <v>14</v>
       </c>
@@ -25546,7 +25546,7 @@
       </c>
       <c r="N532" s="36"/>
     </row>
-    <row r="533" spans="1:49" ht="21">
+    <row r="533" spans="1:49" ht="21" x14ac:dyDescent="0.2">
       <c r="A533" s="54" t="s">
         <v>14</v>
       </c>
@@ -25590,7 +25590,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="534" spans="1:49" ht="21">
+    <row r="534" spans="1:49" ht="21" x14ac:dyDescent="0.2">
       <c r="A534" s="54" t="s">
         <v>14</v>
       </c>
@@ -25634,7 +25634,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="535" spans="1:49" ht="21">
+    <row r="535" spans="1:49" ht="21" x14ac:dyDescent="0.2">
       <c r="A535" s="54" t="s">
         <v>14</v>
       </c>
@@ -25676,7 +25676,7 @@
       </c>
       <c r="N535" s="36"/>
     </row>
-    <row r="536" spans="1:49" ht="21">
+    <row r="536" spans="1:49" ht="21" x14ac:dyDescent="0.2">
       <c r="A536" s="54" t="s">
         <v>14</v>
       </c>
@@ -25718,7 +25718,7 @@
       </c>
       <c r="N536" s="36"/>
     </row>
-    <row r="537" spans="1:49" ht="21">
+    <row r="537" spans="1:49" ht="21" x14ac:dyDescent="0.2">
       <c r="A537" s="54" t="s">
         <v>14</v>
       </c>
@@ -25760,7 +25760,7 @@
       </c>
       <c r="N537" s="36"/>
     </row>
-    <row r="538" spans="1:49" ht="21">
+    <row r="538" spans="1:49" ht="21" x14ac:dyDescent="0.2">
       <c r="A538" s="54" t="s">
         <v>14</v>
       </c>
@@ -25802,7 +25802,7 @@
       </c>
       <c r="N538" s="36"/>
     </row>
-    <row r="539" spans="1:49" s="45" customFormat="1" ht="26.65" customHeight="1" thickBot="1">
+    <row r="539" spans="1:49" s="45" customFormat="1" ht="26.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A539" s="109" t="s">
         <v>14</v>
       </c>
@@ -25879,7 +25879,7 @@
       <c r="AV539" s="7"/>
       <c r="AW539" s="7"/>
     </row>
-    <row r="540" spans="1:49" ht="21">
+    <row r="540" spans="1:49" ht="21" x14ac:dyDescent="0.2">
       <c r="A540" s="109" t="s">
         <v>14</v>
       </c>
@@ -25921,7 +25921,7 @@
       </c>
       <c r="N540" s="36"/>
     </row>
-    <row r="541" spans="1:49" ht="21">
+    <row r="541" spans="1:49" ht="21" x14ac:dyDescent="0.2">
       <c r="A541" s="54" t="s">
         <v>14</v>
       </c>
@@ -25965,7 +25965,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="542" spans="1:49" ht="21">
+    <row r="542" spans="1:49" ht="21" x14ac:dyDescent="0.25">
       <c r="A542" s="109" t="s">
         <v>14</v>
       </c>
@@ -26007,7 +26007,7 @@
       </c>
       <c r="N542" s="36"/>
     </row>
-    <row r="543" spans="1:49" ht="21">
+    <row r="543" spans="1:49" ht="21" x14ac:dyDescent="0.25">
       <c r="A543" s="54" t="s">
         <v>14</v>
       </c>
@@ -26049,7 +26049,7 @@
       </c>
       <c r="N543" s="36"/>
     </row>
-    <row r="544" spans="1:49" ht="21">
+    <row r="544" spans="1:49" ht="21" x14ac:dyDescent="0.25">
       <c r="A544" s="54" t="s">
         <v>14</v>
       </c>
@@ -26091,7 +26091,7 @@
       </c>
       <c r="N544" s="36"/>
     </row>
-    <row r="545" spans="1:14" ht="21">
+    <row r="545" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A545" s="54" t="s">
         <v>14</v>
       </c>
@@ -26133,7 +26133,7 @@
       </c>
       <c r="N545" s="36"/>
     </row>
-    <row r="546" spans="1:14" ht="21" customHeight="1">
+    <row r="546" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="54" t="s">
         <v>14</v>
       </c>
@@ -26175,7 +26175,7 @@
       </c>
       <c r="N546" s="36"/>
     </row>
-    <row r="547" spans="1:14" ht="21">
+    <row r="547" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A547" s="54" t="s">
         <v>14</v>
       </c>
@@ -26217,7 +26217,7 @@
       </c>
       <c r="N547" s="36"/>
     </row>
-    <row r="548" spans="1:14" ht="22.5" customHeight="1">
+    <row r="548" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="54" t="s">
         <v>14</v>
       </c>
@@ -26261,7 +26261,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="549" spans="1:14" ht="22.5" customHeight="1">
+    <row r="549" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="54" t="s">
         <v>14</v>
       </c>
@@ -26303,7 +26303,7 @@
       </c>
       <c r="N549" s="36"/>
     </row>
-    <row r="550" spans="1:14" ht="21" customHeight="1">
+    <row r="550" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="54" t="s">
         <v>14</v>
       </c>
@@ -26345,7 +26345,7 @@
       </c>
       <c r="N550" s="36"/>
     </row>
-    <row r="551" spans="1:14" ht="21">
+    <row r="551" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A551" s="54" t="s">
         <v>14</v>
       </c>
@@ -26387,7 +26387,7 @@
       </c>
       <c r="N551" s="36"/>
     </row>
-    <row r="552" spans="1:14" ht="21">
+    <row r="552" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A552" s="54" t="s">
         <v>14</v>
       </c>
@@ -26429,7 +26429,7 @@
       </c>
       <c r="N552" s="36"/>
     </row>
-    <row r="553" spans="1:14" ht="21" customHeight="1">
+    <row r="553" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="54" t="s">
         <v>14</v>
       </c>
@@ -26471,7 +26471,7 @@
       </c>
       <c r="N553" s="36"/>
     </row>
-    <row r="554" spans="1:14" ht="21">
+    <row r="554" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A554" s="54" t="s">
         <v>14</v>
       </c>
@@ -26513,7 +26513,7 @@
       </c>
       <c r="N554" s="36"/>
     </row>
-    <row r="555" spans="1:14" ht="21" customHeight="1">
+    <row r="555" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="54" t="s">
         <v>14</v>
       </c>
@@ -26553,7 +26553,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="556" spans="1:14" ht="21" customHeight="1">
+    <row r="556" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="54" t="s">
         <v>14</v>
       </c>
@@ -26593,7 +26593,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="557" spans="1:14" ht="21" customHeight="1">
+    <row r="557" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="54" t="s">
         <v>14</v>
       </c>
@@ -26633,7 +26633,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="558" spans="1:14" ht="22.5">
+    <row r="558" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A558" s="54" t="s">
         <v>14</v>
       </c>
@@ -26673,7 +26673,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="559" spans="1:14" ht="22.5">
+    <row r="559" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A559" s="54" t="s">
         <v>14</v>
       </c>
@@ -26713,7 +26713,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="560" spans="1:14" ht="22.5" customHeight="1">
+    <row r="560" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A560" s="138" t="s">
         <v>412</v>
       </c>
@@ -26757,7 +26757,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="561" spans="1:14" ht="22.5" customHeight="1">
+    <row r="561" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="138" t="s">
         <v>412</v>
       </c>
@@ -26801,7 +26801,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="562" spans="1:14" ht="22.5" customHeight="1">
+    <row r="562" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A562" s="138" t="s">
         <v>412</v>
       </c>
@@ -26845,7 +26845,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="563" spans="1:14" ht="22.5" customHeight="1">
+    <row r="563" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A563" s="138" t="s">
         <v>412</v>
       </c>
@@ -26889,7 +26889,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="564" spans="1:14" ht="22.5" customHeight="1">
+    <row r="564" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A564" s="138" t="s">
         <v>412</v>
       </c>
@@ -26931,7 +26931,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="565" spans="1:14" ht="22.5" customHeight="1">
+    <row r="565" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="138" t="s">
         <v>412</v>
       </c>
@@ -26973,7 +26973,7 @@
       </c>
       <c r="N565" s="36"/>
     </row>
-    <row r="566" spans="1:14" ht="22.5" customHeight="1">
+    <row r="566" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="138" t="s">
         <v>412</v>
       </c>
@@ -27015,7 +27015,7 @@
       </c>
       <c r="N566" s="36"/>
     </row>
-    <row r="567" spans="1:14" ht="22.5" customHeight="1">
+    <row r="567" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="138" t="s">
         <v>412</v>
       </c>
@@ -27057,7 +27057,7 @@
       </c>
       <c r="N567" s="36"/>
     </row>
-    <row r="568" spans="1:14" ht="22.5" customHeight="1">
+    <row r="568" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="138" t="s">
         <v>412</v>
       </c>
@@ -27099,7 +27099,7 @@
       </c>
       <c r="N568" s="36"/>
     </row>
-    <row r="569" spans="1:14" ht="22.5" customHeight="1">
+    <row r="569" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="138" t="s">
         <v>412</v>
       </c>
@@ -27141,7 +27141,7 @@
       </c>
       <c r="N569" s="36"/>
     </row>
-    <row r="570" spans="1:14" ht="22.5" customHeight="1">
+    <row r="570" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="138" t="s">
         <v>412</v>
       </c>
@@ -27183,7 +27183,7 @@
       </c>
       <c r="N570" s="36"/>
     </row>
-    <row r="571" spans="1:14" ht="22.5" customHeight="1">
+    <row r="571" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="138" t="s">
         <v>412</v>
       </c>
@@ -27225,7 +27225,7 @@
       </c>
       <c r="N571" s="36"/>
     </row>
-    <row r="572" spans="1:14" ht="22.5" customHeight="1">
+    <row r="572" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="138" t="s">
         <v>412</v>
       </c>
@@ -27267,7 +27267,7 @@
       </c>
       <c r="N572" s="36"/>
     </row>
-    <row r="573" spans="1:14" ht="22.5" customHeight="1">
+    <row r="573" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="138" t="s">
         <v>412</v>
       </c>
@@ -27309,7 +27309,7 @@
       </c>
       <c r="N573" s="36"/>
     </row>
-    <row r="574" spans="1:14" ht="22.5" customHeight="1">
+    <row r="574" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="138" t="s">
         <v>412</v>
       </c>
@@ -27351,7 +27351,7 @@
       </c>
       <c r="N574" s="36"/>
     </row>
-    <row r="575" spans="1:14" ht="22.5" customHeight="1">
+    <row r="575" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="138" t="s">
         <v>412</v>
       </c>
@@ -27393,7 +27393,7 @@
       </c>
       <c r="N575" s="36"/>
     </row>
-    <row r="576" spans="1:14" ht="22.5" customHeight="1">
+    <row r="576" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="138" t="s">
         <v>412</v>
       </c>
@@ -27435,7 +27435,7 @@
       </c>
       <c r="N576" s="36"/>
     </row>
-    <row r="577" spans="1:14" ht="22.5" customHeight="1">
+    <row r="577" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="138" t="s">
         <v>412</v>
       </c>
@@ -27477,7 +27477,7 @@
       </c>
       <c r="N577" s="36"/>
     </row>
-    <row r="578" spans="1:14" ht="22.5" customHeight="1">
+    <row r="578" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="138" t="s">
         <v>412</v>
       </c>
@@ -27519,7 +27519,7 @@
       </c>
       <c r="N578" s="36"/>
     </row>
-    <row r="579" spans="1:14" ht="22.5" customHeight="1">
+    <row r="579" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="138" t="s">
         <v>412</v>
       </c>
@@ -27561,7 +27561,7 @@
       </c>
       <c r="N579" s="36"/>
     </row>
-    <row r="580" spans="1:14" ht="22.5" customHeight="1">
+    <row r="580" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="138" t="s">
         <v>412</v>
       </c>
@@ -27603,7 +27603,7 @@
       </c>
       <c r="N580" s="36"/>
     </row>
-    <row r="581" spans="1:14" ht="22.5" customHeight="1">
+    <row r="581" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="138" t="s">
         <v>412</v>
       </c>
@@ -27645,7 +27645,7 @@
       </c>
       <c r="N581" s="36"/>
     </row>
-    <row r="582" spans="1:14" ht="22.5" customHeight="1">
+    <row r="582" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="138" t="s">
         <v>412</v>
       </c>
@@ -27687,7 +27687,7 @@
       </c>
       <c r="N582" s="36"/>
     </row>
-    <row r="583" spans="1:14" ht="22.5" customHeight="1">
+    <row r="583" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A583" s="138" t="s">
         <v>412</v>
       </c>
@@ -27729,7 +27729,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="584" spans="1:14" ht="22.5" customHeight="1">
+    <row r="584" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="138" t="s">
         <v>412</v>
       </c>
@@ -27771,7 +27771,7 @@
       </c>
       <c r="N584" s="36"/>
     </row>
-    <row r="585" spans="1:14" ht="22.5" customHeight="1">
+    <row r="585" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="138" t="s">
         <v>412</v>
       </c>
@@ -27813,7 +27813,7 @@
       </c>
       <c r="N585" s="36"/>
     </row>
-    <row r="586" spans="1:14" ht="22.5" customHeight="1">
+    <row r="586" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="138" t="s">
         <v>412</v>
       </c>
@@ -27855,7 +27855,7 @@
       </c>
       <c r="N586" s="36"/>
     </row>
-    <row r="587" spans="1:14" ht="22.5" customHeight="1">
+    <row r="587" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="138" t="s">
         <v>412</v>
       </c>
@@ -27897,7 +27897,7 @@
       </c>
       <c r="N587" s="36"/>
     </row>
-    <row r="588" spans="1:14" ht="22.5" customHeight="1">
+    <row r="588" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="138" t="s">
         <v>412</v>
       </c>
@@ -27939,7 +27939,7 @@
       </c>
       <c r="N588" s="36"/>
     </row>
-    <row r="589" spans="1:14" ht="22.5" customHeight="1">
+    <row r="589" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="138" t="s">
         <v>412</v>
       </c>
@@ -27981,7 +27981,7 @@
       </c>
       <c r="N589" s="36"/>
     </row>
-    <row r="590" spans="1:14" ht="22.5" customHeight="1">
+    <row r="590" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A590" s="138" t="s">
         <v>412</v>
       </c>
@@ -28025,7 +28025,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="591" spans="1:14" ht="22.5" customHeight="1">
+    <row r="591" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A591" s="138" t="s">
         <v>412</v>
       </c>
@@ -28069,7 +28069,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="592" spans="1:14" ht="22.5" customHeight="1">
+    <row r="592" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A592" s="138" t="s">
         <v>412</v>
       </c>
@@ -28113,7 +28113,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="593" spans="1:14" ht="22.5" customHeight="1">
+    <row r="593" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A593" s="138" t="s">
         <v>412</v>
       </c>
@@ -28157,7 +28157,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="594" spans="1:14" ht="22.5" customHeight="1">
+    <row r="594" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A594" s="138" t="s">
         <v>412</v>
       </c>
@@ -28199,7 +28199,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="595" spans="1:14" ht="22.5" customHeight="1">
+    <row r="595" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A595" s="138" t="s">
         <v>412</v>
       </c>
@@ -28243,7 +28243,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="596" spans="1:14" ht="22.5" customHeight="1">
+    <row r="596" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A596" s="138" t="s">
         <v>412</v>
       </c>
@@ -28287,7 +28287,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="597" spans="1:14" ht="22.5" customHeight="1">
+    <row r="597" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A597" s="138" t="s">
         <v>412</v>
       </c>
@@ -28331,7 +28331,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="598" spans="1:14" ht="22.5" customHeight="1">
+    <row r="598" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A598" s="138" t="s">
         <v>412</v>
       </c>
@@ -28375,7 +28375,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="599" spans="1:14" ht="22.5" customHeight="1">
+    <row r="599" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A599" s="138" t="s">
         <v>412</v>
       </c>
@@ -28419,7 +28419,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="600" spans="1:14" ht="22.5" customHeight="1">
+    <row r="600" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A600" s="138" t="s">
         <v>412</v>
       </c>
@@ -28463,7 +28463,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="601" spans="1:14" ht="22.5" customHeight="1">
+    <row r="601" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="138" t="s">
         <v>412</v>
       </c>
@@ -28507,7 +28507,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="602" spans="1:14" ht="22.5" customHeight="1">
+    <row r="602" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="138" t="s">
         <v>412</v>
       </c>
@@ -28549,7 +28549,7 @@
       </c>
       <c r="N602" s="36"/>
     </row>
-    <row r="603" spans="1:14" ht="22.5" customHeight="1">
+    <row r="603" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="138" t="s">
         <v>412</v>
       </c>
@@ -28591,7 +28591,7 @@
       </c>
       <c r="N603" s="36"/>
     </row>
-    <row r="604" spans="1:14" ht="22.5" customHeight="1">
+    <row r="604" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="138" t="s">
         <v>412</v>
       </c>
@@ -28633,7 +28633,7 @@
       </c>
       <c r="N604" s="36"/>
     </row>
-    <row r="605" spans="1:14" ht="22.5" customHeight="1">
+    <row r="605" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="138" t="s">
         <v>412</v>
       </c>
@@ -28675,7 +28675,7 @@
       </c>
       <c r="N605" s="36"/>
     </row>
-    <row r="606" spans="1:14" ht="22.5" customHeight="1">
+    <row r="606" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="138" t="s">
         <v>412</v>
       </c>
@@ -28717,7 +28717,7 @@
       </c>
       <c r="N606" s="36"/>
     </row>
-    <row r="607" spans="1:14" ht="22.5" customHeight="1">
+    <row r="607" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="138" t="s">
         <v>412</v>
       </c>
@@ -28759,7 +28759,7 @@
       </c>
       <c r="N607" s="36"/>
     </row>
-    <row r="608" spans="1:14" ht="22.5" customHeight="1">
+    <row r="608" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="138" t="s">
         <v>412</v>
       </c>
@@ -28803,7 +28803,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="609" spans="1:14" ht="22.5" customHeight="1">
+    <row r="609" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="138" t="s">
         <v>412</v>
       </c>
@@ -28847,7 +28847,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="610" spans="1:14" ht="22.5" customHeight="1">
+    <row r="610" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="138" t="s">
         <v>412</v>
       </c>
@@ -28889,7 +28889,7 @@
       </c>
       <c r="N610" s="39"/>
     </row>
-    <row r="611" spans="1:14" ht="22.5" customHeight="1">
+    <row r="611" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="138" t="s">
         <v>412</v>
       </c>
@@ -28931,7 +28931,7 @@
       </c>
       <c r="N611" s="36"/>
     </row>
-    <row r="612" spans="1:14" ht="22.5" customHeight="1">
+    <row r="612" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="138" t="s">
         <v>412</v>
       </c>
@@ -28973,7 +28973,7 @@
       </c>
       <c r="N612" s="39"/>
     </row>
-    <row r="613" spans="1:14" ht="22.5" customHeight="1">
+    <row r="613" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="138" t="s">
         <v>412</v>
       </c>
@@ -29015,7 +29015,7 @@
       </c>
       <c r="N613" s="39"/>
     </row>
-    <row r="614" spans="1:14" ht="22.5" customHeight="1">
+    <row r="614" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="138" t="s">
         <v>412</v>
       </c>
@@ -29057,7 +29057,7 @@
       </c>
       <c r="N614" s="39"/>
     </row>
-    <row r="615" spans="1:14" ht="22.5" customHeight="1">
+    <row r="615" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="138" t="s">
         <v>412</v>
       </c>
@@ -29099,7 +29099,7 @@
       </c>
       <c r="N615" s="39"/>
     </row>
-    <row r="616" spans="1:14" ht="22.5" customHeight="1">
+    <row r="616" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="138" t="s">
         <v>412</v>
       </c>
@@ -29143,7 +29143,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="617" spans="1:14" ht="22.5" customHeight="1">
+    <row r="617" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="138" t="s">
         <v>412</v>
       </c>
@@ -29185,7 +29185,7 @@
       </c>
       <c r="N617" s="36"/>
     </row>
-    <row r="618" spans="1:14" ht="22.5" customHeight="1">
+    <row r="618" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="138" t="s">
         <v>412</v>
       </c>
@@ -29227,7 +29227,7 @@
       </c>
       <c r="N618" s="36"/>
     </row>
-    <row r="619" spans="1:14" ht="22.5" customHeight="1">
+    <row r="619" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="138" t="s">
         <v>412</v>
       </c>
@@ -29269,7 +29269,7 @@
       </c>
       <c r="N619" s="39"/>
     </row>
-    <row r="620" spans="1:14" ht="22.5" customHeight="1">
+    <row r="620" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="138" t="s">
         <v>412</v>
       </c>
@@ -29311,7 +29311,7 @@
       </c>
       <c r="N620" s="39"/>
     </row>
-    <row r="621" spans="1:14" ht="22.5" customHeight="1">
+    <row r="621" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="138" t="s">
         <v>412</v>
       </c>
@@ -29353,7 +29353,7 @@
       </c>
       <c r="N621" s="36"/>
     </row>
-    <row r="622" spans="1:14" ht="22.5" customHeight="1">
+    <row r="622" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="138" t="s">
         <v>412</v>
       </c>
@@ -29395,7 +29395,7 @@
       </c>
       <c r="N622" s="36"/>
     </row>
-    <row r="623" spans="1:14" ht="22.5" customHeight="1">
+    <row r="623" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A623" s="138" t="s">
         <v>412</v>
       </c>
@@ -29439,7 +29439,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="624" spans="1:14" ht="22.5" customHeight="1">
+    <row r="624" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="138" t="s">
         <v>412</v>
       </c>
@@ -29481,7 +29481,7 @@
       </c>
       <c r="N624" s="36"/>
     </row>
-    <row r="625" spans="1:14" ht="22.5" customHeight="1">
+    <row r="625" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="138" t="s">
         <v>412</v>
       </c>
@@ -29523,7 +29523,7 @@
       </c>
       <c r="N625" s="36"/>
     </row>
-    <row r="626" spans="1:14" ht="22.5" customHeight="1">
+    <row r="626" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="138" t="s">
         <v>412</v>
       </c>
@@ -29565,7 +29565,7 @@
       </c>
       <c r="N626" s="36"/>
     </row>
-    <row r="627" spans="1:14" ht="22.5" customHeight="1">
+    <row r="627" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="138" t="s">
         <v>412</v>
       </c>
@@ -29607,7 +29607,7 @@
       </c>
       <c r="N627" s="36"/>
     </row>
-    <row r="628" spans="1:14" ht="22.5" customHeight="1">
+    <row r="628" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="138" t="s">
         <v>412</v>
       </c>
@@ -29649,7 +29649,7 @@
       </c>
       <c r="N628" s="36"/>
     </row>
-    <row r="629" spans="1:14" ht="22.5" customHeight="1">
+    <row r="629" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="138" t="s">
         <v>412</v>
       </c>
@@ -29691,7 +29691,7 @@
       </c>
       <c r="N629" s="36"/>
     </row>
-    <row r="630" spans="1:14" ht="22.5" customHeight="1">
+    <row r="630" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="138" t="s">
         <v>412</v>
       </c>
@@ -29735,7 +29735,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="631" spans="1:14" ht="22.5" customHeight="1">
+    <row r="631" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A631" s="138" t="s">
         <v>412</v>
       </c>
@@ -29779,7 +29779,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="632" spans="1:14" ht="22.5" customHeight="1">
+    <row r="632" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A632" s="138" t="s">
         <v>412</v>
       </c>
@@ -29823,7 +29823,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="633" spans="1:14" ht="22.5" customHeight="1">
+    <row r="633" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A633" s="138" t="s">
         <v>412</v>
       </c>
@@ -29867,7 +29867,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="634" spans="1:14" ht="22.5" customHeight="1">
+    <row r="634" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A634" s="138" t="s">
         <v>412</v>
       </c>
@@ -29911,7 +29911,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="635" spans="1:14" ht="22.5" customHeight="1">
+    <row r="635" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A635" s="138" t="s">
         <v>412</v>
       </c>
@@ -29955,7 +29955,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="636" spans="1:14" ht="22.5" customHeight="1">
+    <row r="636" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A636" s="138" t="s">
         <v>412</v>
       </c>
@@ -29997,7 +29997,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="637" spans="1:14" ht="22.5" customHeight="1">
+    <row r="637" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="138" t="s">
         <v>412</v>
       </c>
@@ -30041,7 +30041,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="638" spans="1:14" ht="22.5" customHeight="1">
+    <row r="638" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A638" s="138" t="s">
         <v>412</v>
       </c>
@@ -30085,7 +30085,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="639" spans="1:14" ht="22.5" customHeight="1">
+    <row r="639" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A639" s="138" t="s">
         <v>412</v>
       </c>
@@ -30127,7 +30127,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="640" spans="1:14" ht="22.5" customHeight="1">
+    <row r="640" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A640" s="138" t="s">
         <v>412</v>
       </c>
@@ -30171,7 +30171,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="641" spans="1:14" ht="22.5" customHeight="1">
+    <row r="641" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A641" s="138" t="s">
         <v>412</v>
       </c>
@@ -30215,7 +30215,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="642" spans="1:14" ht="22.5" customHeight="1">
+    <row r="642" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A642" s="138" t="s">
         <v>412</v>
       </c>
@@ -30259,7 +30259,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="643" spans="1:14" ht="22.5" customHeight="1">
+    <row r="643" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A643" s="138" t="s">
         <v>412</v>
       </c>
@@ -30303,7 +30303,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="644" spans="1:14" ht="22.5" customHeight="1">
+    <row r="644" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A644" s="138" t="s">
         <v>412</v>
       </c>
@@ -30347,7 +30347,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="645" spans="1:14" ht="22.5" customHeight="1">
+    <row r="645" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A645" s="138" t="s">
         <v>412</v>
       </c>
@@ -30391,7 +30391,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="646" spans="1:14" ht="22.5" customHeight="1">
+    <row r="646" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A646" s="138" t="s">
         <v>412</v>
       </c>
@@ -30433,7 +30433,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="647" spans="1:14" ht="22.5" customHeight="1">
+    <row r="647" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A647" s="138" t="s">
         <v>412</v>
       </c>
@@ -30477,7 +30477,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="648" spans="1:14" ht="22.5" customHeight="1">
+    <row r="648" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A648" s="138" t="s">
         <v>412</v>
       </c>
@@ -30521,7 +30521,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="649" spans="1:14" ht="22.5" customHeight="1">
+    <row r="649" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A649" s="138" t="s">
         <v>412</v>
       </c>
@@ -30565,7 +30565,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="650" spans="1:14" ht="22.5" customHeight="1">
+    <row r="650" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="138" t="s">
         <v>412</v>
       </c>
@@ -30609,7 +30609,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="651" spans="1:14" ht="22.5" customHeight="1">
+    <row r="651" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A651" s="138" t="s">
         <v>412</v>
       </c>
@@ -30653,7 +30653,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="652" spans="1:14" ht="22.5" customHeight="1">
+    <row r="652" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="138" t="s">
         <v>412</v>
       </c>
@@ -30697,7 +30697,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="653" spans="1:14" ht="22.5" customHeight="1">
+    <row r="653" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="138" t="s">
         <v>412</v>
       </c>
@@ -30739,7 +30739,7 @@
       </c>
       <c r="N653" s="36"/>
     </row>
-    <row r="654" spans="1:14" ht="22.5" customHeight="1">
+    <row r="654" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="138" t="s">
         <v>412</v>
       </c>
@@ -30781,7 +30781,7 @@
       </c>
       <c r="N654" s="36"/>
     </row>
-    <row r="655" spans="1:14" ht="22.5" customHeight="1">
+    <row r="655" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="138" t="s">
         <v>412</v>
       </c>
@@ -30823,7 +30823,7 @@
       </c>
       <c r="N655" s="36"/>
     </row>
-    <row r="656" spans="1:14" ht="22.5" customHeight="1">
+    <row r="656" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="138" t="s">
         <v>412</v>
       </c>
@@ -30865,7 +30865,7 @@
       </c>
       <c r="N656" s="36"/>
     </row>
-    <row r="657" spans="1:14" ht="22.5" customHeight="1">
+    <row r="657" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="138" t="s">
         <v>412</v>
       </c>
@@ -30907,7 +30907,7 @@
       </c>
       <c r="N657" s="36"/>
     </row>
-    <row r="658" spans="1:14" ht="22.5" customHeight="1">
+    <row r="658" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="138" t="s">
         <v>412</v>
       </c>
@@ -30949,7 +30949,7 @@
       </c>
       <c r="N658" s="36"/>
     </row>
-    <row r="659" spans="1:14" ht="22.5" customHeight="1">
+    <row r="659" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="138" t="s">
         <v>412</v>
       </c>
@@ -30993,7 +30993,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="660" spans="1:14" ht="22.5" customHeight="1">
+    <row r="660" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="138" t="s">
         <v>412</v>
       </c>
@@ -31037,7 +31037,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="661" spans="1:14" ht="22.5" customHeight="1">
+    <row r="661" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="138" t="s">
         <v>412</v>
       </c>
@@ -31079,7 +31079,7 @@
       </c>
       <c r="N661" s="36"/>
     </row>
-    <row r="662" spans="1:14" ht="22.5" customHeight="1">
+    <row r="662" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="138" t="s">
         <v>412</v>
       </c>
@@ -31121,7 +31121,7 @@
       </c>
       <c r="N662" s="36"/>
     </row>
-    <row r="663" spans="1:14" ht="22.5" customHeight="1">
+    <row r="663" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="138" t="s">
         <v>412</v>
       </c>
@@ -31163,7 +31163,7 @@
       </c>
       <c r="N663" s="36"/>
     </row>
-    <row r="664" spans="1:14" ht="22.5" customHeight="1">
+    <row r="664" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="138" t="s">
         <v>412</v>
       </c>
@@ -31205,7 +31205,7 @@
       </c>
       <c r="N664" s="36"/>
     </row>
-    <row r="665" spans="1:14" ht="22.5" customHeight="1">
+    <row r="665" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="138" t="s">
         <v>412</v>
       </c>
@@ -31247,7 +31247,7 @@
       </c>
       <c r="N665" s="36"/>
     </row>
-    <row r="666" spans="1:14" ht="22.5" customHeight="1">
+    <row r="666" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="138" t="s">
         <v>412</v>
       </c>
@@ -31289,7 +31289,7 @@
       </c>
       <c r="N666" s="36"/>
     </row>
-    <row r="667" spans="1:14" ht="22.5" customHeight="1">
+    <row r="667" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="138" t="s">
         <v>412</v>
       </c>
@@ -31333,7 +31333,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="668" spans="1:14" ht="22.5" customHeight="1">
+    <row r="668" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="138" t="s">
         <v>412</v>
       </c>
@@ -31375,7 +31375,7 @@
       </c>
       <c r="N668" s="36"/>
     </row>
-    <row r="669" spans="1:14" ht="22.5" customHeight="1">
+    <row r="669" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="138" t="s">
         <v>412</v>
       </c>
@@ -31417,7 +31417,7 @@
       </c>
       <c r="N669" s="36"/>
     </row>
-    <row r="670" spans="1:14" ht="22.5" customHeight="1">
+    <row r="670" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="138" t="s">
         <v>412</v>
       </c>
@@ -31459,7 +31459,7 @@
       </c>
       <c r="N670" s="36"/>
     </row>
-    <row r="671" spans="1:14" ht="22.5" customHeight="1">
+    <row r="671" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="138" t="s">
         <v>412</v>
       </c>
@@ -31501,7 +31501,7 @@
       </c>
       <c r="N671" s="36"/>
     </row>
-    <row r="672" spans="1:14" ht="22.5" customHeight="1">
+    <row r="672" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="138" t="s">
         <v>412</v>
       </c>
@@ -31543,7 +31543,7 @@
       </c>
       <c r="N672" s="36"/>
     </row>
-    <row r="673" spans="1:14" ht="22.5" customHeight="1">
+    <row r="673" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="138" t="s">
         <v>412</v>
       </c>
@@ -31585,7 +31585,7 @@
       </c>
       <c r="N673" s="36"/>
     </row>
-    <row r="674" spans="1:14" ht="22.5" customHeight="1">
+    <row r="674" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="138" t="s">
         <v>412</v>
       </c>
@@ -31629,7 +31629,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="675" spans="1:14" ht="22.5" customHeight="1">
+    <row r="675" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="138" t="s">
         <v>412</v>
       </c>
@@ -31671,7 +31671,7 @@
       </c>
       <c r="N675" s="36"/>
     </row>
-    <row r="676" spans="1:14" ht="22.5" customHeight="1">
+    <row r="676" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="138" t="s">
         <v>412</v>
       </c>
@@ -31713,7 +31713,7 @@
       </c>
       <c r="N676" s="36"/>
     </row>
-    <row r="677" spans="1:14" ht="22.5" customHeight="1">
+    <row r="677" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="138" t="s">
         <v>412</v>
       </c>
@@ -31755,7 +31755,7 @@
       </c>
       <c r="N677" s="36"/>
     </row>
-    <row r="678" spans="1:14" ht="22.5" customHeight="1">
+    <row r="678" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="138" t="s">
         <v>412</v>
       </c>
@@ -31797,7 +31797,7 @@
       </c>
       <c r="N678" s="36"/>
     </row>
-    <row r="679" spans="1:14" ht="22.5" customHeight="1">
+    <row r="679" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="138" t="s">
         <v>412</v>
       </c>
@@ -31839,7 +31839,7 @@
       </c>
       <c r="N679" s="36"/>
     </row>
-    <row r="680" spans="1:14" ht="22.5" customHeight="1">
+    <row r="680" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="138" t="s">
         <v>412</v>
       </c>
@@ -31881,7 +31881,7 @@
       </c>
       <c r="N680" s="36"/>
     </row>
-    <row r="681" spans="1:14" ht="22.5" customHeight="1">
+    <row r="681" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A681" s="138" t="s">
         <v>412</v>
       </c>
@@ -31925,7 +31925,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="682" spans="1:14" ht="22.5" customHeight="1">
+    <row r="682" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A682" s="138" t="s">
         <v>412</v>
       </c>
@@ -31969,7 +31969,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="683" spans="1:14" ht="22.5" customHeight="1">
+    <row r="683" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A683" s="138" t="s">
         <v>412</v>
       </c>
@@ -32013,7 +32013,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="684" spans="1:14" ht="22.5" customHeight="1">
+    <row r="684" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A684" s="138" t="s">
         <v>412</v>
       </c>
@@ -32055,7 +32055,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="685" spans="1:14" ht="22.5" customHeight="1">
+    <row r="685" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A685" s="138" t="s">
         <v>412</v>
       </c>
@@ -32099,7 +32099,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="686" spans="1:14" ht="22.5" customHeight="1">
+    <row r="686" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A686" s="138" t="s">
         <v>412</v>
       </c>
@@ -32143,7 +32143,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="687" spans="1:14" ht="22.5" customHeight="1">
+    <row r="687" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A687" s="138" t="s">
         <v>412</v>
       </c>
@@ -32187,7 +32187,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="688" spans="1:14" ht="22.5" customHeight="1">
+    <row r="688" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="138" t="s">
         <v>412</v>
       </c>
@@ -32229,7 +32229,7 @@
       </c>
       <c r="N688" s="36"/>
     </row>
-    <row r="689" spans="1:14" ht="22.5" customHeight="1">
+    <row r="689" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="138" t="s">
         <v>412</v>
       </c>
@@ -32271,7 +32271,7 @@
       </c>
       <c r="N689" s="36"/>
     </row>
-    <row r="690" spans="1:14" ht="22.5" customHeight="1">
+    <row r="690" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="138" t="s">
         <v>412</v>
       </c>
@@ -32313,7 +32313,7 @@
       </c>
       <c r="N690" s="67"/>
     </row>
-    <row r="691" spans="1:14" ht="22.5" customHeight="1">
+    <row r="691" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="138" t="s">
         <v>412</v>
       </c>
@@ -32355,7 +32355,7 @@
       </c>
       <c r="N691" s="36"/>
     </row>
-    <row r="692" spans="1:14" ht="22.5" customHeight="1">
+    <row r="692" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="138" t="s">
         <v>412</v>
       </c>
@@ -32397,7 +32397,7 @@
       </c>
       <c r="N692" s="36"/>
     </row>
-    <row r="693" spans="1:14" ht="22.5" customHeight="1">
+    <row r="693" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="138" t="s">
         <v>412</v>
       </c>
@@ -32439,7 +32439,7 @@
       </c>
       <c r="N693" s="36"/>
     </row>
-    <row r="694" spans="1:14" ht="22.5" customHeight="1">
+    <row r="694" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="138" t="s">
         <v>412</v>
       </c>
@@ -32481,7 +32481,7 @@
       </c>
       <c r="N694" s="36"/>
     </row>
-    <row r="695" spans="1:14" ht="22.5" customHeight="1">
+    <row r="695" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="138" t="s">
         <v>412</v>
       </c>
@@ -32523,7 +32523,7 @@
       </c>
       <c r="N695" s="36"/>
     </row>
-    <row r="696" spans="1:14" ht="22.5" customHeight="1">
+    <row r="696" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="138" t="s">
         <v>412</v>
       </c>
@@ -32565,7 +32565,7 @@
       </c>
       <c r="N696" s="36"/>
     </row>
-    <row r="697" spans="1:14" ht="22.5" customHeight="1">
+    <row r="697" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="138" t="s">
         <v>412</v>
       </c>
@@ -32607,7 +32607,7 @@
       </c>
       <c r="N697" s="36"/>
     </row>
-    <row r="698" spans="1:14" ht="22.5" customHeight="1">
+    <row r="698" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="138" t="s">
         <v>412</v>
       </c>
@@ -32649,7 +32649,7 @@
       </c>
       <c r="N698" s="36"/>
     </row>
-    <row r="699" spans="1:14" ht="22.5" customHeight="1">
+    <row r="699" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="138" t="s">
         <v>412</v>
       </c>
@@ -32691,7 +32691,7 @@
       </c>
       <c r="N699" s="36"/>
     </row>
-    <row r="700" spans="1:14" ht="22.5" customHeight="1">
+    <row r="700" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="138" t="s">
         <v>412</v>
       </c>
@@ -32733,7 +32733,7 @@
       </c>
       <c r="N700" s="36"/>
     </row>
-    <row r="701" spans="1:14" ht="22.5" customHeight="1">
+    <row r="701" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="138" t="s">
         <v>412</v>
       </c>
@@ -32775,7 +32775,7 @@
       </c>
       <c r="N701" s="36"/>
     </row>
-    <row r="702" spans="1:14" ht="22.5" customHeight="1">
+    <row r="702" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="138" t="s">
         <v>412</v>
       </c>
@@ -32817,7 +32817,7 @@
       </c>
       <c r="N702" s="36"/>
     </row>
-    <row r="703" spans="1:14" ht="22.5" customHeight="1">
+    <row r="703" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="138" t="s">
         <v>412</v>
       </c>
@@ -32859,7 +32859,7 @@
       </c>
       <c r="N703" s="36"/>
     </row>
-    <row r="704" spans="1:14" ht="22.5" customHeight="1">
+    <row r="704" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="138" t="s">
         <v>412</v>
       </c>
@@ -32901,7 +32901,7 @@
       </c>
       <c r="N704" s="36"/>
     </row>
-    <row r="705" spans="1:14" ht="22.5" customHeight="1">
+    <row r="705" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="138" t="s">
         <v>412</v>
       </c>
@@ -32943,7 +32943,7 @@
       </c>
       <c r="N705" s="36"/>
     </row>
-    <row r="706" spans="1:14" ht="22.5" customHeight="1">
+    <row r="706" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A706" s="138" t="s">
         <v>412</v>
       </c>
@@ -32985,7 +32985,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="707" spans="1:14" ht="22.5" customHeight="1">
+    <row r="707" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="138" t="s">
         <v>412</v>
       </c>
@@ -33027,7 +33027,7 @@
       </c>
       <c r="N707" s="36"/>
     </row>
-    <row r="708" spans="1:14" ht="22.5" customHeight="1">
+    <row r="708" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="138" t="s">
         <v>412</v>
       </c>
@@ -33069,7 +33069,7 @@
       </c>
       <c r="N708" s="36"/>
     </row>
-    <row r="709" spans="1:14" ht="22.5" customHeight="1">
+    <row r="709" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="138" t="s">
         <v>412</v>
       </c>
@@ -33111,7 +33111,7 @@
       </c>
       <c r="N709" s="36"/>
     </row>
-    <row r="710" spans="1:14" ht="22.5" customHeight="1">
+    <row r="710" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="138" t="s">
         <v>412</v>
       </c>
@@ -33153,7 +33153,7 @@
       </c>
       <c r="N710" s="36"/>
     </row>
-    <row r="711" spans="1:14" ht="22.5" customHeight="1">
+    <row r="711" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="138" t="s">
         <v>412</v>
       </c>
@@ -33195,7 +33195,7 @@
       </c>
       <c r="N711" s="36"/>
     </row>
-    <row r="712" spans="1:14" ht="22.5" customHeight="1">
+    <row r="712" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="138" t="s">
         <v>412</v>
       </c>
@@ -33237,7 +33237,7 @@
       </c>
       <c r="N712" s="36"/>
     </row>
-    <row r="713" spans="1:14" ht="22.5" customHeight="1">
+    <row r="713" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A713" s="138" t="s">
         <v>412</v>
       </c>
@@ -33281,7 +33281,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="714" spans="1:14" ht="22.5" customHeight="1">
+    <row r="714" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A714" s="138" t="s">
         <v>412</v>
       </c>
@@ -33325,7 +33325,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="715" spans="1:14" ht="22.5" customHeight="1">
+    <row r="715" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A715" s="138" t="s">
         <v>412</v>
       </c>
@@ -33369,7 +33369,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="716" spans="1:14" ht="22.5" customHeight="1">
+    <row r="716" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A716" s="138" t="s">
         <v>412</v>
       </c>
@@ -33411,7 +33411,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="717" spans="1:14" ht="22.5" customHeight="1">
+    <row r="717" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A717" s="138" t="s">
         <v>412</v>
       </c>
@@ -33455,7 +33455,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="718" spans="1:14" ht="22.5" customHeight="1">
+    <row r="718" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A718" s="138" t="s">
         <v>412</v>
       </c>
@@ -33499,7 +33499,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="719" spans="1:14" ht="22.5" customHeight="1">
+    <row r="719" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A719" s="138" t="s">
         <v>412</v>
       </c>
@@ -33543,7 +33543,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="720" spans="1:14" ht="22.5" customHeight="1">
+    <row r="720" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A720" s="138" t="s">
         <v>412</v>
       </c>
@@ -33587,7 +33587,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="721" spans="1:14" ht="22.5" customHeight="1">
+    <row r="721" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A721" s="138" t="s">
         <v>412</v>
       </c>
@@ -33631,7 +33631,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="722" spans="1:14" ht="22.5" customHeight="1">
+    <row r="722" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A722" s="138" t="s">
         <v>412</v>
       </c>
@@ -33675,7 +33675,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="723" spans="1:14" ht="22.5" customHeight="1">
+    <row r="723" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="138" t="s">
         <v>412</v>
       </c>
@@ -33717,7 +33717,7 @@
       </c>
       <c r="N723" s="36"/>
     </row>
-    <row r="724" spans="1:14" ht="22.5" customHeight="1">
+    <row r="724" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="138" t="s">
         <v>412</v>
       </c>
@@ -33759,7 +33759,7 @@
       </c>
       <c r="N724" s="36"/>
     </row>
-    <row r="725" spans="1:14" ht="22.5" customHeight="1">
+    <row r="725" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="138" t="s">
         <v>412</v>
       </c>
@@ -33801,7 +33801,7 @@
       </c>
       <c r="N725" s="36"/>
     </row>
-    <row r="726" spans="1:14" ht="22.5" customHeight="1">
+    <row r="726" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="138" t="s">
         <v>412</v>
       </c>
@@ -33843,7 +33843,7 @@
       </c>
       <c r="N726" s="36"/>
     </row>
-    <row r="727" spans="1:14" ht="22.5" customHeight="1">
+    <row r="727" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="138" t="s">
         <v>412</v>
       </c>
@@ -33885,7 +33885,7 @@
       </c>
       <c r="N727" s="36"/>
     </row>
-    <row r="728" spans="1:14" ht="22.5" customHeight="1">
+    <row r="728" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="138" t="s">
         <v>412</v>
       </c>
@@ -33927,7 +33927,7 @@
       </c>
       <c r="N728" s="36"/>
     </row>
-    <row r="729" spans="1:14" ht="22.5" customHeight="1">
+    <row r="729" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A729" s="138" t="s">
         <v>412</v>
       </c>
@@ -33971,7 +33971,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="730" spans="1:14" ht="22.5" customHeight="1">
+    <row r="730" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A730" s="138" t="s">
         <v>412</v>
       </c>
@@ -34015,7 +34015,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="731" spans="1:14" ht="22.5" customHeight="1">
+    <row r="731" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="138" t="s">
         <v>412</v>
       </c>
@@ -34057,7 +34057,7 @@
       </c>
       <c r="N731" s="36"/>
     </row>
-    <row r="732" spans="1:14" ht="22.5" customHeight="1">
+    <row r="732" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="138" t="s">
         <v>412</v>
       </c>
@@ -34099,7 +34099,7 @@
       </c>
       <c r="N732" s="36"/>
     </row>
-    <row r="733" spans="1:14" ht="22.5" customHeight="1">
+    <row r="733" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="138" t="s">
         <v>412</v>
       </c>
@@ -34141,7 +34141,7 @@
       </c>
       <c r="N733" s="36"/>
     </row>
-    <row r="734" spans="1:14" ht="22.5" customHeight="1">
+    <row r="734" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="138" t="s">
         <v>412</v>
       </c>
@@ -34183,7 +34183,7 @@
       </c>
       <c r="N734" s="36"/>
     </row>
-    <row r="735" spans="1:14" ht="22.5" customHeight="1">
+    <row r="735" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="138" t="s">
         <v>412</v>
       </c>
@@ -34225,7 +34225,7 @@
       </c>
       <c r="N735" s="36"/>
     </row>
-    <row r="736" spans="1:14" ht="22.5" customHeight="1">
+    <row r="736" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="138" t="s">
         <v>412</v>
       </c>
@@ -34267,7 +34267,7 @@
       </c>
       <c r="N736" s="36"/>
     </row>
-    <row r="737" spans="1:14" ht="22.5" customHeight="1">
+    <row r="737" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A737" s="138" t="s">
         <v>412</v>
       </c>
@@ -34311,7 +34311,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="738" spans="1:14" ht="22.5" customHeight="1">
+    <row r="738" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="138" t="s">
         <v>412</v>
       </c>
@@ -34353,7 +34353,7 @@
       </c>
       <c r="N738" s="36"/>
     </row>
-    <row r="739" spans="1:14" ht="22.5" customHeight="1">
+    <row r="739" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="138" t="s">
         <v>412</v>
       </c>
@@ -34395,7 +34395,7 @@
       </c>
       <c r="N739" s="36"/>
     </row>
-    <row r="740" spans="1:14" ht="22.5" customHeight="1">
+    <row r="740" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="138" t="s">
         <v>412</v>
       </c>
@@ -34437,7 +34437,7 @@
       </c>
       <c r="N740" s="36"/>
     </row>
-    <row r="741" spans="1:14" ht="22.5" customHeight="1">
+    <row r="741" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="138" t="s">
         <v>412</v>
       </c>
@@ -34479,7 +34479,7 @@
       </c>
       <c r="N741" s="36"/>
     </row>
-    <row r="742" spans="1:14" ht="22.5" customHeight="1">
+    <row r="742" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="138" t="s">
         <v>412</v>
       </c>
@@ -34521,7 +34521,7 @@
       </c>
       <c r="N742" s="36"/>
     </row>
-    <row r="743" spans="1:14" ht="22.5" customHeight="1">
+    <row r="743" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="138" t="s">
         <v>412</v>
       </c>
@@ -34563,7 +34563,7 @@
       </c>
       <c r="N743" s="36"/>
     </row>
-    <row r="744" spans="1:14" ht="22.5" customHeight="1">
+    <row r="744" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A744" s="138" t="s">
         <v>412</v>
       </c>
@@ -34607,7 +34607,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="745" spans="1:14" ht="22.5" customHeight="1">
+    <row r="745" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="138" t="s">
         <v>412</v>
       </c>
@@ -34649,7 +34649,7 @@
       </c>
       <c r="N745" s="36"/>
     </row>
-    <row r="746" spans="1:14" ht="22.5" customHeight="1">
+    <row r="746" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="138" t="s">
         <v>412</v>
       </c>
@@ -34691,7 +34691,7 @@
       </c>
       <c r="N746" s="36"/>
     </row>
-    <row r="747" spans="1:14" ht="22.5" customHeight="1">
+    <row r="747" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="138" t="s">
         <v>412</v>
       </c>
@@ -34733,7 +34733,7 @@
       </c>
       <c r="N747" s="67"/>
     </row>
-    <row r="748" spans="1:14" ht="22.5" customHeight="1">
+    <row r="748" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="138" t="s">
         <v>412</v>
       </c>
@@ -34775,7 +34775,7 @@
       </c>
       <c r="N748" s="36"/>
     </row>
-    <row r="749" spans="1:14" ht="22.5" customHeight="1">
+    <row r="749" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="138" t="s">
         <v>412</v>
       </c>
@@ -34817,7 +34817,7 @@
       </c>
       <c r="N749" s="36"/>
     </row>
-    <row r="750" spans="1:14" ht="22.5" customHeight="1">
+    <row r="750" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="138" t="s">
         <v>412</v>
       </c>
@@ -34859,7 +34859,7 @@
       </c>
       <c r="N750" s="36"/>
     </row>
-    <row r="751" spans="1:14" ht="22.5" customHeight="1">
+    <row r="751" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A751" s="138" t="s">
         <v>412</v>
       </c>
@@ -34903,7 +34903,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="752" spans="1:14" ht="22.5" customHeight="1">
+    <row r="752" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A752" s="138" t="s">
         <v>412</v>
       </c>
@@ -34947,7 +34947,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="753" spans="1:14" ht="22.5" customHeight="1">
+    <row r="753" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A753" s="138" t="s">
         <v>412</v>
       </c>
@@ -34991,7 +34991,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="754" spans="1:14" ht="22.5" customHeight="1">
+    <row r="754" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A754" s="138" t="s">
         <v>412</v>
       </c>
@@ -35033,7 +35033,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="755" spans="1:14" ht="22.5" customHeight="1">
+    <row r="755" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A755" s="138" t="s">
         <v>412</v>
       </c>
@@ -35077,7 +35077,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="756" spans="1:14" ht="22.5" customHeight="1">
+    <row r="756" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A756" s="138" t="s">
         <v>412</v>
       </c>
@@ -35121,7 +35121,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="757" spans="1:14" ht="22.5" customHeight="1">
+    <row r="757" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A757" s="138" t="s">
         <v>412</v>
       </c>
@@ -35165,7 +35165,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="758" spans="1:14" ht="22.5" customHeight="1">
+    <row r="758" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A758" s="138" t="s">
         <v>412</v>
       </c>
@@ -35209,7 +35209,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="759" spans="1:14" ht="22.5" customHeight="1">
+    <row r="759" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A759" s="138" t="s">
         <v>412</v>
       </c>
@@ -35253,7 +35253,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="760" spans="1:14" ht="22.5" customHeight="1">
+    <row r="760" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A760" s="138" t="s">
         <v>412</v>
       </c>
@@ -35297,7 +35297,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="761" spans="1:14" ht="22.5" customHeight="1">
+    <row r="761" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A761" s="138" t="s">
         <v>412</v>
       </c>
@@ -35341,7 +35341,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="762" spans="1:14" ht="22.5" customHeight="1">
+    <row r="762" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A762" s="138" t="s">
         <v>412</v>
       </c>
@@ -35385,7 +35385,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="763" spans="1:14" ht="22.5" customHeight="1">
+    <row r="763" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A763" s="138" t="s">
         <v>412</v>
       </c>
@@ -35429,7 +35429,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="764" spans="1:14" ht="22.5" customHeight="1">
+    <row r="764" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A764" s="138" t="s">
         <v>412</v>
       </c>
@@ -35473,7 +35473,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="765" spans="1:14" ht="22.5" customHeight="1">
+    <row r="765" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A765" s="138" t="s">
         <v>412</v>
       </c>
@@ -35517,7 +35517,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="766" spans="1:14" ht="22.5" customHeight="1">
+    <row r="766" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A766" s="138" t="s">
         <v>412</v>
       </c>
@@ -35561,7 +35561,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="767" spans="1:14" ht="22.5" customHeight="1">
+    <row r="767" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A767" s="138" t="s">
         <v>412</v>
       </c>
@@ -35605,7 +35605,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="768" spans="1:14" ht="22.5" customHeight="1">
+    <row r="768" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A768" s="138" t="s">
         <v>412</v>
       </c>
@@ -35647,7 +35647,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="769" spans="1:14" ht="22.5" customHeight="1">
+    <row r="769" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A769" s="138" t="s">
         <v>412</v>
       </c>
@@ -35691,7 +35691,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="770" spans="1:14" ht="22.5" customHeight="1">
+    <row r="770" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A770" s="138" t="s">
         <v>412</v>
       </c>
@@ -35735,7 +35735,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="771" spans="1:14" ht="22.5" customHeight="1">
+    <row r="771" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A771" s="138" t="s">
         <v>412</v>
       </c>
@@ -35779,7 +35779,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="772" spans="1:14" ht="22.5" customHeight="1">
+    <row r="772" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A772" s="138" t="s">
         <v>412</v>
       </c>
@@ -35821,7 +35821,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="773" spans="1:14" ht="22.5" customHeight="1">
+    <row r="773" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A773" s="138" t="s">
         <v>412</v>
       </c>
@@ -35865,7 +35865,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="774" spans="1:14" ht="22.5" customHeight="1">
+    <row r="774" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A774" s="138" t="s">
         <v>412</v>
       </c>
@@ -35909,7 +35909,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="775" spans="1:14" ht="22.5" customHeight="1">
+    <row r="775" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="138" t="s">
         <v>412</v>
       </c>
@@ -35951,7 +35951,7 @@
       </c>
       <c r="N775" s="36"/>
     </row>
-    <row r="776" spans="1:14" ht="22.5" customHeight="1">
+    <row r="776" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="138" t="s">
         <v>412</v>
       </c>
@@ -35993,7 +35993,7 @@
       </c>
       <c r="N776" s="36"/>
     </row>
-    <row r="777" spans="1:14" ht="22.5" customHeight="1">
+    <row r="777" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="138" t="s">
         <v>412</v>
       </c>
@@ -36035,7 +36035,7 @@
       </c>
       <c r="N777" s="67"/>
     </row>
-    <row r="778" spans="1:14" ht="22.5" customHeight="1">
+    <row r="778" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="138" t="s">
         <v>412</v>
       </c>
@@ -36077,7 +36077,7 @@
       </c>
       <c r="N778" s="36"/>
     </row>
-    <row r="779" spans="1:14" ht="22.5" customHeight="1">
+    <row r="779" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="138" t="s">
         <v>412</v>
       </c>
@@ -36119,7 +36119,7 @@
       </c>
       <c r="N779" s="36"/>
     </row>
-    <row r="780" spans="1:14" ht="22.5" customHeight="1">
+    <row r="780" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="138" t="s">
         <v>412</v>
       </c>
@@ -36161,7 +36161,7 @@
       </c>
       <c r="N780" s="36"/>
     </row>
-    <row r="781" spans="1:14" ht="22.5" customHeight="1">
+    <row r="781" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A781" s="138" t="s">
         <v>412</v>
       </c>
@@ -36205,7 +36205,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="782" spans="1:14" ht="22.5" customHeight="1">
+    <row r="782" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A782" s="138" t="s">
         <v>412</v>
       </c>
@@ -36249,7 +36249,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="783" spans="1:14" ht="22.5" customHeight="1">
+    <row r="783" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="138" t="s">
         <v>412</v>
       </c>
@@ -36291,7 +36291,7 @@
       </c>
       <c r="N783" s="36"/>
     </row>
-    <row r="784" spans="1:14" ht="22.5" customHeight="1">
+    <row r="784" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="138" t="s">
         <v>412</v>
       </c>
@@ -36333,7 +36333,7 @@
       </c>
       <c r="N784" s="36"/>
     </row>
-    <row r="785" spans="1:14" ht="22.5" customHeight="1">
+    <row r="785" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="138" t="s">
         <v>412</v>
       </c>
@@ -36375,7 +36375,7 @@
       </c>
       <c r="N785" s="36"/>
     </row>
-    <row r="786" spans="1:14" ht="22.5" customHeight="1">
+    <row r="786" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="138" t="s">
         <v>412</v>
       </c>
@@ -36417,7 +36417,7 @@
       </c>
       <c r="N786" s="36"/>
     </row>
-    <row r="787" spans="1:14" ht="22.5" customHeight="1">
+    <row r="787" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="138" t="s">
         <v>412</v>
       </c>
@@ -36459,7 +36459,7 @@
       </c>
       <c r="N787" s="36"/>
     </row>
-    <row r="788" spans="1:14" ht="22.5" customHeight="1">
+    <row r="788" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="138" t="s">
         <v>412</v>
       </c>
@@ -36501,7 +36501,7 @@
       </c>
       <c r="N788" s="36"/>
     </row>
-    <row r="789" spans="1:14" ht="22.5" customHeight="1">
+    <row r="789" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A789" s="138" t="s">
         <v>412</v>
       </c>
@@ -36545,7 +36545,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="790" spans="1:14" ht="22.5" customHeight="1">
+    <row r="790" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="138" t="s">
         <v>412</v>
       </c>
@@ -36587,7 +36587,7 @@
       </c>
       <c r="N790" s="36"/>
     </row>
-    <row r="791" spans="1:14" ht="22.5" customHeight="1">
+    <row r="791" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="138" t="s">
         <v>412</v>
       </c>
@@ -36629,7 +36629,7 @@
       </c>
       <c r="N791" s="36"/>
     </row>
-    <row r="792" spans="1:14" ht="22.5" customHeight="1">
+    <row r="792" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="138" t="s">
         <v>412</v>
       </c>
@@ -36671,7 +36671,7 @@
       </c>
       <c r="N792" s="36"/>
     </row>
-    <row r="793" spans="1:14" ht="22.5" customHeight="1">
+    <row r="793" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="138" t="s">
         <v>412</v>
       </c>
@@ -36713,7 +36713,7 @@
       </c>
       <c r="N793" s="36"/>
     </row>
-    <row r="794" spans="1:14" ht="22.5" customHeight="1">
+    <row r="794" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="138" t="s">
         <v>412</v>
       </c>
@@ -36727,7 +36727,7 @@
         <v>127</v>
       </c>
       <c r="E794" s="15">
-        <v>45275</v>
+        <v>45040</v>
       </c>
       <c r="F794" s="16">
         <v>0.54166666666666663</v>
@@ -36755,7 +36755,7 @@
       </c>
       <c r="N794" s="36"/>
     </row>
-    <row r="795" spans="1:14" ht="22.5" customHeight="1">
+    <row r="795" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="138" t="s">
         <v>412</v>
       </c>
@@ -36769,7 +36769,7 @@
         <v>127</v>
       </c>
       <c r="E795" s="15">
-        <v>45275</v>
+        <v>45040</v>
       </c>
       <c r="F795" s="16">
         <v>0.54166666666666663</v>
@@ -36797,7 +36797,7 @@
       </c>
       <c r="N795" s="36"/>
     </row>
-    <row r="796" spans="1:14" ht="22.5" customHeight="1">
+    <row r="796" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="138" t="s">
         <v>412</v>
       </c>
@@ -36811,7 +36811,7 @@
         <v>127</v>
       </c>
       <c r="E796" s="15">
-        <v>45275</v>
+        <v>45040</v>
       </c>
       <c r="F796" s="16">
         <v>0.58333333333333337</v>
@@ -36819,8 +36819,8 @@
       <c r="G796" s="16">
         <v>0.70833333333333404</v>
       </c>
-      <c r="H796" s="1" t="s">
-        <v>81</v>
+      <c r="H796" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="I796" s="91" t="s">
         <v>122</v>
@@ -36841,7 +36841,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="797" spans="1:14" ht="22.5" customHeight="1">
+    <row r="797" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="138" t="s">
         <v>412</v>
       </c>
@@ -36855,7 +36855,7 @@
         <v>127</v>
       </c>
       <c r="E797" s="15">
-        <v>45275</v>
+        <v>45407</v>
       </c>
       <c r="F797" s="16">
         <v>0.625</v>
@@ -36864,7 +36864,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="H797" s="6" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I797" s="14" t="s">
         <v>49</v>
@@ -36883,7 +36883,7 @@
       </c>
       <c r="N797" s="36"/>
     </row>
-    <row r="798" spans="1:14" ht="22.5" customHeight="1">
+    <row r="798" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="138" t="s">
         <v>412</v>
       </c>
@@ -36897,7 +36897,7 @@
         <v>127</v>
       </c>
       <c r="E798" s="15">
-        <v>45275</v>
+        <v>45407</v>
       </c>
       <c r="F798" s="16">
         <v>0.625</v>
@@ -36906,7 +36906,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="H798" s="6" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I798" s="14" t="s">
         <v>55</v>
@@ -36925,7 +36925,7 @@
       </c>
       <c r="N798" s="36"/>
     </row>
-    <row r="799" spans="1:14" ht="22.5" customHeight="1">
+    <row r="799" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="138" t="s">
         <v>412</v>
       </c>
@@ -36939,7 +36939,7 @@
         <v>127</v>
       </c>
       <c r="E799" s="15">
-        <v>45275</v>
+        <v>45407</v>
       </c>
       <c r="F799" s="16">
         <v>0.625</v>
@@ -36948,7 +36948,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="H799" s="6" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I799" s="14" t="s">
         <v>57</v>
@@ -36967,7 +36967,7 @@
       </c>
       <c r="N799" s="36"/>
     </row>
-    <row r="800" spans="1:14" ht="22.5" customHeight="1">
+    <row r="800" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="138" t="s">
         <v>412</v>
       </c>
@@ -36981,7 +36981,7 @@
         <v>127</v>
       </c>
       <c r="E800" s="15">
-        <v>45275</v>
+        <v>45407</v>
       </c>
       <c r="F800" s="16">
         <v>0.625</v>
@@ -36990,7 +36990,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="H800" s="6" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I800" s="14" t="s">
         <v>59</v>
@@ -37009,7 +37009,7 @@
       </c>
       <c r="N800" s="36"/>
     </row>
-    <row r="801" spans="1:14" ht="22.5" customHeight="1">
+    <row r="801" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="138" t="s">
         <v>412</v>
       </c>
@@ -37023,7 +37023,7 @@
         <v>127</v>
       </c>
       <c r="E801" s="15">
-        <v>45275</v>
+        <v>45408</v>
       </c>
       <c r="F801" s="16">
         <v>0.625</v>
@@ -37032,7 +37032,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="H801" s="6" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I801" s="14" t="s">
         <v>61</v>
@@ -37051,7 +37051,7 @@
       </c>
       <c r="N801" s="36"/>
     </row>
-    <row r="802" spans="1:14" ht="22.5" customHeight="1">
+    <row r="802" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="138" t="s">
         <v>412</v>
       </c>
@@ -37065,7 +37065,7 @@
         <v>127</v>
       </c>
       <c r="E802" s="15">
-        <v>45275</v>
+        <v>45408</v>
       </c>
       <c r="F802" s="16">
         <v>0.625</v>
@@ -37074,7 +37074,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="H802" s="6" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I802" s="14" t="s">
         <v>63</v>
@@ -37325,13 +37325,38 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFC73EDA-6B2F-4B5B-858E-6AD4B6E182A8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFC73EDA-6B2F-4B5B-858E-6AD4B6E182A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D336B7E-CD9A-40DA-B016-D0811386B08E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D336B7E-CD9A-40DA-B016-D0811386B08E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1f086a82-432d-45e9-9ca6-8ca760156e0b"/>
+    <ds:schemaRef ds:uri="d111bada-3e6f-4186-af72-321f17a92816"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{836137F5-2A5A-4F0D-935E-C8DB69844C45}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{836137F5-2A5A-4F0D-935E-C8DB69844C45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d111bada-3e6f-4186-af72-321f17a92816"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Year2_GERR_Timetable.xlsx
+++ b/Year2_GERR_Timetable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3057234\OneDrive - Queen's University Belfast\Documents\timetable-web-application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44381C42-D457-44A3-B2F8-536ACCA85370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15296B45-1D9B-4CBF-9860-4D36A68BA7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24 Week Timetable" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6770" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6770" uniqueCount="496">
   <si>
     <t>Unit</t>
   </si>
@@ -1523,6 +1523,15 @@
   </si>
   <si>
     <t>Dural sinuses and ventricular system</t>
+  </si>
+  <si>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>A03</t>
   </si>
 </sst>
 </file>
@@ -2683,8 +2692,8 @@
   </sheetPr>
   <dimension ref="A1:AW802"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A795" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H796" sqref="H796"/>
+    <sheetView tabSelected="1" topLeftCell="A785" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H801" sqref="H801"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="50.15" customHeight="1" x14ac:dyDescent="0.5"/>
@@ -36685,7 +36694,7 @@
         <v>127</v>
       </c>
       <c r="E793" s="15">
-        <v>45275</v>
+        <v>45410</v>
       </c>
       <c r="F793" s="16">
         <v>0.54166666666666663</v>
@@ -36727,7 +36736,7 @@
         <v>127</v>
       </c>
       <c r="E794" s="15">
-        <v>45040</v>
+        <v>45410</v>
       </c>
       <c r="F794" s="16">
         <v>0.54166666666666663</v>
@@ -36769,7 +36778,7 @@
         <v>127</v>
       </c>
       <c r="E795" s="15">
-        <v>45040</v>
+        <v>45410</v>
       </c>
       <c r="F795" s="16">
         <v>0.54166666666666663</v>
@@ -36811,7 +36820,7 @@
         <v>127</v>
       </c>
       <c r="E796" s="15">
-        <v>45040</v>
+        <v>45410</v>
       </c>
       <c r="F796" s="16">
         <v>0.58333333333333337</v>
@@ -36855,7 +36864,7 @@
         <v>127</v>
       </c>
       <c r="E797" s="15">
-        <v>45407</v>
+        <v>45410</v>
       </c>
       <c r="F797" s="16">
         <v>0.625</v>
@@ -36897,7 +36906,7 @@
         <v>127</v>
       </c>
       <c r="E798" s="15">
-        <v>45407</v>
+        <v>45411</v>
       </c>
       <c r="F798" s="16">
         <v>0.625</v>
@@ -36939,7 +36948,7 @@
         <v>127</v>
       </c>
       <c r="E799" s="15">
-        <v>45407</v>
+        <v>45411</v>
       </c>
       <c r="F799" s="16">
         <v>0.625</v>
@@ -36990,7 +36999,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="H800" s="6" t="s">
-        <v>16</v>
+        <v>495</v>
       </c>
       <c r="I800" s="14" t="s">
         <v>59</v>
@@ -37023,7 +37032,7 @@
         <v>127</v>
       </c>
       <c r="E801" s="15">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="F801" s="16">
         <v>0.625</v>
@@ -37032,7 +37041,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="H801" s="6" t="s">
-        <v>16</v>
+        <v>494</v>
       </c>
       <c r="I801" s="14" t="s">
         <v>61</v>
@@ -37065,7 +37074,7 @@
         <v>127</v>
       </c>
       <c r="E802" s="15">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="F802" s="16">
         <v>0.625</v>
@@ -37074,7 +37083,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="H802" s="6" t="s">
-        <v>16</v>
+        <v>493</v>
       </c>
       <c r="I802" s="14" t="s">
         <v>63</v>

--- a/Year2_GERR_Timetable.xlsx
+++ b/Year2_GERR_Timetable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3057234\OneDrive - Queen's University Belfast\Documents\timetable-web-application\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://qubstudentcloud-my.sharepoint.com/personal/3057234_ads_qub_ac_uk/Documents/Documents/timetable_web_application-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15296B45-1D9B-4CBF-9860-4D36A68BA7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{15296B45-1D9B-4CBF-9860-4D36A68BA7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90DACB44-8828-4218-AAC2-90FEA2A8CFD6}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24 Week Timetable" sheetId="1" r:id="rId1"/>
@@ -2423,6 +2423,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2692,30 +2696,30 @@
   </sheetPr>
   <dimension ref="A1:AW802"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A785" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H801" sqref="H801"/>
+    <sheetView tabSelected="1" topLeftCell="A778" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G801" sqref="G801"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="50.15" customHeight="1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.54296875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="9.26953125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="7.7265625" style="86" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="13.26953125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="11.54296875" style="12" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" style="9" customWidth="1"/>
-    <col min="9" max="9" width="17.7265625" style="79" customWidth="1"/>
-    <col min="10" max="10" width="16.54296875" style="7" customWidth="1"/>
-    <col min="11" max="11" width="20.453125" style="7" customWidth="1"/>
-    <col min="12" max="12" width="20.54296875" style="7" customWidth="1"/>
-    <col min="13" max="13" width="34.7265625" style="10" customWidth="1"/>
-    <col min="14" max="14" width="26.54296875" style="11" customWidth="1"/>
-    <col min="15" max="16384" width="8.54296875" style="7"/>
+    <col min="1" max="1" width="6.5703125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="86" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" style="79" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="34.7109375" style="10" customWidth="1"/>
+    <col min="14" max="14" width="26.5703125" style="11" customWidth="1"/>
+    <col min="15" max="16384" width="8.5703125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
@@ -2773,7 +2777,7 @@
         <v>15</v>
       </c>
       <c r="E2" s="46">
-        <v>45187</v>
+        <v>45413</v>
       </c>
       <c r="F2" s="16">
         <v>0.4375</v>
@@ -2815,7 +2819,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="46">
-        <v>45187</v>
+        <v>45413</v>
       </c>
       <c r="F3" s="16">
         <v>0.58333333333333337</v>
@@ -2859,7 +2863,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="46">
-        <v>45187</v>
+        <v>45413</v>
       </c>
       <c r="F4" s="16">
         <v>0.625</v>
@@ -2889,7 +2893,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A5" s="54" t="s">
         <v>14</v>
       </c>
@@ -2903,7 +2907,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="46">
-        <v>45187</v>
+        <v>45413</v>
       </c>
       <c r="F5" s="16">
         <v>0.66666666666666663</v>
@@ -2947,7 +2951,7 @@
         <v>36</v>
       </c>
       <c r="E6" s="46">
-        <v>45188</v>
+        <v>45413</v>
       </c>
       <c r="F6" s="16">
         <v>0.375</v>
@@ -2991,7 +2995,7 @@
         <v>36</v>
       </c>
       <c r="E7" s="46">
-        <v>45188</v>
+        <v>45413</v>
       </c>
       <c r="F7" s="16">
         <v>0.375</v>
@@ -3021,7 +3025,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A8" s="54" t="s">
         <v>14</v>
       </c>
@@ -3035,7 +3039,7 @@
         <v>36</v>
       </c>
       <c r="E8" s="46">
-        <v>45188</v>
+        <v>45413</v>
       </c>
       <c r="F8" s="16">
         <v>0.375</v>
@@ -3063,7 +3067,7 @@
       </c>
       <c r="N8" s="36"/>
     </row>
-    <row r="9" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A9" s="54" t="s">
         <v>14</v>
       </c>
@@ -3077,7 +3081,7 @@
         <v>36</v>
       </c>
       <c r="E9" s="46">
-        <v>45188</v>
+        <v>45413</v>
       </c>
       <c r="F9" s="16">
         <v>0.375</v>
@@ -3105,7 +3109,7 @@
       </c>
       <c r="N9" s="36"/>
     </row>
-    <row r="10" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A10" s="54" t="s">
         <v>14</v>
       </c>
@@ -3147,7 +3151,7 @@
       </c>
       <c r="N10" s="36"/>
     </row>
-    <row r="11" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A11" s="54" t="s">
         <v>14</v>
       </c>
@@ -3189,7 +3193,7 @@
       </c>
       <c r="N11" s="36"/>
     </row>
-    <row r="12" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A12" s="54" t="s">
         <v>14</v>
       </c>
@@ -3231,7 +3235,7 @@
       </c>
       <c r="N12" s="36"/>
     </row>
-    <row r="13" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A13" s="54" t="s">
         <v>14</v>
       </c>
@@ -3273,7 +3277,7 @@
       </c>
       <c r="N13" s="36"/>
     </row>
-    <row r="14" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A14" s="54" t="s">
         <v>14</v>
       </c>
@@ -3525,7 +3529,7 @@
       </c>
       <c r="N19" s="36"/>
     </row>
-    <row r="20" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A20" s="54" t="s">
         <v>14</v>
       </c>
@@ -3569,7 +3573,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A21" s="54" t="s">
         <v>14</v>
       </c>
@@ -3611,7 +3615,7 @@
       </c>
       <c r="N21" s="36"/>
     </row>
-    <row r="22" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A22" s="54" t="s">
         <v>14</v>
       </c>
@@ -3653,7 +3657,7 @@
       </c>
       <c r="N22" s="36"/>
     </row>
-    <row r="23" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A23" s="54" t="s">
         <v>14</v>
       </c>
@@ -3695,7 +3699,7 @@
       </c>
       <c r="N23" s="36"/>
     </row>
-    <row r="24" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A24" s="54" t="s">
         <v>14</v>
       </c>
@@ -3865,7 +3869,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A28" s="54" t="s">
         <v>14</v>
       </c>
@@ -3907,7 +3911,7 @@
       </c>
       <c r="N28" s="36"/>
     </row>
-    <row r="29" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A29" s="54" t="s">
         <v>14</v>
       </c>
@@ -3949,7 +3953,7 @@
       </c>
       <c r="N29" s="36"/>
     </row>
-    <row r="30" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A30" s="54" t="s">
         <v>14</v>
       </c>
@@ -3991,7 +3995,7 @@
       </c>
       <c r="N30" s="36"/>
     </row>
-    <row r="31" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A31" s="54" t="s">
         <v>14</v>
       </c>
@@ -4033,7 +4037,7 @@
       </c>
       <c r="N31" s="36"/>
     </row>
-    <row r="32" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A32" s="54" t="s">
         <v>14</v>
       </c>
@@ -4075,7 +4079,7 @@
       </c>
       <c r="N32" s="36"/>
     </row>
-    <row r="33" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A33" s="54" t="s">
         <v>14</v>
       </c>
@@ -4293,7 +4297,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A38" s="54" t="s">
         <v>14</v>
       </c>
@@ -4601,7 +4605,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A45" s="54" t="s">
         <v>14</v>
       </c>
@@ -4645,7 +4649,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A46" s="54" t="s">
         <v>14</v>
       </c>
@@ -4733,7 +4737,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A48" s="54" t="s">
         <v>14</v>
       </c>
@@ -4777,7 +4781,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A49" s="54" t="s">
         <v>14</v>
       </c>
@@ -4819,7 +4823,7 @@
       </c>
       <c r="N49" s="36"/>
     </row>
-    <row r="50" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A50" s="54" t="s">
         <v>14</v>
       </c>
@@ -4861,7 +4865,7 @@
       </c>
       <c r="N50" s="36"/>
     </row>
-    <row r="51" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A51" s="54" t="s">
         <v>14</v>
       </c>
@@ -4903,7 +4907,7 @@
       </c>
       <c r="N51" s="36"/>
     </row>
-    <row r="52" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A52" s="54" t="s">
         <v>14</v>
       </c>
@@ -4945,7 +4949,7 @@
       </c>
       <c r="N52" s="36"/>
     </row>
-    <row r="53" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A53" s="54" t="s">
         <v>14</v>
       </c>
@@ -4987,7 +4991,7 @@
       </c>
       <c r="N53" s="36"/>
     </row>
-    <row r="54" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A54" s="54" t="s">
         <v>14</v>
       </c>
@@ -5029,7 +5033,7 @@
       </c>
       <c r="N54" s="36"/>
     </row>
-    <row r="55" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A55" s="54" t="s">
         <v>14</v>
       </c>
@@ -5073,7 +5077,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A56" s="54" t="s">
         <v>14</v>
       </c>
@@ -5117,7 +5121,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A57" s="54" t="s">
         <v>14</v>
       </c>
@@ -5159,7 +5163,7 @@
       </c>
       <c r="N57" s="36"/>
     </row>
-    <row r="58" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A58" s="54" t="s">
         <v>14</v>
       </c>
@@ -5201,7 +5205,7 @@
       </c>
       <c r="N58" s="36"/>
     </row>
-    <row r="59" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A59" s="54" t="s">
         <v>14</v>
       </c>
@@ -5243,7 +5247,7 @@
       </c>
       <c r="N59" s="36"/>
     </row>
-    <row r="60" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A60" s="54" t="s">
         <v>14</v>
       </c>
@@ -5285,7 +5289,7 @@
       </c>
       <c r="N60" s="36"/>
     </row>
-    <row r="61" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A61" s="54" t="s">
         <v>14</v>
       </c>
@@ -5327,7 +5331,7 @@
       </c>
       <c r="N61" s="36"/>
     </row>
-    <row r="62" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A62" s="54" t="s">
         <v>14</v>
       </c>
@@ -5369,7 +5373,7 @@
       </c>
       <c r="N62" s="36"/>
     </row>
-    <row r="63" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A63" s="54" t="s">
         <v>14</v>
       </c>
@@ -5413,7 +5417,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A64" s="54" t="s">
         <v>14</v>
       </c>
@@ -5709,7 +5713,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A71" s="54" t="s">
         <v>14</v>
       </c>
@@ -5751,7 +5755,7 @@
       </c>
       <c r="N71" s="36"/>
     </row>
-    <row r="72" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A72" s="54" t="s">
         <v>14</v>
       </c>
@@ -5793,7 +5797,7 @@
       </c>
       <c r="N72" s="36"/>
     </row>
-    <row r="73" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A73" s="54" t="s">
         <v>14</v>
       </c>
@@ -5835,7 +5839,7 @@
       </c>
       <c r="N73" s="36"/>
     </row>
-    <row r="74" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A74" s="54" t="s">
         <v>14</v>
       </c>
@@ -6093,7 +6097,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="54" t="s">
         <v>14</v>
       </c>
@@ -6181,7 +6185,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A82" s="54" t="s">
         <v>14</v>
       </c>
@@ -6621,7 +6625,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="54" t="s">
         <v>14</v>
       </c>
@@ -6665,7 +6669,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A93" s="54" t="s">
         <v>14</v>
       </c>
@@ -6709,7 +6713,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="54" t="s">
         <v>14</v>
       </c>
@@ -6753,7 +6757,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="95" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="54" t="s">
         <v>14</v>
       </c>
@@ -6929,7 +6933,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A99" s="54" t="s">
         <v>14</v>
       </c>
@@ -6973,7 +6977,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A100" s="54" t="s">
         <v>14</v>
       </c>
@@ -7105,7 +7109,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A103" s="54" t="s">
         <v>14</v>
       </c>
@@ -7193,7 +7197,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A105" s="54" t="s">
         <v>14</v>
       </c>
@@ -7235,7 +7239,7 @@
       </c>
       <c r="N105" s="36"/>
     </row>
-    <row r="106" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A106" s="54" t="s">
         <v>14</v>
       </c>
@@ -7277,7 +7281,7 @@
       </c>
       <c r="N106" s="36"/>
     </row>
-    <row r="107" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A107" s="54" t="s">
         <v>14</v>
       </c>
@@ -7319,7 +7323,7 @@
       </c>
       <c r="N107" s="36"/>
     </row>
-    <row r="108" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A108" s="54" t="s">
         <v>14</v>
       </c>
@@ -7533,7 +7537,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A113" s="54" t="s">
         <v>14</v>
       </c>
@@ -7575,7 +7579,7 @@
       </c>
       <c r="N113" s="36"/>
     </row>
-    <row r="114" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A114" s="54" t="s">
         <v>14</v>
       </c>
@@ -7617,7 +7621,7 @@
       </c>
       <c r="N114" s="36"/>
     </row>
-    <row r="115" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A115" s="54" t="s">
         <v>14</v>
       </c>
@@ -7659,7 +7663,7 @@
       </c>
       <c r="N115" s="36"/>
     </row>
-    <row r="116" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A116" s="54" t="s">
         <v>14</v>
       </c>
@@ -7829,7 +7833,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="120" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A120" s="54" t="s">
         <v>14</v>
       </c>
@@ -7871,7 +7875,7 @@
       </c>
       <c r="N120" s="36"/>
     </row>
-    <row r="121" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A121" s="54" t="s">
         <v>14</v>
       </c>
@@ -7913,7 +7917,7 @@
       </c>
       <c r="N121" s="36"/>
     </row>
-    <row r="122" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A122" s="54" t="s">
         <v>14</v>
       </c>
@@ -7955,7 +7959,7 @@
       </c>
       <c r="N122" s="36"/>
     </row>
-    <row r="123" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A123" s="54" t="s">
         <v>14</v>
       </c>
@@ -7997,7 +8001,7 @@
       </c>
       <c r="N123" s="36"/>
     </row>
-    <row r="124" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A124" s="54" t="s">
         <v>14</v>
       </c>
@@ -8039,7 +8043,7 @@
       </c>
       <c r="N124" s="36"/>
     </row>
-    <row r="125" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A125" s="54" t="s">
         <v>14</v>
       </c>
@@ -8081,7 +8085,7 @@
       </c>
       <c r="N125" s="36"/>
     </row>
-    <row r="126" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A126" s="54" t="s">
         <v>14</v>
       </c>
@@ -8125,7 +8129,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A127" s="54" t="s">
         <v>14</v>
       </c>
@@ -8167,7 +8171,7 @@
       </c>
       <c r="N127" s="36"/>
     </row>
-    <row r="128" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A128" s="54" t="s">
         <v>14</v>
       </c>
@@ -8209,7 +8213,7 @@
       </c>
       <c r="N128" s="36"/>
     </row>
-    <row r="129" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A129" s="54" t="s">
         <v>14</v>
       </c>
@@ -8251,7 +8255,7 @@
       </c>
       <c r="N129" s="36"/>
     </row>
-    <row r="130" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A130" s="54" t="s">
         <v>14</v>
       </c>
@@ -8293,7 +8297,7 @@
       </c>
       <c r="N130" s="36"/>
     </row>
-    <row r="131" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A131" s="54" t="s">
         <v>14</v>
       </c>
@@ -8335,7 +8339,7 @@
       </c>
       <c r="N131" s="36"/>
     </row>
-    <row r="132" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A132" s="54" t="s">
         <v>14</v>
       </c>
@@ -8817,7 +8821,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="143" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A143" s="54" t="s">
         <v>14</v>
       </c>
@@ -8859,7 +8863,7 @@
       </c>
       <c r="N143" s="36"/>
     </row>
-    <row r="144" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A144" s="54" t="s">
         <v>14</v>
       </c>
@@ -8901,7 +8905,7 @@
       </c>
       <c r="N144" s="36"/>
     </row>
-    <row r="145" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A145" s="54" t="s">
         <v>14</v>
       </c>
@@ -8943,7 +8947,7 @@
       </c>
       <c r="N145" s="36"/>
     </row>
-    <row r="146" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A146" s="54" t="s">
         <v>14</v>
       </c>
@@ -8985,7 +8989,7 @@
       </c>
       <c r="N146" s="36"/>
     </row>
-    <row r="147" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A147" s="54" t="s">
         <v>14</v>
       </c>
@@ -9027,7 +9031,7 @@
       </c>
       <c r="N147" s="36"/>
     </row>
-    <row r="148" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A148" s="54" t="s">
         <v>14</v>
       </c>
@@ -9069,7 +9073,7 @@
       </c>
       <c r="N148" s="36"/>
     </row>
-    <row r="149" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A149" s="54" t="s">
         <v>14</v>
       </c>
@@ -9111,7 +9115,7 @@
       </c>
       <c r="N149" s="36"/>
     </row>
-    <row r="150" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A150" s="54" t="s">
         <v>14</v>
       </c>
@@ -9153,7 +9157,7 @@
       </c>
       <c r="N150" s="67"/>
     </row>
-    <row r="151" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A151" s="54" t="s">
         <v>14</v>
       </c>
@@ -9195,7 +9199,7 @@
       </c>
       <c r="N151" s="36"/>
     </row>
-    <row r="152" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A152" s="54" t="s">
         <v>14</v>
       </c>
@@ -9237,7 +9241,7 @@
       </c>
       <c r="N152" s="36"/>
     </row>
-    <row r="153" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A153" s="54" t="s">
         <v>14</v>
       </c>
@@ -9279,7 +9283,7 @@
       </c>
       <c r="N153" s="36"/>
     </row>
-    <row r="154" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A154" s="54" t="s">
         <v>14</v>
       </c>
@@ -9365,7 +9369,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="156" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A156" s="54" t="s">
         <v>14</v>
       </c>
@@ -9407,7 +9411,7 @@
       </c>
       <c r="N156" s="36"/>
     </row>
-    <row r="157" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A157" s="54" t="s">
         <v>14</v>
       </c>
@@ -9449,7 +9453,7 @@
       </c>
       <c r="N157" s="36"/>
     </row>
-    <row r="158" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A158" s="54" t="s">
         <v>14</v>
       </c>
@@ -9491,7 +9495,7 @@
       </c>
       <c r="N158" s="36"/>
     </row>
-    <row r="159" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A159" s="54" t="s">
         <v>14</v>
       </c>
@@ -9617,7 +9621,7 @@
       </c>
       <c r="N161" s="36"/>
     </row>
-    <row r="162" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A162" s="54" t="s">
         <v>14</v>
       </c>
@@ -9659,7 +9663,7 @@
       </c>
       <c r="N162" s="36"/>
     </row>
-    <row r="163" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A163" s="54" t="s">
         <v>14</v>
       </c>
@@ -9701,7 +9705,7 @@
       </c>
       <c r="N163" s="36"/>
     </row>
-    <row r="164" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A164" s="54" t="s">
         <v>14</v>
       </c>
@@ -9743,7 +9747,7 @@
       </c>
       <c r="N164" s="36"/>
     </row>
-    <row r="165" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A165" s="54" t="s">
         <v>14</v>
       </c>
@@ -10659,7 +10663,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="186" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A186" s="54" t="s">
         <v>14</v>
       </c>
@@ -10703,7 +10707,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="187" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A187" s="54" t="s">
         <v>14</v>
       </c>
@@ -10745,7 +10749,7 @@
       </c>
       <c r="N187" s="36"/>
     </row>
-    <row r="188" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A188" s="54" t="s">
         <v>14</v>
       </c>
@@ -10787,7 +10791,7 @@
       </c>
       <c r="N188" s="36"/>
     </row>
-    <row r="189" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A189" s="54" t="s">
         <v>14</v>
       </c>
@@ -10829,7 +10833,7 @@
       </c>
       <c r="N189" s="36"/>
     </row>
-    <row r="190" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A190" s="54" t="s">
         <v>14</v>
       </c>
@@ -10955,7 +10959,7 @@
       </c>
       <c r="N192" s="36"/>
     </row>
-    <row r="193" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A193" s="54" t="s">
         <v>14</v>
       </c>
@@ -11263,7 +11267,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="200" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A200" s="54" t="s">
         <v>14</v>
       </c>
@@ -11307,7 +11311,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="201" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A201" s="54" t="s">
         <v>14</v>
       </c>
@@ -11349,7 +11353,7 @@
       </c>
       <c r="N201" s="36"/>
     </row>
-    <row r="202" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A202" s="54" t="s">
         <v>14</v>
       </c>
@@ -11391,7 +11395,7 @@
       </c>
       <c r="N202" s="36"/>
     </row>
-    <row r="203" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A203" s="54" t="s">
         <v>14</v>
       </c>
@@ -11433,7 +11437,7 @@
       </c>
       <c r="N203" s="36"/>
     </row>
-    <row r="204" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A204" s="54" t="s">
         <v>14</v>
       </c>
@@ -11559,7 +11563,7 @@
       </c>
       <c r="N206" s="36"/>
     </row>
-    <row r="207" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A207" s="54" t="s">
         <v>14</v>
       </c>
@@ -11603,7 +11607,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="208" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A208" s="54" t="s">
         <v>14</v>
       </c>
@@ -11645,7 +11649,7 @@
       </c>
       <c r="N208" s="36"/>
     </row>
-    <row r="209" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A209" s="54" t="s">
         <v>14</v>
       </c>
@@ -11687,7 +11691,7 @@
       </c>
       <c r="N209" s="36"/>
     </row>
-    <row r="210" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A210" s="54" t="s">
         <v>14</v>
       </c>
@@ -11729,7 +11733,7 @@
       </c>
       <c r="N210" s="36"/>
     </row>
-    <row r="211" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A211" s="54" t="s">
         <v>14</v>
       </c>
@@ -11771,7 +11775,7 @@
       </c>
       <c r="N211" s="36"/>
     </row>
-    <row r="212" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A212" s="54" t="s">
         <v>14</v>
       </c>
@@ -11813,7 +11817,7 @@
       </c>
       <c r="N212" s="36"/>
     </row>
-    <row r="213" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A213" s="54" t="s">
         <v>14</v>
       </c>
@@ -11899,7 +11903,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="215" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A215" s="54" t="s">
         <v>14</v>
       </c>
@@ -11941,7 +11945,7 @@
       </c>
       <c r="N215" s="36"/>
     </row>
-    <row r="216" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A216" s="54" t="s">
         <v>14</v>
       </c>
@@ -11983,7 +11987,7 @@
       </c>
       <c r="N216" s="67"/>
     </row>
-    <row r="217" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A217" s="54" t="s">
         <v>14</v>
       </c>
@@ -12025,7 +12029,7 @@
       </c>
       <c r="N217" s="36"/>
     </row>
-    <row r="218" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A218" s="54" t="s">
         <v>14</v>
       </c>
@@ -12067,7 +12071,7 @@
       </c>
       <c r="N218" s="36"/>
     </row>
-    <row r="219" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A219" s="54" t="s">
         <v>14</v>
       </c>
@@ -12109,7 +12113,7 @@
       </c>
       <c r="N219" s="36"/>
     </row>
-    <row r="220" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A220" s="54" t="s">
         <v>14</v>
       </c>
@@ -13383,7 +13387,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="249" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A249" s="54" t="s">
         <v>14</v>
       </c>
@@ -13427,7 +13431,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="250" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A250" s="54" t="s">
         <v>14</v>
       </c>
@@ -13469,7 +13473,7 @@
       </c>
       <c r="N250" s="36"/>
     </row>
-    <row r="251" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A251" s="54" t="s">
         <v>14</v>
       </c>
@@ -13511,7 +13515,7 @@
       </c>
       <c r="N251" s="67"/>
     </row>
-    <row r="252" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A252" s="54" t="s">
         <v>14</v>
       </c>
@@ -13553,7 +13557,7 @@
       </c>
       <c r="N252" s="36"/>
     </row>
-    <row r="253" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A253" s="54" t="s">
         <v>14</v>
       </c>
@@ -13595,7 +13599,7 @@
       </c>
       <c r="N253" s="36"/>
     </row>
-    <row r="254" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A254" s="54" t="s">
         <v>14</v>
       </c>
@@ -13637,7 +13641,7 @@
       </c>
       <c r="N254" s="36"/>
     </row>
-    <row r="255" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A255" s="54" t="s">
         <v>14</v>
       </c>
@@ -13679,7 +13683,7 @@
       </c>
       <c r="N255" s="67"/>
     </row>
-    <row r="256" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A256" s="54" t="s">
         <v>14</v>
       </c>
@@ -13855,7 +13859,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="260" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A260" s="54" t="s">
         <v>14</v>
       </c>
@@ -14031,7 +14035,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="264" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A264" s="54" t="s">
         <v>14</v>
       </c>
@@ -14073,7 +14077,7 @@
       </c>
       <c r="N264" s="36"/>
     </row>
-    <row r="265" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A265" s="54" t="s">
         <v>14</v>
       </c>
@@ -14115,7 +14119,7 @@
       </c>
       <c r="N265" s="36"/>
     </row>
-    <row r="266" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A266" s="54" t="s">
         <v>14</v>
       </c>
@@ -14157,7 +14161,7 @@
       </c>
       <c r="N266" s="36"/>
     </row>
-    <row r="267" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A267" s="54" t="s">
         <v>14</v>
       </c>
@@ -14199,7 +14203,7 @@
       </c>
       <c r="N267" s="36"/>
     </row>
-    <row r="268" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A268" s="54" t="s">
         <v>14</v>
       </c>
@@ -14241,7 +14245,7 @@
       </c>
       <c r="N268" s="36"/>
     </row>
-    <row r="269" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A269" s="54" t="s">
         <v>14</v>
       </c>
@@ -14283,7 +14287,7 @@
       </c>
       <c r="N269" s="36"/>
     </row>
-    <row r="270" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A270" s="54" t="s">
         <v>14</v>
       </c>
@@ -14963,7 +14967,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="286" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A286" s="54" t="s">
         <v>14</v>
       </c>
@@ -15305,7 +15309,7 @@
       </c>
       <c r="N293" s="36"/>
     </row>
-    <row r="294" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A294" s="54" t="s">
         <v>14</v>
       </c>
@@ -15347,7 +15351,7 @@
       </c>
       <c r="N294" s="36"/>
     </row>
-    <row r="295" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A295" s="54" t="s">
         <v>14</v>
       </c>
@@ -16713,7 +16717,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="327" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A327" s="54" t="s">
         <v>14</v>
       </c>
@@ -17097,7 +17101,7 @@
       </c>
       <c r="N335" s="36"/>
     </row>
-    <row r="336" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A336" s="54" t="s">
         <v>14</v>
       </c>
@@ -19683,7 +19687,7 @@
       </c>
       <c r="N395" s="36"/>
     </row>
-    <row r="396" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A396" s="54" t="s">
         <v>14</v>
       </c>
@@ -19727,7 +19731,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="397" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A397" s="54" t="s">
         <v>14</v>
       </c>
@@ -20035,7 +20039,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="404" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A404" s="54" t="s">
         <v>14</v>
       </c>
@@ -20331,7 +20335,7 @@
       </c>
       <c r="N410" s="36"/>
     </row>
-    <row r="411" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A411" s="54" t="s">
         <v>14</v>
       </c>
@@ -21525,7 +21529,7 @@
       </c>
       <c r="N438" s="36"/>
     </row>
-    <row r="439" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A439" s="54" t="s">
         <v>14</v>
       </c>
@@ -22115,7 +22119,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="453" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A453" s="54" t="s">
         <v>14</v>
       </c>
@@ -22157,7 +22161,7 @@
       </c>
       <c r="N453" s="36"/>
     </row>
-    <row r="454" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A454" s="54" t="s">
         <v>14</v>
       </c>
@@ -22199,7 +22203,7 @@
       </c>
       <c r="N454" s="36"/>
     </row>
-    <row r="455" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A455" s="54" t="s">
         <v>14</v>
       </c>
@@ -22241,7 +22245,7 @@
       </c>
       <c r="N455" s="36"/>
     </row>
-    <row r="456" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A456" s="54" t="s">
         <v>14</v>
       </c>
@@ -22283,7 +22287,7 @@
       </c>
       <c r="N456" s="36"/>
     </row>
-    <row r="457" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A457" s="54" t="s">
         <v>14</v>
       </c>
@@ -22325,7 +22329,7 @@
       </c>
       <c r="N457" s="36"/>
     </row>
-    <row r="458" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A458" s="54" t="s">
         <v>14</v>
       </c>
@@ -22761,7 +22765,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="468" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A468" s="54" t="s">
         <v>14</v>
       </c>
@@ -23409,7 +23413,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="483" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A483" s="54" t="s">
         <v>14</v>
       </c>
@@ -23451,7 +23455,7 @@
       </c>
       <c r="N483" s="36"/>
     </row>
-    <row r="484" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A484" s="54" t="s">
         <v>14</v>
       </c>
@@ -23493,7 +23497,7 @@
       </c>
       <c r="N484" s="36"/>
     </row>
-    <row r="485" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A485" s="54" t="s">
         <v>14</v>
       </c>
@@ -23535,7 +23539,7 @@
       </c>
       <c r="N485" s="36"/>
     </row>
-    <row r="486" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A486" s="54" t="s">
         <v>14</v>
       </c>
@@ -23577,7 +23581,7 @@
       </c>
       <c r="N486" s="36"/>
     </row>
-    <row r="487" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A487" s="54" t="s">
         <v>14</v>
       </c>
@@ -23619,7 +23623,7 @@
       </c>
       <c r="N487" s="36"/>
     </row>
-    <row r="488" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A488" s="54" t="s">
         <v>14</v>
       </c>
@@ -23957,7 +23961,7 @@
       </c>
       <c r="N495" s="36"/>
     </row>
-    <row r="496" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A496" s="54" t="s">
         <v>14</v>
       </c>
@@ -24515,7 +24519,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="509" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A509" s="54" t="s">
         <v>14</v>
       </c>
@@ -24821,7 +24825,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="516" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A516" s="54" t="s">
         <v>14</v>
       </c>
@@ -24995,7 +24999,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="520" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A520" s="54" t="s">
         <v>14</v>
       </c>
@@ -25974,7 +25978,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="542" spans="1:49" ht="21" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:49" ht="21" x14ac:dyDescent="0.2">
       <c r="A542" s="109" t="s">
         <v>14</v>
       </c>
@@ -26016,7 +26020,7 @@
       </c>
       <c r="N542" s="36"/>
     </row>
-    <row r="543" spans="1:49" ht="21" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:49" ht="21" x14ac:dyDescent="0.2">
       <c r="A543" s="54" t="s">
         <v>14</v>
       </c>
@@ -26058,7 +26062,7 @@
       </c>
       <c r="N543" s="36"/>
     </row>
-    <row r="544" spans="1:49" ht="21" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:49" ht="21" x14ac:dyDescent="0.2">
       <c r="A544" s="54" t="s">
         <v>14</v>
       </c>
@@ -26100,7 +26104,7 @@
       </c>
       <c r="N544" s="36"/>
     </row>
-    <row r="545" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A545" s="54" t="s">
         <v>14</v>
       </c>
@@ -26142,7 +26146,7 @@
       </c>
       <c r="N545" s="36"/>
     </row>
-    <row r="546" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="54" t="s">
         <v>14</v>
       </c>
@@ -26184,7 +26188,7 @@
       </c>
       <c r="N546" s="36"/>
     </row>
-    <row r="547" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A547" s="54" t="s">
         <v>14</v>
       </c>
@@ -26270,7 +26274,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="549" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="54" t="s">
         <v>14</v>
       </c>
@@ -26312,7 +26316,7 @@
       </c>
       <c r="N549" s="36"/>
     </row>
-    <row r="550" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="54" t="s">
         <v>14</v>
       </c>
@@ -26354,7 +26358,7 @@
       </c>
       <c r="N550" s="36"/>
     </row>
-    <row r="551" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A551" s="54" t="s">
         <v>14</v>
       </c>
@@ -26396,7 +26400,7 @@
       </c>
       <c r="N551" s="36"/>
     </row>
-    <row r="552" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A552" s="54" t="s">
         <v>14</v>
       </c>
@@ -26438,7 +26442,7 @@
       </c>
       <c r="N552" s="36"/>
     </row>
-    <row r="553" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="54" t="s">
         <v>14</v>
       </c>
@@ -26480,7 +26484,7 @@
       </c>
       <c r="N553" s="36"/>
     </row>
-    <row r="554" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:14" ht="21" x14ac:dyDescent="0.2">
       <c r="A554" s="54" t="s">
         <v>14</v>
       </c>
@@ -26642,7 +26646,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="558" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A558" s="54" t="s">
         <v>14</v>
       </c>
@@ -26682,7 +26686,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="559" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A559" s="54" t="s">
         <v>14</v>
       </c>
@@ -26722,7 +26726,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="560" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="138" t="s">
         <v>412</v>
       </c>
@@ -26810,7 +26814,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="562" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="138" t="s">
         <v>412</v>
       </c>
@@ -26854,7 +26858,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="563" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="138" t="s">
         <v>412</v>
       </c>
@@ -26898,7 +26902,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="564" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="138" t="s">
         <v>412</v>
       </c>
@@ -26940,7 +26944,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="565" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="138" t="s">
         <v>412</v>
       </c>
@@ -26982,7 +26986,7 @@
       </c>
       <c r="N565" s="36"/>
     </row>
-    <row r="566" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="138" t="s">
         <v>412</v>
       </c>
@@ -27024,7 +27028,7 @@
       </c>
       <c r="N566" s="36"/>
     </row>
-    <row r="567" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="138" t="s">
         <v>412</v>
       </c>
@@ -27066,7 +27070,7 @@
       </c>
       <c r="N567" s="36"/>
     </row>
-    <row r="568" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="138" t="s">
         <v>412</v>
       </c>
@@ -27108,7 +27112,7 @@
       </c>
       <c r="N568" s="36"/>
     </row>
-    <row r="569" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="138" t="s">
         <v>412</v>
       </c>
@@ -27150,7 +27154,7 @@
       </c>
       <c r="N569" s="36"/>
     </row>
-    <row r="570" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="138" t="s">
         <v>412</v>
       </c>
@@ -27192,7 +27196,7 @@
       </c>
       <c r="N570" s="36"/>
     </row>
-    <row r="571" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="138" t="s">
         <v>412</v>
       </c>
@@ -27234,7 +27238,7 @@
       </c>
       <c r="N571" s="36"/>
     </row>
-    <row r="572" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="138" t="s">
         <v>412</v>
       </c>
@@ -27276,7 +27280,7 @@
       </c>
       <c r="N572" s="36"/>
     </row>
-    <row r="573" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="138" t="s">
         <v>412</v>
       </c>
@@ -27318,7 +27322,7 @@
       </c>
       <c r="N573" s="36"/>
     </row>
-    <row r="574" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="138" t="s">
         <v>412</v>
       </c>
@@ -27360,7 +27364,7 @@
       </c>
       <c r="N574" s="36"/>
     </row>
-    <row r="575" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="138" t="s">
         <v>412</v>
       </c>
@@ -27402,7 +27406,7 @@
       </c>
       <c r="N575" s="36"/>
     </row>
-    <row r="576" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="138" t="s">
         <v>412</v>
       </c>
@@ -27444,7 +27448,7 @@
       </c>
       <c r="N576" s="36"/>
     </row>
-    <row r="577" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="138" t="s">
         <v>412</v>
       </c>
@@ -27486,7 +27490,7 @@
       </c>
       <c r="N577" s="36"/>
     </row>
-    <row r="578" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="138" t="s">
         <v>412</v>
       </c>
@@ -27528,7 +27532,7 @@
       </c>
       <c r="N578" s="36"/>
     </row>
-    <row r="579" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="138" t="s">
         <v>412</v>
       </c>
@@ -27570,7 +27574,7 @@
       </c>
       <c r="N579" s="36"/>
     </row>
-    <row r="580" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="138" t="s">
         <v>412</v>
       </c>
@@ -27612,7 +27616,7 @@
       </c>
       <c r="N580" s="36"/>
     </row>
-    <row r="581" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="138" t="s">
         <v>412</v>
       </c>
@@ -27654,7 +27658,7 @@
       </c>
       <c r="N581" s="36"/>
     </row>
-    <row r="582" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="138" t="s">
         <v>412</v>
       </c>
@@ -27696,7 +27700,7 @@
       </c>
       <c r="N582" s="36"/>
     </row>
-    <row r="583" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="138" t="s">
         <v>412</v>
       </c>
@@ -27738,7 +27742,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="584" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="138" t="s">
         <v>412</v>
       </c>
@@ -27780,7 +27784,7 @@
       </c>
       <c r="N584" s="36"/>
     </row>
-    <row r="585" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="138" t="s">
         <v>412</v>
       </c>
@@ -27822,7 +27826,7 @@
       </c>
       <c r="N585" s="36"/>
     </row>
-    <row r="586" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="138" t="s">
         <v>412</v>
       </c>
@@ -27864,7 +27868,7 @@
       </c>
       <c r="N586" s="36"/>
     </row>
-    <row r="587" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="138" t="s">
         <v>412</v>
       </c>
@@ -27906,7 +27910,7 @@
       </c>
       <c r="N587" s="36"/>
     </row>
-    <row r="588" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="138" t="s">
         <v>412</v>
       </c>
@@ -27948,7 +27952,7 @@
       </c>
       <c r="N588" s="36"/>
     </row>
-    <row r="589" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="138" t="s">
         <v>412</v>
       </c>
@@ -27990,7 +27994,7 @@
       </c>
       <c r="N589" s="36"/>
     </row>
-    <row r="590" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="138" t="s">
         <v>412</v>
       </c>
@@ -28034,7 +28038,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="591" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="138" t="s">
         <v>412</v>
       </c>
@@ -28078,7 +28082,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="592" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="138" t="s">
         <v>412</v>
       </c>
@@ -28122,7 +28126,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="593" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="138" t="s">
         <v>412</v>
       </c>
@@ -28166,7 +28170,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="594" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="138" t="s">
         <v>412</v>
       </c>
@@ -28208,7 +28212,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="595" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="138" t="s">
         <v>412</v>
       </c>
@@ -28252,7 +28256,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="596" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="138" t="s">
         <v>412</v>
       </c>
@@ -28296,7 +28300,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="597" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="138" t="s">
         <v>412</v>
       </c>
@@ -28340,7 +28344,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="598" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="138" t="s">
         <v>412</v>
       </c>
@@ -28384,7 +28388,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="599" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="138" t="s">
         <v>412</v>
       </c>
@@ -28428,7 +28432,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="600" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="138" t="s">
         <v>412</v>
       </c>
@@ -28516,7 +28520,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="602" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="138" t="s">
         <v>412</v>
       </c>
@@ -28558,7 +28562,7 @@
       </c>
       <c r="N602" s="36"/>
     </row>
-    <row r="603" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="138" t="s">
         <v>412</v>
       </c>
@@ -28600,7 +28604,7 @@
       </c>
       <c r="N603" s="36"/>
     </row>
-    <row r="604" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="138" t="s">
         <v>412</v>
       </c>
@@ -28642,7 +28646,7 @@
       </c>
       <c r="N604" s="36"/>
     </row>
-    <row r="605" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="138" t="s">
         <v>412</v>
       </c>
@@ -28684,7 +28688,7 @@
       </c>
       <c r="N605" s="36"/>
     </row>
-    <row r="606" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="138" t="s">
         <v>412</v>
       </c>
@@ -28726,7 +28730,7 @@
       </c>
       <c r="N606" s="36"/>
     </row>
-    <row r="607" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="138" t="s">
         <v>412</v>
       </c>
@@ -28856,7 +28860,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="610" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="138" t="s">
         <v>412</v>
       </c>
@@ -28898,7 +28902,7 @@
       </c>
       <c r="N610" s="39"/>
     </row>
-    <row r="611" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="138" t="s">
         <v>412</v>
       </c>
@@ -28940,7 +28944,7 @@
       </c>
       <c r="N611" s="36"/>
     </row>
-    <row r="612" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="138" t="s">
         <v>412</v>
       </c>
@@ -28982,7 +28986,7 @@
       </c>
       <c r="N612" s="39"/>
     </row>
-    <row r="613" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="138" t="s">
         <v>412</v>
       </c>
@@ -29024,7 +29028,7 @@
       </c>
       <c r="N613" s="39"/>
     </row>
-    <row r="614" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="138" t="s">
         <v>412</v>
       </c>
@@ -29066,7 +29070,7 @@
       </c>
       <c r="N614" s="39"/>
     </row>
-    <row r="615" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="138" t="s">
         <v>412</v>
       </c>
@@ -29152,7 +29156,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="617" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="138" t="s">
         <v>412</v>
       </c>
@@ -29194,7 +29198,7 @@
       </c>
       <c r="N617" s="36"/>
     </row>
-    <row r="618" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="138" t="s">
         <v>412</v>
       </c>
@@ -29236,7 +29240,7 @@
       </c>
       <c r="N618" s="36"/>
     </row>
-    <row r="619" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="138" t="s">
         <v>412</v>
       </c>
@@ -29278,7 +29282,7 @@
       </c>
       <c r="N619" s="39"/>
     </row>
-    <row r="620" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="138" t="s">
         <v>412</v>
       </c>
@@ -29320,7 +29324,7 @@
       </c>
       <c r="N620" s="39"/>
     </row>
-    <row r="621" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="138" t="s">
         <v>412</v>
       </c>
@@ -29362,7 +29366,7 @@
       </c>
       <c r="N621" s="36"/>
     </row>
-    <row r="622" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="138" t="s">
         <v>412</v>
       </c>
@@ -29404,7 +29408,7 @@
       </c>
       <c r="N622" s="36"/>
     </row>
-    <row r="623" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="138" t="s">
         <v>412</v>
       </c>
@@ -29448,7 +29452,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="624" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="138" t="s">
         <v>412</v>
       </c>
@@ -29490,7 +29494,7 @@
       </c>
       <c r="N624" s="36"/>
     </row>
-    <row r="625" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="138" t="s">
         <v>412</v>
       </c>
@@ -29532,7 +29536,7 @@
       </c>
       <c r="N625" s="36"/>
     </row>
-    <row r="626" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="138" t="s">
         <v>412</v>
       </c>
@@ -29574,7 +29578,7 @@
       </c>
       <c r="N626" s="36"/>
     </row>
-    <row r="627" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="138" t="s">
         <v>412</v>
       </c>
@@ -29616,7 +29620,7 @@
       </c>
       <c r="N627" s="36"/>
     </row>
-    <row r="628" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="138" t="s">
         <v>412</v>
       </c>
@@ -29658,7 +29662,7 @@
       </c>
       <c r="N628" s="36"/>
     </row>
-    <row r="629" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="138" t="s">
         <v>412</v>
       </c>
@@ -29744,7 +29748,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="631" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="138" t="s">
         <v>412</v>
       </c>
@@ -29788,7 +29792,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="632" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="138" t="s">
         <v>412</v>
       </c>
@@ -29832,7 +29836,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="633" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="138" t="s">
         <v>412</v>
       </c>
@@ -29876,7 +29880,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="634" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="138" t="s">
         <v>412</v>
       </c>
@@ -29920,7 +29924,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="635" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="138" t="s">
         <v>412</v>
       </c>
@@ -29964,7 +29968,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="636" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="138" t="s">
         <v>412</v>
       </c>
@@ -30050,7 +30054,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="638" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="138" t="s">
         <v>412</v>
       </c>
@@ -30094,7 +30098,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="639" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="138" t="s">
         <v>412</v>
       </c>
@@ -30136,7 +30140,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="640" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="138" t="s">
         <v>412</v>
       </c>
@@ -30180,7 +30184,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="641" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="138" t="s">
         <v>412</v>
       </c>
@@ -30224,7 +30228,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="642" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="138" t="s">
         <v>412</v>
       </c>
@@ -30268,7 +30272,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="643" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="138" t="s">
         <v>412</v>
       </c>
@@ -30312,7 +30316,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="644" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="138" t="s">
         <v>412</v>
       </c>
@@ -30356,7 +30360,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="645" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="138" t="s">
         <v>412</v>
       </c>
@@ -30400,7 +30404,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="646" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="138" t="s">
         <v>412</v>
       </c>
@@ -30442,7 +30446,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="647" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="138" t="s">
         <v>412</v>
       </c>
@@ -30486,7 +30490,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="648" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="138" t="s">
         <v>412</v>
       </c>
@@ -30530,7 +30534,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="649" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="138" t="s">
         <v>412</v>
       </c>
@@ -30618,7 +30622,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="651" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="138" t="s">
         <v>412</v>
       </c>
@@ -30706,7 +30710,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="653" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="138" t="s">
         <v>412</v>
       </c>
@@ -30748,7 +30752,7 @@
       </c>
       <c r="N653" s="36"/>
     </row>
-    <row r="654" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="138" t="s">
         <v>412</v>
       </c>
@@ -30790,7 +30794,7 @@
       </c>
       <c r="N654" s="36"/>
     </row>
-    <row r="655" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A655" s="138" t="s">
         <v>412</v>
       </c>
@@ -30832,7 +30836,7 @@
       </c>
       <c r="N655" s="36"/>
     </row>
-    <row r="656" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="138" t="s">
         <v>412</v>
       </c>
@@ -30874,7 +30878,7 @@
       </c>
       <c r="N656" s="36"/>
     </row>
-    <row r="657" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="138" t="s">
         <v>412</v>
       </c>
@@ -30916,7 +30920,7 @@
       </c>
       <c r="N657" s="36"/>
     </row>
-    <row r="658" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="138" t="s">
         <v>412</v>
       </c>
@@ -31046,7 +31050,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="661" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="138" t="s">
         <v>412</v>
       </c>
@@ -31088,7 +31092,7 @@
       </c>
       <c r="N661" s="36"/>
     </row>
-    <row r="662" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="138" t="s">
         <v>412</v>
       </c>
@@ -31130,7 +31134,7 @@
       </c>
       <c r="N662" s="36"/>
     </row>
-    <row r="663" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="138" t="s">
         <v>412</v>
       </c>
@@ -31172,7 +31176,7 @@
       </c>
       <c r="N663" s="36"/>
     </row>
-    <row r="664" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="138" t="s">
         <v>412</v>
       </c>
@@ -31214,7 +31218,7 @@
       </c>
       <c r="N664" s="36"/>
     </row>
-    <row r="665" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="138" t="s">
         <v>412</v>
       </c>
@@ -31256,7 +31260,7 @@
       </c>
       <c r="N665" s="36"/>
     </row>
-    <row r="666" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="138" t="s">
         <v>412</v>
       </c>
@@ -31342,7 +31346,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="668" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A668" s="138" t="s">
         <v>412</v>
       </c>
@@ -31384,7 +31388,7 @@
       </c>
       <c r="N668" s="36"/>
     </row>
-    <row r="669" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A669" s="138" t="s">
         <v>412</v>
       </c>
@@ -31426,7 +31430,7 @@
       </c>
       <c r="N669" s="36"/>
     </row>
-    <row r="670" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="138" t="s">
         <v>412</v>
       </c>
@@ -31468,7 +31472,7 @@
       </c>
       <c r="N670" s="36"/>
     </row>
-    <row r="671" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="138" t="s">
         <v>412</v>
       </c>
@@ -31510,7 +31514,7 @@
       </c>
       <c r="N671" s="36"/>
     </row>
-    <row r="672" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="138" t="s">
         <v>412</v>
       </c>
@@ -31552,7 +31556,7 @@
       </c>
       <c r="N672" s="36"/>
     </row>
-    <row r="673" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="138" t="s">
         <v>412</v>
       </c>
@@ -31638,7 +31642,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="675" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A675" s="138" t="s">
         <v>412</v>
       </c>
@@ -31680,7 +31684,7 @@
       </c>
       <c r="N675" s="36"/>
     </row>
-    <row r="676" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="138" t="s">
         <v>412</v>
       </c>
@@ -31722,7 +31726,7 @@
       </c>
       <c r="N676" s="36"/>
     </row>
-    <row r="677" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="138" t="s">
         <v>412</v>
       </c>
@@ -31764,7 +31768,7 @@
       </c>
       <c r="N677" s="36"/>
     </row>
-    <row r="678" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A678" s="138" t="s">
         <v>412</v>
       </c>
@@ -31806,7 +31810,7 @@
       </c>
       <c r="N678" s="36"/>
     </row>
-    <row r="679" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="138" t="s">
         <v>412</v>
       </c>
@@ -31848,7 +31852,7 @@
       </c>
       <c r="N679" s="36"/>
     </row>
-    <row r="680" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="138" t="s">
         <v>412</v>
       </c>
@@ -31890,7 +31894,7 @@
       </c>
       <c r="N680" s="36"/>
     </row>
-    <row r="681" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="138" t="s">
         <v>412</v>
       </c>
@@ -31934,7 +31938,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="682" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="138" t="s">
         <v>412</v>
       </c>
@@ -31978,7 +31982,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="683" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="138" t="s">
         <v>412</v>
       </c>
@@ -32022,7 +32026,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="684" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="138" t="s">
         <v>412</v>
       </c>
@@ -32064,7 +32068,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="685" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="138" t="s">
         <v>412</v>
       </c>
@@ -32108,7 +32112,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="686" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="138" t="s">
         <v>412</v>
       </c>
@@ -32152,7 +32156,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="687" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="138" t="s">
         <v>412</v>
       </c>
@@ -32196,7 +32200,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="688" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A688" s="138" t="s">
         <v>412</v>
       </c>
@@ -32238,7 +32242,7 @@
       </c>
       <c r="N688" s="36"/>
     </row>
-    <row r="689" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A689" s="138" t="s">
         <v>412</v>
       </c>
@@ -32280,7 +32284,7 @@
       </c>
       <c r="N689" s="36"/>
     </row>
-    <row r="690" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A690" s="138" t="s">
         <v>412</v>
       </c>
@@ -32322,7 +32326,7 @@
       </c>
       <c r="N690" s="67"/>
     </row>
-    <row r="691" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A691" s="138" t="s">
         <v>412</v>
       </c>
@@ -32364,7 +32368,7 @@
       </c>
       <c r="N691" s="36"/>
     </row>
-    <row r="692" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A692" s="138" t="s">
         <v>412</v>
       </c>
@@ -32406,7 +32410,7 @@
       </c>
       <c r="N692" s="36"/>
     </row>
-    <row r="693" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A693" s="138" t="s">
         <v>412</v>
       </c>
@@ -32448,7 +32452,7 @@
       </c>
       <c r="N693" s="36"/>
     </row>
-    <row r="694" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A694" s="138" t="s">
         <v>412</v>
       </c>
@@ -32490,7 +32494,7 @@
       </c>
       <c r="N694" s="36"/>
     </row>
-    <row r="695" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A695" s="138" t="s">
         <v>412</v>
       </c>
@@ -32532,7 +32536,7 @@
       </c>
       <c r="N695" s="36"/>
     </row>
-    <row r="696" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A696" s="138" t="s">
         <v>412</v>
       </c>
@@ -32574,7 +32578,7 @@
       </c>
       <c r="N696" s="36"/>
     </row>
-    <row r="697" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A697" s="138" t="s">
         <v>412</v>
       </c>
@@ -32616,7 +32620,7 @@
       </c>
       <c r="N697" s="36"/>
     </row>
-    <row r="698" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A698" s="138" t="s">
         <v>412</v>
       </c>
@@ -32658,7 +32662,7 @@
       </c>
       <c r="N698" s="36"/>
     </row>
-    <row r="699" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A699" s="138" t="s">
         <v>412</v>
       </c>
@@ -32700,7 +32704,7 @@
       </c>
       <c r="N699" s="36"/>
     </row>
-    <row r="700" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A700" s="138" t="s">
         <v>412</v>
       </c>
@@ -32742,7 +32746,7 @@
       </c>
       <c r="N700" s="36"/>
     </row>
-    <row r="701" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A701" s="138" t="s">
         <v>412</v>
       </c>
@@ -32784,7 +32788,7 @@
       </c>
       <c r="N701" s="36"/>
     </row>
-    <row r="702" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A702" s="138" t="s">
         <v>412</v>
       </c>
@@ -32826,7 +32830,7 @@
       </c>
       <c r="N702" s="36"/>
     </row>
-    <row r="703" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A703" s="138" t="s">
         <v>412</v>
       </c>
@@ -32868,7 +32872,7 @@
       </c>
       <c r="N703" s="36"/>
     </row>
-    <row r="704" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A704" s="138" t="s">
         <v>412</v>
       </c>
@@ -32910,7 +32914,7 @@
       </c>
       <c r="N704" s="36"/>
     </row>
-    <row r="705" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A705" s="138" t="s">
         <v>412</v>
       </c>
@@ -32952,7 +32956,7 @@
       </c>
       <c r="N705" s="36"/>
     </row>
-    <row r="706" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="138" t="s">
         <v>412</v>
       </c>
@@ -32994,7 +32998,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="707" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A707" s="138" t="s">
         <v>412</v>
       </c>
@@ -33036,7 +33040,7 @@
       </c>
       <c r="N707" s="36"/>
     </row>
-    <row r="708" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A708" s="138" t="s">
         <v>412</v>
       </c>
@@ -33078,7 +33082,7 @@
       </c>
       <c r="N708" s="36"/>
     </row>
-    <row r="709" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A709" s="138" t="s">
         <v>412</v>
       </c>
@@ -33120,7 +33124,7 @@
       </c>
       <c r="N709" s="36"/>
     </row>
-    <row r="710" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A710" s="138" t="s">
         <v>412</v>
       </c>
@@ -33162,7 +33166,7 @@
       </c>
       <c r="N710" s="36"/>
     </row>
-    <row r="711" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A711" s="138" t="s">
         <v>412</v>
       </c>
@@ -33204,7 +33208,7 @@
       </c>
       <c r="N711" s="36"/>
     </row>
-    <row r="712" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A712" s="138" t="s">
         <v>412</v>
       </c>
@@ -33334,7 +33338,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="715" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="138" t="s">
         <v>412</v>
       </c>
@@ -33378,7 +33382,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="716" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="138" t="s">
         <v>412</v>
       </c>
@@ -33420,7 +33424,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="717" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="138" t="s">
         <v>412</v>
       </c>
@@ -33464,7 +33468,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="718" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="138" t="s">
         <v>412</v>
       </c>
@@ -33552,7 +33556,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="720" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="138" t="s">
         <v>412</v>
       </c>
@@ -33684,7 +33688,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="723" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A723" s="138" t="s">
         <v>412</v>
       </c>
@@ -33726,7 +33730,7 @@
       </c>
       <c r="N723" s="36"/>
     </row>
-    <row r="724" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A724" s="138" t="s">
         <v>412</v>
       </c>
@@ -33768,7 +33772,7 @@
       </c>
       <c r="N724" s="36"/>
     </row>
-    <row r="725" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A725" s="138" t="s">
         <v>412</v>
       </c>
@@ -33810,7 +33814,7 @@
       </c>
       <c r="N725" s="36"/>
     </row>
-    <row r="726" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A726" s="138" t="s">
         <v>412</v>
       </c>
@@ -33852,7 +33856,7 @@
       </c>
       <c r="N726" s="36"/>
     </row>
-    <row r="727" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A727" s="138" t="s">
         <v>412</v>
       </c>
@@ -33894,7 +33898,7 @@
       </c>
       <c r="N727" s="36"/>
     </row>
-    <row r="728" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A728" s="138" t="s">
         <v>412</v>
       </c>
@@ -34024,7 +34028,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="731" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A731" s="138" t="s">
         <v>412</v>
       </c>
@@ -34066,7 +34070,7 @@
       </c>
       <c r="N731" s="36"/>
     </row>
-    <row r="732" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A732" s="138" t="s">
         <v>412</v>
       </c>
@@ -34108,7 +34112,7 @@
       </c>
       <c r="N732" s="36"/>
     </row>
-    <row r="733" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A733" s="138" t="s">
         <v>412</v>
       </c>
@@ -34150,7 +34154,7 @@
       </c>
       <c r="N733" s="36"/>
     </row>
-    <row r="734" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A734" s="138" t="s">
         <v>412</v>
       </c>
@@ -34192,7 +34196,7 @@
       </c>
       <c r="N734" s="36"/>
     </row>
-    <row r="735" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A735" s="138" t="s">
         <v>412</v>
       </c>
@@ -34234,7 +34238,7 @@
       </c>
       <c r="N735" s="36"/>
     </row>
-    <row r="736" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A736" s="138" t="s">
         <v>412</v>
       </c>
@@ -34320,7 +34324,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="738" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A738" s="138" t="s">
         <v>412</v>
       </c>
@@ -34362,7 +34366,7 @@
       </c>
       <c r="N738" s="36"/>
     </row>
-    <row r="739" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A739" s="138" t="s">
         <v>412</v>
       </c>
@@ -34404,7 +34408,7 @@
       </c>
       <c r="N739" s="36"/>
     </row>
-    <row r="740" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A740" s="138" t="s">
         <v>412</v>
       </c>
@@ -34446,7 +34450,7 @@
       </c>
       <c r="N740" s="36"/>
     </row>
-    <row r="741" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A741" s="138" t="s">
         <v>412</v>
       </c>
@@ -34488,7 +34492,7 @@
       </c>
       <c r="N741" s="36"/>
     </row>
-    <row r="742" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A742" s="138" t="s">
         <v>412</v>
       </c>
@@ -34530,7 +34534,7 @@
       </c>
       <c r="N742" s="36"/>
     </row>
-    <row r="743" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A743" s="138" t="s">
         <v>412</v>
       </c>
@@ -34616,7 +34620,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="745" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A745" s="138" t="s">
         <v>412</v>
       </c>
@@ -34658,7 +34662,7 @@
       </c>
       <c r="N745" s="36"/>
     </row>
-    <row r="746" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A746" s="138" t="s">
         <v>412</v>
       </c>
@@ -34700,7 +34704,7 @@
       </c>
       <c r="N746" s="36"/>
     </row>
-    <row r="747" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A747" s="138" t="s">
         <v>412</v>
       </c>
@@ -34742,7 +34746,7 @@
       </c>
       <c r="N747" s="67"/>
     </row>
-    <row r="748" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A748" s="138" t="s">
         <v>412</v>
       </c>
@@ -34784,7 +34788,7 @@
       </c>
       <c r="N748" s="36"/>
     </row>
-    <row r="749" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A749" s="138" t="s">
         <v>412</v>
       </c>
@@ -34826,7 +34830,7 @@
       </c>
       <c r="N749" s="36"/>
     </row>
-    <row r="750" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A750" s="138" t="s">
         <v>412</v>
       </c>
@@ -34868,7 +34872,7 @@
       </c>
       <c r="N750" s="36"/>
     </row>
-    <row r="751" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="138" t="s">
         <v>412</v>
       </c>
@@ -34912,7 +34916,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="752" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="138" t="s">
         <v>412</v>
       </c>
@@ -34956,7 +34960,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="753" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="138" t="s">
         <v>412</v>
       </c>
@@ -35000,7 +35004,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="754" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="138" t="s">
         <v>412</v>
       </c>
@@ -35042,7 +35046,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="755" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="138" t="s">
         <v>412</v>
       </c>
@@ -35086,7 +35090,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="756" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="138" t="s">
         <v>412</v>
       </c>
@@ -35130,7 +35134,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="757" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="138" t="s">
         <v>412</v>
       </c>
@@ -35174,7 +35178,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="758" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="138" t="s">
         <v>412</v>
       </c>
@@ -35218,7 +35222,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="759" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="138" t="s">
         <v>412</v>
       </c>
@@ -35262,7 +35266,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="760" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="138" t="s">
         <v>412</v>
       </c>
@@ -35306,7 +35310,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="761" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="138" t="s">
         <v>412</v>
       </c>
@@ -35350,7 +35354,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="762" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="138" t="s">
         <v>412</v>
       </c>
@@ -35394,7 +35398,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="763" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="138" t="s">
         <v>412</v>
       </c>
@@ -35438,7 +35442,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="764" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="138" t="s">
         <v>412</v>
       </c>
@@ -35482,7 +35486,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="765" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="138" t="s">
         <v>412</v>
       </c>
@@ -35526,7 +35530,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="766" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="138" t="s">
         <v>412</v>
       </c>
@@ -35570,7 +35574,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="767" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="138" t="s">
         <v>412</v>
       </c>
@@ -35614,7 +35618,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="768" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="138" t="s">
         <v>412</v>
       </c>
@@ -35656,7 +35660,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="769" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="138" t="s">
         <v>412</v>
       </c>
@@ -35700,7 +35704,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="770" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="138" t="s">
         <v>412</v>
       </c>
@@ -35744,7 +35748,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="771" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="138" t="s">
         <v>412</v>
       </c>
@@ -35788,7 +35792,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="772" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="138" t="s">
         <v>412</v>
       </c>
@@ -35918,7 +35922,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="775" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A775" s="138" t="s">
         <v>412</v>
       </c>
@@ -35960,7 +35964,7 @@
       </c>
       <c r="N775" s="36"/>
     </row>
-    <row r="776" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A776" s="138" t="s">
         <v>412</v>
       </c>
@@ -36002,7 +36006,7 @@
       </c>
       <c r="N776" s="36"/>
     </row>
-    <row r="777" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A777" s="138" t="s">
         <v>412</v>
       </c>
@@ -36044,7 +36048,7 @@
       </c>
       <c r="N777" s="67"/>
     </row>
-    <row r="778" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A778" s="138" t="s">
         <v>412</v>
       </c>
@@ -36086,7 +36090,7 @@
       </c>
       <c r="N778" s="36"/>
     </row>
-    <row r="779" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A779" s="138" t="s">
         <v>412</v>
       </c>
@@ -36128,7 +36132,7 @@
       </c>
       <c r="N779" s="36"/>
     </row>
-    <row r="780" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A780" s="138" t="s">
         <v>412</v>
       </c>
@@ -36258,7 +36262,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="783" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A783" s="138" t="s">
         <v>412</v>
       </c>
@@ -36300,7 +36304,7 @@
       </c>
       <c r="N783" s="36"/>
     </row>
-    <row r="784" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A784" s="138" t="s">
         <v>412</v>
       </c>
@@ -36342,7 +36346,7 @@
       </c>
       <c r="N784" s="36"/>
     </row>
-    <row r="785" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A785" s="138" t="s">
         <v>412</v>
       </c>
@@ -36384,7 +36388,7 @@
       </c>
       <c r="N785" s="36"/>
     </row>
-    <row r="786" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A786" s="138" t="s">
         <v>412</v>
       </c>
@@ -36426,7 +36430,7 @@
       </c>
       <c r="N786" s="36"/>
     </row>
-    <row r="787" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A787" s="138" t="s">
         <v>412</v>
       </c>
@@ -36468,7 +36472,7 @@
       </c>
       <c r="N787" s="36"/>
     </row>
-    <row r="788" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A788" s="138" t="s">
         <v>412</v>
       </c>
@@ -36554,7 +36558,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="790" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A790" s="138" t="s">
         <v>412</v>
       </c>
@@ -36596,7 +36600,7 @@
       </c>
       <c r="N790" s="36"/>
     </row>
-    <row r="791" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A791" s="138" t="s">
         <v>412</v>
       </c>
@@ -36638,7 +36642,7 @@
       </c>
       <c r="N791" s="36"/>
     </row>
-    <row r="792" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A792" s="138" t="s">
         <v>412</v>
       </c>
@@ -36680,7 +36684,7 @@
       </c>
       <c r="N792" s="36"/>
     </row>
-    <row r="793" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A793" s="138" t="s">
         <v>412</v>
       </c>
@@ -36722,7 +36726,7 @@
       </c>
       <c r="N793" s="36"/>
     </row>
-    <row r="794" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A794" s="138" t="s">
         <v>412</v>
       </c>
@@ -36764,7 +36768,7 @@
       </c>
       <c r="N794" s="36"/>
     </row>
-    <row r="795" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A795" s="138" t="s">
         <v>412</v>
       </c>
@@ -36806,7 +36810,7 @@
       </c>
       <c r="N795" s="36"/>
     </row>
-    <row r="796" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A796" s="138" t="s">
         <v>412</v>
       </c>
@@ -36850,7 +36854,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="797" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A797" s="138" t="s">
         <v>412</v>
       </c>
@@ -36892,7 +36896,7 @@
       </c>
       <c r="N797" s="36"/>
     </row>
-    <row r="798" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A798" s="138" t="s">
         <v>412</v>
       </c>
@@ -36934,7 +36938,7 @@
       </c>
       <c r="N798" s="36"/>
     </row>
-    <row r="799" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A799" s="138" t="s">
         <v>412</v>
       </c>
@@ -36976,7 +36980,7 @@
       </c>
       <c r="N799" s="36"/>
     </row>
-    <row r="800" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A800" s="138" t="s">
         <v>412</v>
       </c>
@@ -37018,7 +37022,7 @@
       </c>
       <c r="N800" s="36"/>
     </row>
-    <row r="801" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A801" s="138" t="s">
         <v>412</v>
       </c>
@@ -37060,7 +37064,7 @@
       </c>
       <c r="N801" s="36"/>
     </row>
-    <row r="802" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A802" s="138" t="s">
         <v>412</v>
       </c>
@@ -37074,7 +37078,7 @@
         <v>127</v>
       </c>
       <c r="E802" s="15">
-        <v>45411</v>
+        <v>45413</v>
       </c>
       <c r="F802" s="16">
         <v>0.625</v>
@@ -37141,6 +37145,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="d111bada-3e6f-4186-af72-321f17a92816">
+      <UserInfo>
+        <DisplayName>Tony Furnell</DisplayName>
+        <AccountId>21</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010047D52C2EB712F341B0DF2D9ED5D9506A" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f60e02c0650e9ea2000e83e55453fc7f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1f086a82-432d-45e9-9ca6-8ca760156e0b" xmlns:ns3="d111bada-3e6f-4186-af72-321f17a92816" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="897166873492abbc78f80725dcffa27c" ns2:_="" ns3:_="">
     <xsd:import namespace="1f086a82-432d-45e9-9ca6-8ca760156e0b"/>
@@ -37319,20 +37337,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="d111bada-3e6f-4186-af72-321f17a92816">
-      <UserInfo>
-        <DisplayName>Tony Furnell</DisplayName>
-        <AccountId>21</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFC73EDA-6B2F-4B5B-858E-6AD4B6E182A8}">
   <ds:schemaRefs>
@@ -37342,6 +37346,16 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{836137F5-2A5A-4F0D-935E-C8DB69844C45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d111bada-3e6f-4186-af72-321f17a92816"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D336B7E-CD9A-40DA-B016-D0811386B08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -37358,14 +37372,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{836137F5-2A5A-4F0D-935E-C8DB69844C45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d111bada-3e6f-4186-af72-321f17a92816"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>